--- a/data_clean/DNB 21.12.2020.xlsx
+++ b/data_clean/DNB 21.12.2020.xlsx
@@ -1698,7 +1698,7 @@
         <v>1.148983508245636</v>
       </c>
       <c r="K2">
-        <v>49.60424851803538</v>
+        <v>-0.00395751481964603</v>
       </c>
       <c r="L2">
         <v>-0.0005920427213639393</v>
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.01003323892866269</v>
@@ -1799,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1840,7 +1840,7 @@
         <v>1.578947368420903</v>
       </c>
       <c r="K4">
-        <v>61.22448979591612</v>
+        <v>0.1122448979591613</v>
       </c>
       <c r="L4">
         <v>-0.001791327481326217</v>
@@ -1870,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000210504157457</v>
+        <v>0.0002105041574569366</v>
       </c>
       <c r="V4">
-        <v>1.000210504157457</v>
+        <v>0.0002105041574569366</v>
       </c>
       <c r="W4">
-        <v>1.000947567909033</v>
+        <v>0.0009475679090333866</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1911,7 +1911,7 @@
         <v>2.132963988919676</v>
       </c>
       <c r="K5">
-        <v>68.08134394341299</v>
+        <v>0.1808134394341299</v>
       </c>
       <c r="L5">
         <v>0.001978083600839254</v>
@@ -1941,13 +1941,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000184152372935</v>
+        <v>0.0001841523729348982</v>
       </c>
       <c r="V5">
-        <v>1.000184152372935</v>
+        <v>0.0001841523729348982</v>
       </c>
       <c r="W5">
-        <v>1.000315556958031</v>
+        <v>0.0003155569580310935</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1982,7 +1982,7 @@
         <v>3.882490158915468</v>
       </c>
       <c r="K6">
-        <v>79.51864791424123</v>
+        <v>0.2951864791424123</v>
       </c>
       <c r="L6">
         <v>0.005498915654207445</v>
@@ -2012,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000299850074962</v>
+        <v>0.0002998500749624711</v>
       </c>
       <c r="V6">
-        <v>1.000299850074962</v>
+        <v>0.0002998500749624711</v>
       </c>
       <c r="W6">
-        <v>1.000946372239748</v>
+        <v>0.0009463722397475838</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2053,7 +2053,7 @@
         <v>1.742795044106429</v>
       </c>
       <c r="K7">
-        <v>63.54084122513105</v>
+        <v>0.1354084122513105</v>
       </c>
       <c r="L7">
         <v>0.006704864329165137</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000094661113215</v>
+        <v>9.46611132148778E-05</v>
       </c>
       <c r="V7">
-        <v>1.000094661113215</v>
+        <v>9.46611132148778E-05</v>
       </c>
       <c r="W7">
-        <v>0.9993696816892531</v>
+        <v>-0.0006303183107468913</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2124,7 +2124,7 @@
         <v>6.383755984075222</v>
       </c>
       <c r="K8">
-        <v>86.45675720924783</v>
+        <v>0.3645675720924783</v>
       </c>
       <c r="L8">
         <v>0.01261251274013771</v>
@@ -2154,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000788767944471</v>
+        <v>0.0007887679444706919</v>
       </c>
       <c r="V8">
-        <v>1.000788767944471</v>
+        <v>0.0007887679444706919</v>
       </c>
       <c r="W8">
-        <v>1.005045726900031</v>
+        <v>0.005045726900031466</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2195,7 +2195,7 @@
         <v>7.605061494593454</v>
       </c>
       <c r="K9">
-        <v>88.37893255465637</v>
+        <v>0.3837893255465638</v>
       </c>
       <c r="L9">
         <v>0.019499363487606</v>
@@ -2225,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000748738965952</v>
+        <v>0.0007487389659521781</v>
       </c>
       <c r="V9">
-        <v>1.000748738965952</v>
+        <v>0.0007487389659521781</v>
       </c>
       <c r="W9">
-        <v>1.001255098839034</v>
+        <v>0.00125509883903363</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2266,7 +2266,7 @@
         <v>8.890646242507202</v>
       </c>
       <c r="K10">
-        <v>89.88943719670932</v>
+        <v>0.3988943719670932</v>
       </c>
       <c r="L10">
         <v>0.02627898744156624</v>
@@ -2296,13 +2296,13 @@
         <v>0.05416666666664582</v>
       </c>
       <c r="U10">
-        <v>1.000721926888495</v>
+        <v>0.0007219268884952612</v>
       </c>
       <c r="V10">
-        <v>1.000721926888495</v>
+        <v>0.0007219268884952612</v>
       </c>
       <c r="W10">
-        <v>1.001253525540583</v>
+        <v>0.001253525540582778</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2337,7 +2337,7 @@
         <v>10.58220512134118</v>
       </c>
       <c r="K11">
-        <v>91.36606553308734</v>
+        <v>0.4136606553308734</v>
       </c>
       <c r="L11">
         <v>0.03286786303089013</v>
@@ -2367,13 +2367,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U11">
-        <v>1.000734522560336</v>
+        <v>0.000734522560335682</v>
       </c>
       <c r="V11">
-        <v>1.000734522560336</v>
+        <v>0.000734522560335682</v>
       </c>
       <c r="W11">
-        <v>1.001564945226917</v>
+        <v>0.00156494522691708</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2408,7 +2408,7 @@
         <v>10.58220512134118</v>
       </c>
       <c r="K12">
-        <v>91.36606553308734</v>
+        <v>0.4136606553308734</v>
       </c>
       <c r="L12">
         <v>0.03828871574266066</v>
@@ -2438,13 +2438,13 @@
         <v>0.2482954545454561</v>
       </c>
       <c r="U12">
-        <v>1.000600531899683</v>
+        <v>0.000600531899682677</v>
       </c>
       <c r="V12">
-        <v>1.000600531899683</v>
+        <v>0.000600531899682677</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2479,7 +2479,7 @@
         <v>4.233825728524635</v>
       </c>
       <c r="K13">
-        <v>80.89351744079009</v>
+        <v>0.308935174407901</v>
       </c>
       <c r="L13">
         <v>0.04161820542421878</v>
@@ -2509,13 +2509,13 @@
         <v>0.3479166666666629</v>
       </c>
       <c r="U13">
-        <v>1.000395351052682</v>
+        <v>0.0003953510526817361</v>
       </c>
       <c r="V13">
-        <v>1.000395351052682</v>
+        <v>0.0003953510526817361</v>
       </c>
       <c r="W13">
-        <v>0.99875</v>
+        <v>-0.001249999999999973</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2550,7 +2550,7 @@
         <v>4.549568267409124</v>
       </c>
       <c r="K14">
-        <v>81.98058025751865</v>
+        <v>0.3198058025751865</v>
       </c>
       <c r="L14">
         <v>0.04371460244637253</v>
@@ -2580,13 +2580,13 @@
         <v>0.4432692307692605</v>
       </c>
       <c r="U14">
-        <v>1.000382741963426</v>
+        <v>0.0003827419634259144</v>
       </c>
       <c r="V14">
-        <v>1.000382741963426</v>
+        <v>0.0003827419634259144</v>
       </c>
       <c r="W14">
-        <v>1.000625782227785</v>
+        <v>0.0006257822277846437</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2621,7 +2621,7 @@
         <v>3.035998828304824</v>
       </c>
       <c r="K15">
-        <v>75.22298586939843</v>
+        <v>0.2522298586939843</v>
       </c>
       <c r="L15">
         <v>0.04430256807143244</v>
@@ -2651,13 +2651,13 @@
         <v>0.5517857142857281</v>
       </c>
       <c r="U15">
-        <v>1.000260625224379</v>
+        <v>0.0002606252243793072</v>
       </c>
       <c r="V15">
-        <v>1.000260625224379</v>
+        <v>0.0002606252243793072</v>
       </c>
       <c r="W15">
-        <v>0.99906191369606</v>
+        <v>-0.0009380863039399889</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2692,7 +2692,7 @@
         <v>2.718647575760361</v>
       </c>
       <c r="K16">
-        <v>73.10850303431813</v>
+        <v>0.2310850303431813</v>
       </c>
       <c r="L16">
         <v>0.04369981225309122</v>
@@ -2722,13 +2722,13 @@
         <v>0.5629166666666663</v>
       </c>
       <c r="U16">
-        <v>1.000204879726628</v>
+        <v>0.0002048797266278601</v>
       </c>
       <c r="V16">
-        <v>1.000204879726628</v>
+        <v>0.0002048797266278601</v>
       </c>
       <c r="W16">
-        <v>0.9996870109546165</v>
+        <v>-0.0003129890453834605</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2763,7 +2763,7 @@
         <v>3.158771526971867</v>
       </c>
       <c r="K17">
-        <v>75.95443766231294</v>
+        <v>0.2595443766231295</v>
       </c>
       <c r="L17">
         <v>0.04288302940266786</v>
@@ -2793,13 +2793,13 @@
         <v>0.5656249999999829</v>
       </c>
       <c r="U17">
-        <v>1.000257729261298</v>
+        <v>0.0002577292612981896</v>
       </c>
       <c r="V17">
-        <v>1.000627969773721</v>
+        <v>0.0006279697737214818</v>
       </c>
       <c r="W17">
-        <v>1.001252348152787</v>
+        <v>0.001252348152786631</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2834,7 +2834,7 @@
         <v>3.506237804244091</v>
       </c>
       <c r="K18">
-        <v>77.80853910865125</v>
+        <v>0.2780853910865124</v>
       </c>
       <c r="L18">
         <v>0.0422287672725512</v>
@@ -2864,13 +2864,13 @@
         <v>0.5000000000000284</v>
       </c>
       <c r="U18">
-        <v>1.00028274439791</v>
+        <v>0.0002827443979100952</v>
       </c>
       <c r="V18">
-        <v>1.000732171621028</v>
+        <v>0.0007321716210280105</v>
       </c>
       <c r="W18">
-        <v>1.00093808630394</v>
+        <v>0.0009380863039401</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2905,7 +2905,7 @@
         <v>1.579970047603786</v>
       </c>
       <c r="K19">
-        <v>61.23986009338458</v>
+        <v>0.1123986009338458</v>
       </c>
       <c r="L19">
         <v>0.04019021757351108</v>
@@ -2935,13 +2935,13 @@
         <v>0.3656249999999943</v>
       </c>
       <c r="U19">
-        <v>1.000076915503704</v>
+        <v>7.691550370436673E-05</v>
       </c>
       <c r="V19">
-        <v>1.000459885446716</v>
+        <v>0.0004598854467159352</v>
       </c>
       <c r="W19">
-        <v>0.9968759762574195</v>
+        <v>-0.003124023742580473</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2976,7 +2976,7 @@
         <v>1.493595708203176</v>
       </c>
       <c r="K20">
-        <v>59.89726816138229</v>
+        <v>0.09897268161382289</v>
       </c>
       <c r="L20">
         <v>0.03723407254618469</v>
@@ -3006,13 +3006,13 @@
         <v>0.2375000000000114</v>
       </c>
       <c r="U20">
-        <v>1.000052298519952</v>
+        <v>5.229851995181001E-05</v>
       </c>
       <c r="V20">
-        <v>1.000417885499373</v>
+        <v>0.0004178854993730496</v>
       </c>
       <c r="W20">
-        <v>0.9996866186148542</v>
+        <v>-0.0003133813851458056</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3047,7 +3047,7 @@
         <v>1.339438112715235</v>
       </c>
       <c r="K21">
-        <v>57.2546931434162</v>
+        <v>0.07254693143416202</v>
       </c>
       <c r="L21">
         <v>0.03356732507721599</v>
@@ -3077,13 +3077,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U21">
-        <v>1.000015688735488</v>
+        <v>1.568873548807304E-05</v>
       </c>
       <c r="V21">
-        <v>1.00031328320802</v>
+        <v>0.0003132832080201542</v>
       </c>
       <c r="W21">
-        <v>0.9993730407523511</v>
+        <v>-0.0006269592476488839</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3118,7 +3118,7 @@
         <v>0.8108627874118792</v>
       </c>
       <c r="K22">
-        <v>44.77770447592997</v>
+        <v>-0.05222295524070036</v>
       </c>
       <c r="L22">
         <v>0.02811799099119613</v>
@@ -3148,13 +3148,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U22">
-        <v>0.9998348973263077</v>
+        <v>-0.0001651026736922967</v>
       </c>
       <c r="V22">
-        <v>1.000104395030796</v>
+        <v>0.0001043950307964003</v>
       </c>
       <c r="W22">
-        <v>0.9962358845671268</v>
+        <v>-0.00376411543287325</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3189,7 +3189,7 @@
         <v>0.8454789866713964</v>
       </c>
       <c r="K23">
-        <v>45.81352552793609</v>
+        <v>-0.04186474472063906</v>
       </c>
       <c r="L23">
         <v>0.02203923408318023</v>
@@ -3219,13 +3219,13 @@
         <v>-0.1468750000000227</v>
       </c>
       <c r="U23">
-        <v>0.9998641464935532</v>
+        <v>-0.000135853506446848</v>
       </c>
       <c r="V23">
-        <v>0.9997912317327768</v>
+        <v>-0.0002087682672231583</v>
       </c>
       <c r="W23">
-        <v>1.000314861460957</v>
+        <v>0.0003148614609571609</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3260,7 +3260,7 @@
         <v>0.7621635963941158</v>
       </c>
       <c r="K24">
-        <v>43.25157993013348</v>
+        <v>-0.06748420069866518</v>
       </c>
       <c r="L24">
         <v>0.01556410520171377</v>
@@ -3290,13 +3290,13 @@
         <v>-0.2312500000000171</v>
       </c>
       <c r="U24">
-        <v>0.9998350041745184</v>
+        <v>-0.0001649958254815731</v>
       </c>
       <c r="V24">
-        <v>0.9996450198371267</v>
+        <v>-0.0003549801628732752</v>
       </c>
       <c r="W24">
-        <v>0.9990557129367327</v>
+        <v>-0.0009442870632673239</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3331,7 +3331,7 @@
         <v>0.7366915836643834</v>
       </c>
       <c r="K25">
-        <v>42.41925224915177</v>
+        <v>-0.07580747750848232</v>
       </c>
       <c r="L25">
         <v>0.009119076990806042</v>
@@ -3361,13 +3361,13 @@
         <v>-0.3312500000000114</v>
       </c>
       <c r="U25">
-        <v>0.9998356490327746</v>
+        <v>-0.0001643509672254462</v>
       </c>
       <c r="V25">
-        <v>0.9995404507760116</v>
+        <v>-0.0004595492239883869</v>
       </c>
       <c r="W25">
-        <v>0.9996849401386264</v>
+        <v>-0.00031505986137359</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3402,7 +3402,7 @@
         <v>0.6663642136426732</v>
       </c>
       <c r="K26">
-        <v>39.98910971485643</v>
+        <v>-0.1001089028514358</v>
       </c>
       <c r="L26">
         <v>0.002733062977028568</v>
@@ -3432,13 +3432,13 @@
         <v>-0.4468750000000341</v>
       </c>
       <c r="U26">
-        <v>0.9998110961395064</v>
+        <v>-0.0001889038604936388</v>
       </c>
       <c r="V26">
-        <v>0.9993730538546738</v>
+        <v>-0.0006269461453262126</v>
       </c>
       <c r="W26">
-        <v>0.9990545225338796</v>
+        <v>-0.0009454774661203924</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3473,7 +3473,7 @@
         <v>0.6663642136426731</v>
       </c>
       <c r="K27">
-        <v>39.98910971485643</v>
+        <v>-0.1001089028514358</v>
       </c>
       <c r="L27">
         <v>-0.003201128273638376</v>
@@ -3503,13 +3503,13 @@
         <v>-0.484375</v>
       </c>
       <c r="U27">
-        <v>0.9998255942597806</v>
+        <v>-0.0001744057402194299</v>
       </c>
       <c r="V27">
-        <v>0.9993726605466218</v>
+        <v>-0.0006273394533782284</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3544,7 +3544,7 @@
         <v>0.7721412653477563</v>
       </c>
       <c r="K28">
-        <v>43.57108998284259</v>
+        <v>-0.06428910017157408</v>
       </c>
       <c r="L28">
         <v>-0.008107224089180355</v>
@@ -3574,13 +3574,13 @@
         <v>-0.5062500000000227</v>
       </c>
       <c r="U28">
-        <v>0.9998733830047778</v>
+        <v>-0.0001266169952222063</v>
       </c>
       <c r="V28">
-        <v>0.9995187378376681</v>
+        <v>-0.000481262162331908</v>
       </c>
       <c r="W28">
-        <v>1.000946372239748</v>
+        <v>0.0009463722397475838</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3615,7 +3615,7 @@
         <v>0.9206002852847011</v>
       </c>
       <c r="K29">
-        <v>47.93294535766642</v>
+        <v>-0.02067054642333582</v>
       </c>
       <c r="L29">
         <v>-0.01157794051784312</v>
@@ -3645,13 +3645,13 @@
         <v>-0.515625</v>
       </c>
       <c r="U29">
-        <v>0.9999272866882286</v>
+        <v>-7.271331177138851E-05</v>
       </c>
       <c r="V29">
-        <v>0.9995603751465416</v>
+        <v>-0.0004396248534583869</v>
       </c>
       <c r="W29">
-        <v>1.001260636621494</v>
+        <v>0.001260636621493783</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3686,7 +3686,7 @@
         <v>1.233145590415133</v>
       </c>
       <c r="K30">
-        <v>55.22011622116838</v>
+        <v>0.0522011622116838</v>
       </c>
       <c r="L30">
         <v>-0.01298530794617114</v>
@@ -3716,13 +3716,13 @@
         <v>-0.4187500000000455</v>
       </c>
       <c r="U30">
-        <v>1.000018956986598</v>
+        <v>1.895698659759582E-05</v>
       </c>
       <c r="V30">
-        <v>0.9997905627578698</v>
+        <v>-0.0002094372421301838</v>
       </c>
       <c r="W30">
-        <v>1.002518098835379</v>
+        <v>0.002518098835379234</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3757,7 +3757,7 @@
         <v>1.233145590415133</v>
       </c>
       <c r="K31">
-        <v>55.22011622116838</v>
+        <v>0.0522011622116838</v>
       </c>
       <c r="L31">
         <v>-0.01301848270354089</v>
@@ -3787,13 +3787,13 @@
         <v>-0.3375000000000341</v>
       </c>
       <c r="U31">
-        <v>1.000017692852088</v>
+        <v>1.769285208785831E-05</v>
       </c>
       <c r="V31">
-        <v>0.9998114669962501</v>
+        <v>-0.00018853300374988</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3828,7 +3828,7 @@
         <v>1.134889525833183</v>
       </c>
       <c r="K32">
-        <v>53.15916875793702</v>
+        <v>0.03159168757937025</v>
       </c>
       <c r="L32">
         <v>-0.01241010294164372</v>
@@ -3858,13 +3858,13 @@
         <v>-0.2468750000000171</v>
       </c>
       <c r="U32">
-        <v>1.000157066418152</v>
+        <v>0.0001570664181524961</v>
       </c>
       <c r="V32">
-        <v>0.9996857190747571</v>
+        <v>-0.0003142809252428824</v>
       </c>
       <c r="W32">
-        <v>0.9993720565149137</v>
+        <v>-0.0006279434850863241</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3899,7 +3899,7 @@
         <v>1.34457165340589</v>
       </c>
       <c r="K33">
-        <v>57.34828583518317</v>
+        <v>0.07348285835183166</v>
       </c>
       <c r="L33">
         <v>-0.01082997330505729</v>
@@ -3929,13 +3929,13 @@
         <v>-0.1218749999999602</v>
       </c>
       <c r="U33">
-        <v>1.000230327903179</v>
+        <v>0.0002303279031785621</v>
       </c>
       <c r="V33">
-        <v>0.9997275375683775</v>
+        <v>-0.0002724624316224888</v>
       </c>
       <c r="W33">
-        <v>1.001570845114672</v>
+        <v>0.001570845114671648</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3970,7 +3970,7 @@
         <v>1.287726751311703</v>
       </c>
       <c r="K34">
-        <v>56.28848596421602</v>
+        <v>0.06288485964216017</v>
       </c>
       <c r="L34">
         <v>-0.008843436507770018</v>
@@ -4000,13 +4000,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U34">
-        <v>1.000188406707279</v>
+        <v>0.0001884067072788209</v>
       </c>
       <c r="V34">
-        <v>0.999916142557652</v>
+        <v>-8.385744234795656E-05</v>
       </c>
       <c r="W34">
-        <v>0.9996863237139272</v>
+        <v>-0.0003136762860728171</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -4041,7 +4041,7 @@
         <v>1.287726751311703</v>
       </c>
       <c r="K35">
-        <v>56.28848596421602</v>
+        <v>0.06288485964216017</v>
       </c>
       <c r="L35">
         <v>-0.006707777720039739</v>
@@ -4071,13 +4071,13 @@
         <v>0.1468749999999943</v>
       </c>
       <c r="U35">
-        <v>1.000177906149274</v>
+        <v>0.00017790614927371</v>
       </c>
       <c r="V35">
-        <v>0.9999371016437436</v>
+        <v>-6.289835625639117E-05</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4112,7 +4112,7 @@
         <v>1.129055929295389</v>
       </c>
       <c r="K36">
-        <v>53.03082524793278</v>
+        <v>0.03030825247932778</v>
       </c>
       <c r="L36">
         <v>-0.00494122219148263</v>
@@ -4142,13 +4142,13 @@
         <v>0.234375</v>
       </c>
       <c r="U36">
-        <v>1.000115095267492</v>
+        <v>0.0001150952674917605</v>
       </c>
       <c r="V36">
-        <v>0.999916130249722</v>
+        <v>-8.386975027796506E-05</v>
       </c>
       <c r="W36">
-        <v>0.9990586758707248</v>
+        <v>-0.0009413241292751673</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4183,7 +4183,7 @@
         <v>1.431696072527762</v>
       </c>
       <c r="K37">
-        <v>58.87643972873246</v>
+        <v>0.08876439728732455</v>
       </c>
       <c r="L37">
         <v>-0.002686089203861487</v>
@@ -4213,13 +4213,13 @@
         <v>0.3125</v>
       </c>
       <c r="U37">
-        <v>1.000209240040174</v>
+        <v>0.0002092400401740857</v>
       </c>
       <c r="V37">
-        <v>1.000314537943761</v>
+        <v>0.0003145379437607954</v>
       </c>
       <c r="W37">
-        <v>1.002198492462312</v>
+        <v>0.002198492462311741</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4254,7 +4254,7 @@
         <v>1.211208640144269</v>
       </c>
       <c r="K38">
-        <v>54.77586412041355</v>
+        <v>0.04775864120413553</v>
       </c>
       <c r="L38">
         <v>-0.00073151872024804</v>
@@ -4284,13 +4284,13 @@
         <v>0.2906249999999773</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1.000209626027167</v>
+        <v>0.0002096260271673422</v>
       </c>
       <c r="W38">
-        <v>0.998746474459417</v>
+        <v>-0.001253525540583</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4325,7 +4325,7 @@
         <v>1.079910539321666</v>
       </c>
       <c r="K39">
-        <v>51.92100904848839</v>
+        <v>0.01921009048488387</v>
       </c>
       <c r="L39">
         <v>0.0005738603323486885</v>
@@ -4355,13 +4355,13 @@
         <v>0.2625000000000171</v>
       </c>
       <c r="U39">
-        <v>0.9999267813062216</v>
+        <v>-7.321869377840962E-05</v>
       </c>
       <c r="V39">
-        <v>1.000209582093306</v>
+        <v>0.0002095820933059045</v>
       </c>
       <c r="W39">
-        <v>0.9990586758707248</v>
+        <v>-0.0009413241292751673</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4396,7 +4396,7 @@
         <v>1.155982501713024</v>
       </c>
       <c r="K40">
-        <v>53.61743431565629</v>
+        <v>0.03617434315656287</v>
       </c>
       <c r="L40">
         <v>0.001631090256139942</v>
@@ -4426,13 +4426,13 @@
         <v>0.2437500000000057</v>
       </c>
       <c r="U40">
-        <v>0.9999058547862379</v>
+        <v>-9.414521376205354E-05</v>
       </c>
       <c r="V40">
-        <v>1.000272399631213</v>
+        <v>0.0002723996312128385</v>
       </c>
       <c r="W40">
-        <v>1.000628140703518</v>
+        <v>0.0006281407035177988</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4467,7 +4467,7 @@
         <v>1.236058251598641</v>
       </c>
       <c r="K41">
-        <v>55.27844593113517</v>
+        <v>0.05278445931135167</v>
       </c>
       <c r="L41">
         <v>0.002694295928454684</v>
@@ -4497,13 +4497,13 @@
         <v>0.1968749999999773</v>
       </c>
       <c r="U41">
-        <v>0.9998744612294431</v>
+        <v>-0.0001255387705568767</v>
       </c>
       <c r="V41">
-        <v>1.0003770660075</v>
+        <v>0.000377066007499538</v>
       </c>
       <c r="W41">
-        <v>1.000627746390458</v>
+        <v>0.0006277463904582614</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4538,7 +4538,7 @@
         <v>1.13996988973782</v>
       </c>
       <c r="K42">
-        <v>53.2703705414044</v>
+        <v>0.03270370541404399</v>
       </c>
       <c r="L42">
         <v>0.003453691613013968</v>
@@ -4568,13 +4568,13 @@
         <v>0.1406250000000284</v>
       </c>
       <c r="U42">
-        <v>0.9998535197120616</v>
+        <v>-0.0001464802879383997</v>
       </c>
       <c r="V42">
-        <v>1.000335043450947</v>
+        <v>0.0003350434509474809</v>
       </c>
       <c r="W42">
-        <v>0.9993726474278545</v>
+        <v>-0.0006273525721455231</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4609,7 +4609,7 @@
         <v>1.13996988973782</v>
       </c>
       <c r="K43">
-        <v>53.2703705414044</v>
+        <v>0.03270370541404399</v>
       </c>
       <c r="L43">
         <v>0.003968156984430094</v>
@@ -4639,13 +4639,13 @@
         <v>0.08437500000002274</v>
       </c>
       <c r="U43">
-        <v>0.9998953558946025</v>
+        <v>-0.0001046441053974556</v>
       </c>
       <c r="V43">
-        <v>1.000272131627975</v>
+        <v>0.0002721316279752362</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4680,7 +4680,7 @@
         <v>1.092900842675641</v>
       </c>
       <c r="K44">
-        <v>52.21942771442706</v>
+        <v>0.02219427714427058</v>
       </c>
       <c r="L44">
         <v>0.004172440009899719</v>
@@ -4710,13 +4710,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U44">
-        <v>0.9998639484259879</v>
+        <v>-0.000136051574012086</v>
       </c>
       <c r="V44">
-        <v>1.000167420056923</v>
+        <v>0.000167420056922829</v>
       </c>
       <c r="W44">
-        <v>0.9996861268047708</v>
+        <v>-0.0003138731952292417</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4751,7 +4751,7 @@
         <v>1.092900842675641</v>
       </c>
       <c r="K45">
-        <v>52.21942771442704</v>
+        <v>0.02219427714427047</v>
       </c>
       <c r="L45">
         <v>0.004160773354083193</v>
@@ -4781,13 +4781,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U45">
-        <v>0.9998953307026451</v>
+        <v>-0.0001046692973548646</v>
       </c>
       <c r="V45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4822,7 +4822,7 @@
         <v>0.9238371901130439</v>
       </c>
       <c r="K46">
-        <v>48.02054949664215</v>
+        <v>-0.01979450503357844</v>
       </c>
       <c r="L46">
         <v>0.003545790436912571</v>
@@ -4852,13 +4852,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U46">
-        <v>0.999863915669587</v>
+        <v>-0.000136084330413011</v>
       </c>
       <c r="V46">
-        <v>0.9999163039839304</v>
+        <v>-8.369601606961208E-05</v>
       </c>
       <c r="W46">
-        <v>0.9987441130298274</v>
+        <v>-0.001255886970172648</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4893,7 +4893,7 @@
         <v>0.887700181537478</v>
       </c>
       <c r="K47">
-        <v>47.02548583824745</v>
+        <v>-0.02974514161752551</v>
       </c>
       <c r="L47">
         <v>0.002477511585614229</v>
@@ -4923,13 +4923,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U47">
-        <v>0.9998115498973994</v>
+        <v>-0.0001884501026006014</v>
       </c>
       <c r="V47">
-        <v>0.9999372227337405</v>
+        <v>-6.277726625947277E-05</v>
       </c>
       <c r="W47">
-        <v>0.999685633448601</v>
+        <v>-0.0003143665513990479</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4964,7 +4964,7 @@
         <v>0.9700500951422057</v>
       </c>
       <c r="K48">
-        <v>49.23986945987705</v>
+        <v>-0.007601305401229497</v>
       </c>
       <c r="L48">
         <v>0.001422994122089888</v>
@@ -4994,13 +4994,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U48">
-        <v>0.9998010429537791</v>
+        <v>-0.0001989570462208601</v>
       </c>
       <c r="V48">
-        <v>0.9998744375850164</v>
+        <v>-0.0001255624149836265</v>
       </c>
       <c r="W48">
-        <v>1.00062893081761</v>
+        <v>0.0006289308176099517</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -5035,7 +5035,7 @@
         <v>1.100076274518104</v>
       </c>
       <c r="K49">
-        <v>52.3826818990436</v>
+        <v>0.02382681899043593</v>
       </c>
       <c r="L49">
         <v>0.0007823022350384754</v>
@@ -5065,13 +5065,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U49">
-        <v>0.99993715895642</v>
+        <v>-6.284104358000864E-05</v>
       </c>
       <c r="V49">
-        <v>0.9999581406057053</v>
+        <v>-4.185939429468544E-05</v>
       </c>
       <c r="W49">
-        <v>1.000942803268385</v>
+        <v>0.0009428032683846954</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5106,7 +5106,7 @@
         <v>1.052077127400664</v>
       </c>
       <c r="K50">
-        <v>51.26888815983805</v>
+        <v>0.01268888159838044</v>
       </c>
       <c r="L50">
         <v>0.000315727139228085</v>
@@ -5136,13 +5136,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U50">
-        <v>0.9999371550071747</v>
+        <v>-6.284499282527278E-05</v>
       </c>
       <c r="V50">
-        <v>0.9999372082801347</v>
+        <v>-6.279171986534049E-05</v>
       </c>
       <c r="W50">
-        <v>0.9996860282574568</v>
+        <v>-0.0003139717425432176</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5177,7 +5177,7 @@
         <v>0.9635658679638432</v>
       </c>
       <c r="K51">
-        <v>49.07224573846515</v>
+        <v>-0.009277542615348522</v>
       </c>
       <c r="L51">
         <v>-0.0002456811568676908</v>
@@ -5207,13 +5207,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U51">
-        <v>0.9999371510574333</v>
+        <v>-6.28489425666956E-05</v>
       </c>
       <c r="V51">
-        <v>0.9999581362247247</v>
+        <v>-4.186377527526375E-05</v>
       </c>
       <c r="W51">
-        <v>0.9993718592964824</v>
+        <v>-0.0006281407035175768</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5248,7 +5248,7 @@
         <v>0.850577787091734</v>
       </c>
       <c r="K52">
-        <v>45.96282269379527</v>
+        <v>-0.04037177306204726</v>
       </c>
       <c r="L52">
         <v>-0.001171094948870752</v>
@@ -5278,13 +5278,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U52">
-        <v>1.000031426446402</v>
+        <v>3.142644640208303E-05</v>
       </c>
       <c r="V52">
-        <v>0.9997488068324543</v>
+        <v>-0.0002511931675457379</v>
       </c>
       <c r="W52">
-        <v>0.9990571967316153</v>
+        <v>-0.0009428032683846954</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5319,7 +5319,7 @@
         <v>0.7859070866297222</v>
       </c>
       <c r="K53">
-        <v>44.00604558397538</v>
+        <v>-0.05993954416024622</v>
       </c>
       <c r="L53">
         <v>-0.002482535019544654</v>
@@ -5349,13 +5349,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>0.9997906197654941</v>
+        <v>-0.0002093802345058959</v>
       </c>
       <c r="W53">
-        <v>0.9993708713431897</v>
+        <v>-0.0006291286568103072</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5390,7 +5390,7 @@
         <v>0.8659402388846354</v>
       </c>
       <c r="K54">
-        <v>46.40771557626361</v>
+        <v>-0.03592284423736386</v>
       </c>
       <c r="L54">
         <v>-0.003706368707077449</v>
@@ -5420,13 +5420,13 @@
         <v>-0.1031249999999773</v>
       </c>
       <c r="U54">
-        <v>1.000052375764686</v>
+        <v>5.237576468641869E-05</v>
       </c>
       <c r="V54">
-        <v>0.9998952879581153</v>
+        <v>-0.0001047120418846692</v>
       </c>
       <c r="W54">
-        <v>1.000629524708845</v>
+        <v>0.0006295247088448086</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5461,7 +5461,7 @@
         <v>0.8659402388846356</v>
       </c>
       <c r="K55">
-        <v>46.40771557626362</v>
+        <v>-0.0359228442373638</v>
       </c>
       <c r="L55">
         <v>-0.004785686378508477</v>
@@ -5491,13 +5491,13 @@
         <v>-0.09375000000002842</v>
       </c>
       <c r="U55">
-        <v>1.000062847625931</v>
+        <v>6.284762593078419E-05</v>
       </c>
       <c r="V55">
-        <v>0.9998533877892972</v>
+        <v>-0.000146612210702779</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5532,7 +5532,7 @@
         <v>0.8659402388846356</v>
       </c>
       <c r="K56">
-        <v>46.40771557626362</v>
+        <v>-0.0359228442373638</v>
       </c>
       <c r="L56">
         <v>-0.005691302596008591</v>
@@ -5562,13 +5562,13 @@
         <v>-0.09062500000001705</v>
       </c>
       <c r="U56">
-        <v>1.000094265514533</v>
+        <v>9.4265514532621E-05</v>
       </c>
       <c r="V56">
-        <v>0.999811470945578</v>
+        <v>-0.0001885290544220153</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5603,7 +5603,7 @@
         <v>0.8659402388846356</v>
       </c>
       <c r="K57">
-        <v>46.40771557626362</v>
+        <v>-0.0359228442373638</v>
       </c>
       <c r="L57">
         <v>-0.00641330862941445</v>
@@ -5633,13 +5633,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U57">
-        <v>1.000094256629383</v>
+        <v>9.425662938311596E-05</v>
       </c>
       <c r="V57">
-        <v>0.9998533386410777</v>
+        <v>-0.0001466613589222732</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5674,7 +5674,7 @@
         <v>0.9150700965468304</v>
       </c>
       <c r="K58">
-        <v>47.78259021415688</v>
+        <v>-0.02217409785843122</v>
       </c>
       <c r="L58">
         <v>-0.00684036048049323</v>
@@ -5704,13 +5704,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U58">
-        <v>1.000073303802373</v>
+        <v>7.330380237280387E-05</v>
       </c>
       <c r="V58">
-        <v>0.9998742718243158</v>
+        <v>-0.0001257281756842366</v>
       </c>
       <c r="W58">
-        <v>1.000314564328405</v>
+        <v>0.0003145643284052646</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5745,7 +5745,7 @@
         <v>1.225363934413265</v>
       </c>
       <c r="K59">
-        <v>55.0635298552343</v>
+        <v>0.05063529855234306</v>
       </c>
       <c r="L59">
         <v>-0.006350158160152102</v>
@@ -5775,13 +5775,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U59">
-        <v>1.000094240837696</v>
+        <v>9.424083769649094E-05</v>
       </c>
       <c r="V59">
-        <v>1.000020957330874</v>
+        <v>2.095733087448259E-05</v>
       </c>
       <c r="W59">
-        <v>1.00188679245283</v>
+        <v>0.001886792452830299</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5816,7 +5816,7 @@
         <v>1.334238965243583</v>
       </c>
       <c r="K60">
-        <v>57.15948474471431</v>
+        <v>0.07159484744714306</v>
       </c>
       <c r="L60">
         <v>-0.005083450032127524</v>
@@ -5846,13 +5846,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U60">
-        <v>1.000031410652399</v>
+        <v>3.141065239908869E-05</v>
       </c>
       <c r="V60">
-        <v>1.000062870675021</v>
+        <v>6.28706750214203E-05</v>
       </c>
       <c r="W60">
-        <v>1.000627746390458</v>
+        <v>0.0006277463904582614</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5887,7 +5887,7 @@
         <v>1.261927195598109</v>
       </c>
       <c r="K61">
-        <v>55.78991216224467</v>
+        <v>0.0578991216224467</v>
       </c>
       <c r="L61">
         <v>-0.003522846440167062</v>
@@ -5917,13 +5917,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U61">
-        <v>1.000020939777201</v>
+        <v>2.093977720085682E-05</v>
       </c>
       <c r="V61">
-        <v>1.000125733445096</v>
+        <v>0.0001257334450963654</v>
       </c>
       <c r="W61">
-        <v>0.9996863237139272</v>
+        <v>-0.0003136762860728171</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5958,7 +5958,7 @@
         <v>1.132688583932929</v>
       </c>
       <c r="K62">
-        <v>53.11082886016662</v>
+        <v>0.03110828860166626</v>
       </c>
       <c r="L62">
         <v>-0.002099628123405758</v>
@@ -5988,13 +5988,13 @@
         <v>0.046875</v>
       </c>
       <c r="U62">
-        <v>1.000020939338736</v>
+        <v>2.093933873559273E-05</v>
       </c>
       <c r="V62">
-        <v>1.000104764698487</v>
+        <v>0.000104764698487303</v>
       </c>
       <c r="W62">
-        <v>0.9993724505804833</v>
+        <v>-0.0006275494195167042</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -6029,7 +6029,7 @@
         <v>0.7110762899658859</v>
       </c>
       <c r="K63">
-        <v>41.55725224735963</v>
+        <v>-0.08442747752640373</v>
       </c>
       <c r="L63">
         <v>-0.002101331599266399</v>
@@ -6059,13 +6059,13 @@
         <v>0.03437500000003979</v>
       </c>
       <c r="U63">
-        <v>0.9998534276979772</v>
+        <v>-0.0001465723020227516</v>
       </c>
       <c r="V63">
-        <v>0.9998323940416082</v>
+        <v>-0.0001676059583918255</v>
       </c>
       <c r="W63">
-        <v>0.9965463108320251</v>
+        <v>-0.003453689167974949</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6100,7 +6100,7 @@
         <v>0.8179344537263363</v>
       </c>
       <c r="K64">
-        <v>44.99251620704827</v>
+        <v>-0.05007483792951734</v>
       </c>
       <c r="L64">
         <v>-0.002615307075722091</v>
@@ -6130,13 +6130,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U64">
-        <v>0.9998952901509917</v>
+        <v>-0.0001047098490083442</v>
       </c>
       <c r="V64">
-        <v>0.9998323659451419</v>
+        <v>-0.0001676340548580901</v>
       </c>
       <c r="W64">
-        <v>1.000945179584121</v>
+        <v>0.000945179584121103</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6171,7 +6171,7 @@
         <v>0.7883750467609326</v>
       </c>
       <c r="K65">
-        <v>44.08331732143216</v>
+        <v>-0.05916682678567836</v>
       </c>
       <c r="L65">
         <v>-0.003511807072977614</v>
@@ -6201,13 +6201,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U65">
-        <v>0.9998848071042602</v>
+        <v>-0.0001151928957398018</v>
       </c>
       <c r="V65">
-        <v>0.9998323378392538</v>
+        <v>-0.0001676621607461515</v>
       </c>
       <c r="W65">
-        <v>0.9996852376455777</v>
+        <v>-0.0003147623544222933</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6242,7 +6242,7 @@
         <v>0.759483425714254</v>
       </c>
       <c r="K66">
-        <v>43.16513668811318</v>
+        <v>-0.06834863311886819</v>
       </c>
       <c r="L66">
         <v>-0.004684619733268802</v>
@@ -6272,13 +6272,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U66">
-        <v>0.9999057404090865</v>
+        <v>-9.425959091347025E-05</v>
       </c>
       <c r="V66">
-        <v>0.9998532710084473</v>
+        <v>-0.0001467289915526582</v>
       </c>
       <c r="W66">
-        <v>0.9996851385390427</v>
+        <v>-0.000314861460957272</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6313,7 +6313,7 @@
         <v>0.8752109571943222</v>
       </c>
       <c r="K67">
-        <v>46.67266655181061</v>
+        <v>-0.03327333448189385</v>
       </c>
       <c r="L67">
         <v>-0.005589845897932925</v>
@@ -6343,13 +6343,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U67">
-        <v>0.9998638344226579</v>
+        <v>-0.0001361655773420845</v>
       </c>
       <c r="V67">
-        <v>0.9999790356394128</v>
+        <v>-2.096436058718343E-05</v>
       </c>
       <c r="W67">
-        <v>1.000944881889764</v>
+        <v>0.0009448818897637157</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6384,7 +6384,7 @@
         <v>0.8094718816401263</v>
       </c>
       <c r="K68">
-        <v>44.73525617355333</v>
+        <v>-0.05264743826446666</v>
       </c>
       <c r="L68">
         <v>-0.006483846130881589</v>
@@ -6414,13 +6414,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U68">
-        <v>0.9998847672822888</v>
+        <v>-0.0001152327177111889</v>
       </c>
       <c r="V68">
-        <v>0.9999790351998996</v>
+        <v>-2.096480010038704E-05</v>
       </c>
       <c r="W68">
-        <v>0.999370673379484</v>
+        <v>-0.0006293266205159576</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6455,7 +6455,7 @@
         <v>1.086201271458852</v>
       </c>
       <c r="K69">
-        <v>52.06598645677587</v>
+        <v>0.0206598645677587</v>
       </c>
       <c r="L69">
         <v>-0.006489463045732312</v>
@@ -6485,13 +6485,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U69">
-        <v>0.999989523091107</v>
+        <v>-1.04769088929979E-05</v>
       </c>
       <c r="V69">
-        <v>1.000083860958531</v>
+        <v>8.386095853096798E-05</v>
       </c>
       <c r="W69">
-        <v>1.0022040302267</v>
+        <v>0.002204030226700127</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6526,7 +6526,7 @@
         <v>1.0428065034298</v>
       </c>
       <c r="K70">
-        <v>51.04773759428338</v>
+        <v>0.01047737594283382</v>
       </c>
       <c r="L70">
         <v>-0.006047235167903034</v>
@@ -6556,13 +6556,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U70">
-        <v>0.9999580919253619</v>
+        <v>-4.190807463810842E-05</v>
       </c>
       <c r="V70">
-        <v>1.000062890444845</v>
+        <v>6.28904448449763E-05</v>
       </c>
       <c r="W70">
-        <v>0.9996858309770655</v>
+        <v>-0.0003141690229344629</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6597,7 +6597,7 @@
         <v>1.0428065034298</v>
       </c>
       <c r="K71">
-        <v>51.04773759428338</v>
+        <v>0.01047737594283382</v>
       </c>
       <c r="L71">
         <v>-0.005339784037508047</v>
@@ -6627,13 +6627,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U71">
-        <v>0.9999371352535018</v>
+        <v>-6.28647464981924E-05</v>
       </c>
       <c r="V71">
-        <v>1.000062886489886</v>
+        <v>6.288648988572731E-05</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6668,7 +6668,7 @@
         <v>1.08707347928868</v>
       </c>
       <c r="K72">
-        <v>52.08601853630846</v>
+        <v>0.02086018536308454</v>
       </c>
       <c r="L72">
         <v>-0.004382780542515796</v>
@@ -6698,13 +6698,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U72">
-        <v>0.9999685656506389</v>
+        <v>-3.143434936114797E-05</v>
       </c>
       <c r="V72">
-        <v>1.000083843380565</v>
+        <v>8.384338056521834E-05</v>
       </c>
       <c r="W72">
-        <v>1.000314267756128</v>
+        <v>0.0003142677561283058</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6739,7 +6739,7 @@
         <v>1.273460746062858</v>
       </c>
       <c r="K73">
-        <v>56.01419546249991</v>
+        <v>0.06014195462499905</v>
       </c>
       <c r="L73">
         <v>-0.002861707104685984</v>
@@ -6769,13 +6769,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U73">
-        <v>1.000010478445837</v>
+        <v>1.047844583679236E-05</v>
       </c>
       <c r="V73">
-        <v>1.000146713615023</v>
+        <v>0.0001467136150234971</v>
       </c>
       <c r="W73">
-        <v>1.001256676091737</v>
+        <v>0.001256676091737186</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6810,7 +6810,7 @@
         <v>1.064591045791895</v>
       </c>
       <c r="K74">
-        <v>51.56425762679602</v>
+        <v>0.01564257626796017</v>
       </c>
       <c r="L74">
         <v>-0.001543224482337236</v>
@@ -6840,13 +6840,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U74">
-        <v>0.9999790433279198</v>
+        <v>-2.095667208024121E-05</v>
       </c>
       <c r="V74">
-        <v>0.9999371319600158</v>
+        <v>-6.286803998423185E-05</v>
       </c>
       <c r="W74">
-        <v>0.9987449011609665</v>
+        <v>-0.001255098839033519</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6881,7 +6881,7 @@
         <v>1.064591045791895</v>
       </c>
       <c r="K75">
-        <v>51.56425762679602</v>
+        <v>0.01564257626796017</v>
       </c>
       <c r="L75">
         <v>-0.0004258985418946928</v>
@@ -6911,13 +6911,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U75">
-        <v>0.9999790428887281</v>
+        <v>-2.095711127192423E-05</v>
       </c>
       <c r="V75">
-        <v>0.9998952133456284</v>
+        <v>-0.0001047866543716358</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6952,7 +6952,7 @@
         <v>1.01832431709029</v>
       </c>
       <c r="K76">
-        <v>50.45394877659471</v>
+        <v>0.004539487765947037</v>
       </c>
       <c r="L76">
         <v>0.0003854192644173159</v>
@@ -6982,13 +6982,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U76">
-        <v>1.000010478775241</v>
+        <v>1.047877524085195E-05</v>
       </c>
       <c r="V76">
-        <v>0.9998952023642346</v>
+        <v>-0.0001047976357654301</v>
       </c>
       <c r="W76">
-        <v>0.9996858309770655</v>
+        <v>-0.0003141690229344629</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7023,7 +7023,7 @@
         <v>1.064071291835576</v>
       </c>
       <c r="K77">
-        <v>51.55206101865304</v>
+        <v>0.01552061018653039</v>
       </c>
       <c r="L77">
         <v>0.001072697951961953</v>
@@ -7053,13 +7053,13 @@
         <v>0.1281250000000114</v>
       </c>
       <c r="U77">
-        <v>1.000031435996311</v>
+        <v>3.143599631139082E-05</v>
       </c>
       <c r="V77">
-        <v>0.9999580765522155</v>
+        <v>-4.192344778453094E-05</v>
       </c>
       <c r="W77">
-        <v>1.000314267756128</v>
+        <v>0.0003142677561283058</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7094,7 +7094,7 @@
         <v>0.9705939508705447</v>
       </c>
       <c r="K78">
-        <v>49.25387852945391</v>
+        <v>-0.007461214705460906</v>
       </c>
       <c r="L78">
         <v>0.001408177933732922</v>
@@ -7124,13 +7124,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U78">
-        <v>0.9999895216639598</v>
+        <v>-1.047833604017612E-05</v>
       </c>
       <c r="V78">
-        <v>1.000146738219017</v>
+        <v>0.0001467382190174504</v>
       </c>
       <c r="W78">
-        <v>0.9993716619541314</v>
+        <v>-0.0006283380458685928</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7165,7 +7165,7 @@
         <v>0.9705939508705447</v>
       </c>
       <c r="K79">
-        <v>49.25387852945391</v>
+        <v>-0.007461214705460906</v>
       </c>
       <c r="L79">
         <v>0.001504024390990041</v>
@@ -7195,13 +7195,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U79">
-        <v>0.9999580862166524</v>
+        <v>-4.191378334761353E-05</v>
       </c>
       <c r="V79">
-        <v>1.000083838108612</v>
+        <v>8.383810861212204E-05</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7236,7 +7236,7 @@
         <v>1.019263622660385</v>
       </c>
       <c r="K80">
-        <v>50.47699622882834</v>
+        <v>0.004769962288283414</v>
       </c>
       <c r="L80">
         <v>0.001557580094452467</v>
@@ -7266,13 +7266,13 @@
         <v>0.08437500000002274</v>
       </c>
       <c r="U80">
-        <v>0.9999790422299065</v>
+        <v>-2.09577700934771E-05</v>
       </c>
       <c r="V80">
-        <v>1.00012574662056</v>
+        <v>0.0001257466205595303</v>
       </c>
       <c r="W80">
-        <v>1.000314366551399</v>
+        <v>0.0003143665513987148</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7307,7 +7307,7 @@
         <v>0.8459146242429456</v>
       </c>
       <c r="K81">
-        <v>45.82631358640846</v>
+        <v>-0.04173686413591537</v>
       </c>
       <c r="L81">
         <v>0.00111857898508368</v>
@@ -7337,13 +7337,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U81">
-        <v>0.9999580835813389</v>
+        <v>-4.191641866113649E-05</v>
       </c>
       <c r="V81">
-        <v>1.000062865405168</v>
+        <v>6.286540516753369E-05</v>
       </c>
       <c r="W81">
-        <v>0.9987429289754872</v>
+        <v>-0.001257071024512779</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7378,7 +7378,7 @@
         <v>0.8459146242429455</v>
       </c>
       <c r="K82">
-        <v>45.82631358640845</v>
+        <v>-0.04173686413591549</v>
       </c>
       <c r="L82">
         <v>0.0004050961498893671</v>
@@ -7408,13 +7408,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U82">
-        <v>0.9999895204560698</v>
+        <v>-1.047954393018635E-05</v>
       </c>
       <c r="V82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7449,7 +7449,7 @@
         <v>0.7730732314253003</v>
       </c>
       <c r="K83">
-        <v>43.60075025236598</v>
+        <v>-0.06399249747634017</v>
       </c>
       <c r="L83">
         <v>-0.0006596021878011063</v>
@@ -7479,13 +7479,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U83">
-        <v>0.999989520346248</v>
+        <v>-1.047965375200466E-05</v>
       </c>
       <c r="V83">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W83">
-        <v>0.999370673379484</v>
+        <v>-0.0006293266205159576</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7520,7 +7520,7 @@
         <v>0.6805446345629464</v>
       </c>
       <c r="K84">
-        <v>40.49548108193707</v>
+        <v>-0.09504518918062926</v>
       </c>
       <c r="L84">
         <v>-0.00221023110784033</v>
@@ -7550,13 +7550,13 @@
         <v>-0.1031249999999773</v>
       </c>
       <c r="U84">
-        <v>0.9999371214185405</v>
+        <v>-6.287858145948011E-05</v>
       </c>
       <c r="V84">
-        <v>0.9997904618221441</v>
+        <v>-0.0002095381778558503</v>
       </c>
       <c r="W84">
-        <v>0.9990554156171284</v>
+        <v>-0.0009445843828715939</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7591,7 +7591,7 @@
         <v>0.7645371284637059</v>
       </c>
       <c r="K85">
-        <v>43.32791394020425</v>
+        <v>-0.06672086059795745</v>
       </c>
       <c r="L85">
         <v>-0.003719538716065275</v>
@@ -7621,13 +7621,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U85">
-        <v>0.9999580783097176</v>
+        <v>-4.192169028238713E-05</v>
       </c>
       <c r="V85">
-        <v>0.9998532925346858</v>
+        <v>-0.0001467074653141998</v>
       </c>
       <c r="W85">
-        <v>1.000630318310747</v>
+        <v>0.0006303183107470023</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7662,7 +7662,7 @@
         <v>0.7645371284637059</v>
       </c>
       <c r="K86">
-        <v>43.32791394020425</v>
+        <v>-0.06672086059795745</v>
       </c>
       <c r="L86">
         <v>-0.005094186493073836</v>
@@ -7692,13 +7692,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U86">
-        <v>0.9999580765522155</v>
+        <v>-4.192344778453094E-05</v>
       </c>
       <c r="V86">
-        <v>0.9998532710084473</v>
+        <v>-0.0001467289915526582</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7733,7 +7733,7 @@
         <v>0.6445627601518763</v>
       </c>
       <c r="K87">
-        <v>39.19356413569468</v>
+        <v>-0.1080643586430532</v>
       </c>
       <c r="L87">
         <v>-0.006739105172660476</v>
@@ -7763,13 +7763,13 @@
         <v>-0.1718750000000284</v>
       </c>
       <c r="U87">
-        <v>0.9999161495891331</v>
+        <v>-8.385041086689249E-05</v>
       </c>
       <c r="V87">
-        <v>0.999748427672956</v>
+        <v>-0.0002515723270439807</v>
       </c>
       <c r="W87">
-        <v>0.9987401574803151</v>
+        <v>-0.001259842519684917</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7804,7 +7804,7 @@
         <v>0.6190006105796583</v>
       </c>
       <c r="K88">
-        <v>38.23350074945522</v>
+        <v>-0.1176649925054478</v>
       </c>
       <c r="L88">
         <v>-0.008533091939079238</v>
@@ -7834,13 +7834,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U88">
-        <v>0.9998951781970649</v>
+        <v>-0.00010482180293514</v>
       </c>
       <c r="V88">
-        <v>0.999643516188559</v>
+        <v>-0.000356483811441044</v>
       </c>
       <c r="W88">
-        <v>0.999684642068748</v>
+        <v>-0.000315357931252036</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7875,7 +7875,7 @@
         <v>0.6190006105796582</v>
       </c>
       <c r="K89">
-        <v>38.23350074945522</v>
+        <v>-0.1176649925054478</v>
       </c>
       <c r="L89">
         <v>-0.01027226347337443</v>
@@ -7905,13 +7905,13 @@
         <v>-0.203125</v>
       </c>
       <c r="U89">
-        <v>0.9998322675332844</v>
+        <v>-0.0001677324667156421</v>
       </c>
       <c r="V89">
-        <v>0.9997272975184075</v>
+        <v>-0.0002727024815925017</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7946,7 +7946,7 @@
         <v>0.5689945065669368</v>
       </c>
       <c r="K90">
-        <v>36.2649138786301</v>
+        <v>-0.137350861213699</v>
       </c>
       <c r="L90">
         <v>-0.01205927697354619</v>
@@ -7976,13 +7976,13 @@
         <v>-0.2187499999999716</v>
       </c>
       <c r="U90">
-        <v>0.9997902992429805</v>
+        <v>-0.0002097007570195375</v>
       </c>
       <c r="V90">
-        <v>0.999685257459398</v>
+        <v>-0.0003147425406020421</v>
       </c>
       <c r="W90">
-        <v>0.9993690851735016</v>
+        <v>-0.0006309148264983522</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -8017,7 +8017,7 @@
         <v>0.6115130463908393</v>
       </c>
       <c r="K91">
-        <v>37.94651540428977</v>
+        <v>-0.1205348459571023</v>
       </c>
       <c r="L91">
         <v>-0.01360333097650657</v>
@@ -8047,13 +8047,13 @@
         <v>-0.2187499999999716</v>
       </c>
       <c r="U91">
-        <v>0.9998112297334144</v>
+        <v>-0.0001887702665855917</v>
       </c>
       <c r="V91">
-        <v>0.9997271372499635</v>
+        <v>-0.0002728627500364622</v>
       </c>
       <c r="W91">
-        <v>1.000315656565656</v>
+        <v>0.0003156565656563526</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -8088,7 +8088,7 @@
         <v>0.561272060194173</v>
       </c>
       <c r="K92">
-        <v>35.94966402744492</v>
+        <v>-0.1405033597255507</v>
       </c>
       <c r="L92">
         <v>-0.01508161873953748</v>
@@ -8118,13 +8118,13 @@
         <v>-0.2093749999999943</v>
       </c>
       <c r="U92">
-        <v>0.9998111940924728</v>
+        <v>-0.0001888059075272341</v>
       </c>
       <c r="V92">
-        <v>0.9996640772622296</v>
+        <v>-0.0003359227377703888</v>
       </c>
       <c r="W92">
-        <v>0.9993688860839381</v>
+        <v>-0.000631113916061854</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8159,7 +8159,7 @@
         <v>0.5165955270454643</v>
       </c>
       <c r="K93">
-        <v>34.06284126736567</v>
+        <v>-0.1593715873263433</v>
       </c>
       <c r="L93">
         <v>-0.01660041356764342</v>
@@ -8189,13 +8189,13 @@
         <v>-0.2156249999999886</v>
       </c>
       <c r="U93">
-        <v>0.9999055792190354</v>
+        <v>-9.442078096455475E-05</v>
       </c>
       <c r="V93">
-        <v>0.9996639643802242</v>
+        <v>-0.0003360356197757985</v>
       </c>
       <c r="W93">
-        <v>0.9993684875276287</v>
+        <v>-0.000631512472371254</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8230,7 +8230,7 @@
         <v>0.4958234693575252</v>
       </c>
       <c r="K94">
-        <v>33.14719146441041</v>
+        <v>-0.1685280853558959</v>
       </c>
       <c r="L94">
         <v>-0.01810155127574568</v>
@@ -8260,13 +8260,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U94">
-        <v>0.999863601548647</v>
+        <v>-0.0001363984513530481</v>
       </c>
       <c r="V94">
-        <v>0.9996428421362242</v>
+        <v>-0.00035715786377577</v>
       </c>
       <c r="W94">
-        <v>0.9996840442338072</v>
+        <v>-0.0003159557661928103</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8301,7 +8301,7 @@
         <v>0.4756895251215805</v>
       </c>
       <c r="K95">
-        <v>32.2350682188646</v>
+        <v>-0.177649317811354</v>
       </c>
       <c r="L95">
         <v>-0.01954550277528044</v>
@@ -8331,13 +8331,13 @@
         <v>-0.2249999999999943</v>
       </c>
       <c r="U95">
-        <v>0.9998635829415713</v>
+        <v>-0.0001364170584287061</v>
       </c>
       <c r="V95">
-        <v>0.9996006809440743</v>
+        <v>-0.0003993190559257176</v>
       </c>
       <c r="W95">
-        <v>0.9996839443742099</v>
+        <v>-0.0003160556257900682</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8372,7 +8372,7 @@
         <v>0.4216235222604153</v>
       </c>
       <c r="K96">
-        <v>29.65788872077917</v>
+        <v>-0.2034211127922083</v>
       </c>
       <c r="L96">
         <v>-0.02113597560293863</v>
@@ -8402,13 +8402,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U96">
-        <v>0.9998425742262524</v>
+        <v>-0.0001574257737475548</v>
       </c>
       <c r="V96">
-        <v>0.9996215466128422</v>
+        <v>-0.0003784533871578066</v>
       </c>
       <c r="W96">
-        <v>0.9990515333544103</v>
+        <v>-0.000948466645589674</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8443,7 +8443,7 @@
         <v>0.4615035833461877</v>
       </c>
       <c r="K97">
-        <v>31.57731452765593</v>
+        <v>-0.1842268547234407</v>
       </c>
       <c r="L97">
         <v>-0.02252297260551638</v>
@@ -8473,13 +8473,13 @@
         <v>-0.2218749999999829</v>
       </c>
       <c r="U97">
-        <v>0.9998215560314061</v>
+        <v>-0.0001784439685938999</v>
       </c>
       <c r="V97">
-        <v>0.9996424364798923</v>
+        <v>-0.0003575635201077398</v>
       </c>
       <c r="W97">
-        <v>1.000316455696203</v>
+        <v>0.0003164556962025333</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8514,7 +8514,7 @@
         <v>0.5034825950153979</v>
       </c>
       <c r="K98">
-        <v>33.48775680441059</v>
+        <v>-0.165122431955894</v>
       </c>
       <c r="L98">
         <v>-0.02350217951740673</v>
@@ -8544,13 +8544,13 @@
         <v>-0.2093749999999943</v>
       </c>
       <c r="U98">
-        <v>0.9998530199158016</v>
+        <v>-0.0001469800841984448</v>
       </c>
       <c r="V98">
-        <v>0.9997054305973447</v>
+        <v>-0.0002945694026552648</v>
       </c>
       <c r="W98">
-        <v>1.000316355583676</v>
+        <v>0.0003163555836760423</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8585,7 +8585,7 @@
         <v>0.503482595015398</v>
       </c>
       <c r="K99">
-        <v>33.48775680441061</v>
+        <v>-0.1651224319558939</v>
       </c>
       <c r="L99">
         <v>-0.02408671368703464</v>
@@ -8615,13 +8615,13 @@
         <v>-0.2093750000000227</v>
       </c>
       <c r="U99">
-        <v>0.9997794974642207</v>
+        <v>-0.0002205025357793211</v>
       </c>
       <c r="V99">
-        <v>0.9997684844147918</v>
+        <v>-0.0002315155852081752</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8656,7 +8656,7 @@
         <v>0.4084817157287405</v>
       </c>
       <c r="K100">
-        <v>29.00156325546578</v>
+        <v>-0.2099843674453422</v>
       </c>
       <c r="L100">
         <v>-0.02488104158468928</v>
@@ -8686,13 +8686,13 @@
         <v>-0.2218749999999829</v>
       </c>
       <c r="U100">
-        <v>0.999737439085868</v>
+        <v>-0.0002625609141320151</v>
       </c>
       <c r="V100">
-        <v>0.9996210685865858</v>
+        <v>-0.000378931413414163</v>
       </c>
       <c r="W100">
-        <v>0.9984187223276407</v>
+        <v>-0.001581277672359271</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8727,7 +8727,7 @@
         <v>0.3649859523254929</v>
       </c>
       <c r="K101">
-        <v>26.73917278809174</v>
+        <v>-0.2326082721190826</v>
       </c>
       <c r="L101">
         <v>-0.02600618450568307</v>
@@ -8757,13 +8757,13 @@
         <v>-0.2249999999999943</v>
       </c>
       <c r="U101">
-        <v>0.9997058545450727</v>
+        <v>-0.0002941454549273415</v>
       </c>
       <c r="V101">
-        <v>0.9995577457669952</v>
+        <v>-0.0004422542330048129</v>
       </c>
       <c r="W101">
-        <v>0.9990497307570478</v>
+        <v>-0.000950269242952162</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8798,7 +8798,7 @@
         <v>0.3649859523254929</v>
       </c>
       <c r="K102">
-        <v>26.73917278809174</v>
+        <v>-0.2326082721190826</v>
       </c>
       <c r="L102">
         <v>-0.02716626158332378</v>
@@ -8828,13 +8828,13 @@
         <v>-0.2218750000000114</v>
       </c>
       <c r="U102">
-        <v>0.999695259712283</v>
+        <v>-0.0003047402877169869</v>
       </c>
       <c r="V102">
-        <v>0.9996418262646691</v>
+        <v>-0.0003581737353308689</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8869,7 +8869,7 @@
         <v>0.364985952325493</v>
       </c>
       <c r="K103">
-        <v>26.73917278809174</v>
+        <v>-0.2326082721190826</v>
       </c>
       <c r="L103">
         <v>-0.02817545445466442</v>
@@ -8899,13 +8899,13 @@
         <v>-0.2249999999999943</v>
       </c>
       <c r="U103">
-        <v>0.9996531208611011</v>
+        <v>-0.000346879138898859</v>
       </c>
       <c r="V103">
-        <v>0.9996627745226153</v>
+        <v>-0.0003372254773846839</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8940,7 +8940,7 @@
         <v>0.4063842292605657</v>
       </c>
       <c r="K104">
-        <v>28.89567593304358</v>
+        <v>-0.2110432406695642</v>
       </c>
       <c r="L104">
         <v>-0.02881216904916534</v>
@@ -8970,13 +8970,13 @@
         <v>-0.2093749999999943</v>
       </c>
       <c r="U104">
-        <v>0.9997055761769066</v>
+        <v>-0.0002944238230934149</v>
       </c>
       <c r="V104">
-        <v>0.9996837444655282</v>
+        <v>-0.0003162555344717877</v>
       </c>
       <c r="W104">
-        <v>1.000317057704502</v>
+        <v>0.0003170577045021883</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -9011,7 +9011,7 @@
         <v>0.4063842292605657</v>
       </c>
       <c r="K105">
-        <v>28.89567593304358</v>
+        <v>-0.2110432406695642</v>
       </c>
       <c r="L105">
         <v>-0.02907817216708612</v>
@@ -9041,13 +9041,13 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="U105">
-        <v>0.9997054894659894</v>
+        <v>-0.0002945105340106391</v>
       </c>
       <c r="V105">
-        <v>0.9997258251608142</v>
+        <v>-0.0002741748391857923</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -9082,7 +9082,7 @@
         <v>0.3885606911992369</v>
       </c>
       <c r="K106">
-        <v>27.98298221042501</v>
+        <v>-0.2201701778957499</v>
       </c>
       <c r="L106">
         <v>-0.02911198722912861</v>
@@ -9112,13 +9112,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U106">
-        <v>0.9997054027039822</v>
+        <v>-0.0002945972960177734</v>
       </c>
       <c r="V106">
-        <v>0.9996835576557949</v>
+        <v>-0.0003164423442051367</v>
       </c>
       <c r="W106">
-        <v>0.9996830427892234</v>
+        <v>-0.000316957210776625</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9153,7 +9153,7 @@
         <v>0.4808950765471264</v>
       </c>
       <c r="K107">
-        <v>32.47327134535334</v>
+        <v>-0.1752672865464666</v>
       </c>
       <c r="L107">
         <v>-0.02866745367012059</v>
@@ -9183,13 +9183,13 @@
         <v>-0.2031249999999716</v>
       </c>
       <c r="U107">
-        <v>0.9997158403233106</v>
+        <v>-0.0002841596766893772</v>
       </c>
       <c r="V107">
-        <v>0.9997678688247834</v>
+        <v>-0.0002321311752165878</v>
       </c>
       <c r="W107">
-        <v>1.000634115409005</v>
+        <v>0.0006341154090045986</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9224,7 +9224,7 @@
         <v>0.5780891663869825</v>
       </c>
       <c r="K108">
-        <v>36.63222450924691</v>
+        <v>-0.1336777549075309</v>
       </c>
       <c r="L108">
         <v>-0.02762715294975794</v>
@@ -9254,13 +9254,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U108">
-        <v>0.9997578692493947</v>
+        <v>-0.0002421307506053072</v>
       </c>
       <c r="V108">
-        <v>0.9998522458628839</v>
+        <v>-0.0001477541371160962</v>
       </c>
       <c r="W108">
-        <v>1.00063371356147</v>
+        <v>0.0006337135614702394</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9295,7 +9295,7 @@
         <v>0.4798937264637985</v>
       </c>
       <c r="K109">
-        <v>32.42758029730305</v>
+        <v>-0.1757241970269695</v>
       </c>
       <c r="L109">
         <v>-0.02665139888903842</v>
@@ -9325,13 +9325,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U109">
-        <v>0.9997156907136162</v>
+        <v>-0.0002843092863837882</v>
       </c>
       <c r="V109">
-        <v>0.9997888914691044</v>
+        <v>-0.0002111085308955651</v>
       </c>
       <c r="W109">
-        <v>0.9987333755541481</v>
+        <v>-0.001266624445851905</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9366,7 +9366,7 @@
         <v>0.4405115104912271</v>
       </c>
       <c r="K110">
-        <v>30.58021454760947</v>
+        <v>-0.1941978545239053</v>
       </c>
       <c r="L110">
         <v>-0.02591017460381195</v>
@@ -9396,13 +9396,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U110">
-        <v>0.9996840109542871</v>
+        <v>-0.0003159890457129499</v>
       </c>
       <c r="V110">
-        <v>0.9997677315821702</v>
+        <v>-0.0002322684178297507</v>
       </c>
       <c r="W110">
-        <v>0.9993658845909956</v>
+        <v>-0.0006341154090043766</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9437,7 +9437,7 @@
         <v>0.4222727817108996</v>
       </c>
       <c r="K111">
-        <v>29.68999949523983</v>
+        <v>-0.2031000050476017</v>
       </c>
       <c r="L111">
         <v>-0.02537935767060437</v>
@@ -9467,13 +9467,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U111">
-        <v>0.9997155199662837</v>
+        <v>-0.0002844800337162834</v>
       </c>
       <c r="V111">
-        <v>0.9998099180535607</v>
+        <v>-0.0001900819464393244</v>
       </c>
       <c r="W111">
-        <v>0.9996827411167514</v>
+        <v>-0.0003172588832486278</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9508,7 +9508,7 @@
         <v>0.3734455360785734</v>
       </c>
       <c r="K112">
-        <v>27.19041463739622</v>
+        <v>-0.2280958536260378</v>
       </c>
       <c r="L112">
         <v>-0.02526309068171029</v>
@@ -9538,13 +9538,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U112">
-        <v>0.9996838211270724</v>
+        <v>-0.0003161788729275639</v>
       </c>
       <c r="V112">
-        <v>0.9997253849891209</v>
+        <v>-0.000274615010879109</v>
       </c>
       <c r="W112">
-        <v>0.999047921294827</v>
+        <v>-0.0009520787051729984</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9579,7 +9579,7 @@
         <v>0.5763045365938395</v>
       </c>
       <c r="K113">
-        <v>36.56048201441761</v>
+        <v>-0.1343951798558239</v>
       </c>
       <c r="L113">
         <v>-0.0247383875634628</v>
@@ -9609,13 +9609,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U113">
-        <v>0.9997575195302205</v>
+        <v>-0.0002424804697794825</v>
       </c>
       <c r="V113">
-        <v>0.9998098296919242</v>
+        <v>-0.0001901703080757766</v>
       </c>
       <c r="W113">
-        <v>1.00158831003812</v>
+        <v>0.001588310038119545</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9650,7 +9650,7 @@
         <v>0.7044260106034862</v>
       </c>
       <c r="K114">
-        <v>41.32922205018862</v>
+        <v>-0.08670777949811381</v>
       </c>
       <c r="L114">
         <v>-0.02356413942218946</v>
@@ -9680,13 +9680,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U114">
-        <v>0.9998207318359169</v>
+        <v>-0.0001792681640830907</v>
       </c>
       <c r="V114">
-        <v>0.9998731956801996</v>
+        <v>-0.0001268043198003888</v>
       </c>
       <c r="W114">
-        <v>1.000951474785918</v>
+        <v>0.0009514747859182826</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9721,7 +9721,7 @@
         <v>0.620713645174388</v>
       </c>
       <c r="K115">
-        <v>38.29878566287998</v>
+        <v>-0.1170121433712002</v>
       </c>
       <c r="L115">
         <v>-0.02233062258649768</v>
@@ -9751,13 +9751,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U115">
-        <v>0.9997679643086917</v>
+        <v>-0.0002320356913082522</v>
       </c>
       <c r="V115">
-        <v>0.9999154530658833</v>
+        <v>-8.454693411674707E-05</v>
       </c>
       <c r="W115">
-        <v>0.9990494296577946</v>
+        <v>-0.0009505703422053591</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9792,7 +9792,7 @@
         <v>0.5517001917911014</v>
       </c>
       <c r="K116">
-        <v>35.55456103632257</v>
+        <v>-0.1444543896367743</v>
       </c>
       <c r="L116">
         <v>-0.02140411429643357</v>
@@ -9822,13 +9822,13 @@
         <v>-0.07187500000003411</v>
       </c>
       <c r="U116">
-        <v>0.9997362618814021</v>
+        <v>-0.0002637381185979226</v>
       </c>
       <c r="V116">
-        <v>0.9999154459170946</v>
+        <v>-8.455408290541921E-05</v>
       </c>
       <c r="W116">
-        <v>0.9990485252140818</v>
+        <v>-0.0009514747859181716</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9863,7 +9863,7 @@
         <v>0.6687360278295534</v>
       </c>
       <c r="K117">
-        <v>40.07440461984553</v>
+        <v>-0.09925595380154467</v>
       </c>
       <c r="L117">
         <v>-0.02029927649813386</v>
@@ -9893,13 +9893,13 @@
         <v>-0.07499999999996021</v>
       </c>
       <c r="U117">
-        <v>0.9998100584597855</v>
+        <v>-0.0001899415402144555</v>
       </c>
       <c r="V117">
-        <v>0.9999788596917741</v>
+        <v>-2.114030822586432E-05</v>
       </c>
       <c r="W117">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9934,7 +9934,7 @@
         <v>0.6423574855971214</v>
       </c>
       <c r="K118">
-        <v>39.11191632944491</v>
+        <v>-0.1088808367055509</v>
       </c>
       <c r="L118">
         <v>-0.01919809058453461</v>
@@ -9964,13 +9964,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U118">
-        <v>0.9998100223751423</v>
+        <v>-0.000189977624857729</v>
       </c>
       <c r="V118">
-        <v>0.9999577184897045</v>
+        <v>-4.228151029550542E-05</v>
       </c>
       <c r="W118">
-        <v>0.9996828417380272</v>
+        <v>-0.0003171582619727609</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -10005,7 +10005,7 @@
         <v>0.5712056346434179</v>
       </c>
       <c r="K119">
-        <v>36.35460706408756</v>
+        <v>-0.1364539293591244</v>
       </c>
       <c r="L119">
         <v>-0.01844523364310108</v>
@@ -10035,13 +10035,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U119">
-        <v>0.9997783173229178</v>
+        <v>-0.0002216826770822244</v>
       </c>
       <c r="V119">
-        <v>0.9998731501057082</v>
+        <v>-0.0001268498942917917</v>
       </c>
       <c r="W119">
-        <v>0.9990482233502538</v>
+        <v>-0.0009517766497462166</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -10076,7 +10076,7 @@
         <v>0.5498359702899928</v>
       </c>
       <c r="K120">
-        <v>35.47704278583184</v>
+        <v>-0.1452295721416816</v>
       </c>
       <c r="L120">
         <v>-0.01799974706122151</v>
@@ -10106,13 +10106,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U120">
-        <v>0.9997888268274399</v>
+        <v>-0.0002111731725601418</v>
       </c>
       <c r="V120">
-        <v>0.9998519896815665</v>
+        <v>-0.000148010318433478</v>
       </c>
       <c r="W120">
-        <v>0.9996824388694825</v>
+        <v>-0.0003175611305175075</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10147,7 +10147,7 @@
         <v>0.6285970404393442</v>
       </c>
       <c r="K121">
-        <v>38.59745688041829</v>
+        <v>-0.1140254311958172</v>
       </c>
       <c r="L121">
         <v>-0.01747294422074653</v>
@@ -10177,13 +10177,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U121">
-        <v>0.9997993431127163</v>
+        <v>-0.0002006568872836567</v>
       </c>
       <c r="V121">
-        <v>0.999915410155011</v>
+        <v>-8.458984498904698E-05</v>
       </c>
       <c r="W121">
-        <v>1.000635324015248</v>
+        <v>0.0006353240152476847</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10218,7 +10218,7 @@
         <v>0.7529566248857005</v>
       </c>
       <c r="K122">
-        <v>42.95352287651705</v>
+        <v>-0.07046477123482953</v>
       </c>
       <c r="L122">
         <v>-0.0165208763269788</v>
@@ -10248,13 +10248,13 @@
         <v>-0.06250000000002842</v>
       </c>
       <c r="U122">
-        <v>0.9998521178831729</v>
+        <v>-0.0001478821168271471</v>
       </c>
       <c r="V122">
-        <v>0.9999365522492228</v>
+        <v>-6.344775077715692E-05</v>
       </c>
       <c r="W122">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10289,7 +10289,7 @@
         <v>0.6925204460174048</v>
       </c>
       <c r="K123">
-        <v>40.91651877216279</v>
+        <v>-0.09083481227837209</v>
       </c>
       <c r="L123">
         <v>-0.01554223201507275</v>
@@ -10319,13 +10319,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U123">
-        <v>0.9998520960108183</v>
+        <v>-0.0001479039891817413</v>
       </c>
       <c r="V123">
-        <v>0.9998519458544839</v>
+        <v>-0.0001480541455161077</v>
       </c>
       <c r="W123">
-        <v>0.9993656834760546</v>
+        <v>-0.0006343165239454107</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10360,7 +10360,7 @@
         <v>0.6644508414896569</v>
       </c>
       <c r="K124">
-        <v>39.92012409900818</v>
+        <v>-0.1007987590099181</v>
       </c>
       <c r="L124">
         <v>-0.01466862539910743</v>
@@ -10390,13 +10390,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U124">
-        <v>0.9998520741319921</v>
+        <v>-0.0001479258680079365</v>
       </c>
       <c r="V124">
-        <v>0.9999153851035474</v>
+        <v>-8.461489645261722E-05</v>
       </c>
       <c r="W124">
-        <v>0.9996826404316089</v>
+        <v>-0.0003173595683910735</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10431,7 +10431,7 @@
         <v>0.7071166606786675</v>
       </c>
       <c r="K125">
-        <v>41.42169524592138</v>
+        <v>-0.08578304754078614</v>
       </c>
       <c r="L125">
         <v>-0.01374557333477324</v>
@@ -10461,13 +10461,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U125">
-        <v>0.9998731876400221</v>
+        <v>-0.0001268123599779125</v>
       </c>
       <c r="V125">
-        <v>0.9999788444858152</v>
+        <v>-2.115551418480077E-05</v>
       </c>
       <c r="W125">
-        <v>1.00031746031746</v>
+        <v>0.000317460317460494</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10502,7 +10502,7 @@
         <v>0.6767240441436274</v>
       </c>
       <c r="K126">
-        <v>40.35989383627278</v>
+        <v>-0.09640106163727225</v>
       </c>
       <c r="L126">
         <v>-0.01291672159567506</v>
@@ -10532,13 +10532,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U126">
-        <v>0.9998943096305065</v>
+        <v>-0.000105690369493483</v>
       </c>
       <c r="V126">
-        <v>0.9999788440382502</v>
+        <v>-2.115596174978585E-05</v>
       </c>
       <c r="W126">
-        <v>0.9996826404316089</v>
+        <v>-0.0003173595683910735</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10573,7 +10573,7 @@
         <v>0.5958495977942792</v>
       </c>
       <c r="K127">
-        <v>37.33745326739056</v>
+        <v>-0.1266254673260944</v>
       </c>
       <c r="L127">
         <v>-0.01249701912977921</v>
@@ -10603,13 +10603,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U127">
-        <v>0.9998520178424201</v>
+        <v>-0.00014798215757994</v>
       </c>
       <c r="V127">
-        <v>0.9999788435906656</v>
+        <v>-2.115640933442187E-05</v>
       </c>
       <c r="W127">
-        <v>0.999047619047619</v>
+        <v>-0.0009523809523810378</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10644,7 +10644,7 @@
         <v>0.5718694555940744</v>
       </c>
       <c r="K128">
-        <v>36.38148534274695</v>
+        <v>-0.1361851465725305</v>
       </c>
       <c r="L128">
         <v>-0.01242203835457838</v>
@@ -10674,13 +10674,13 @@
         <v>-0.05000000000003979</v>
       </c>
       <c r="U128">
-        <v>0.9998308525033828</v>
+        <v>-0.0001691474966172279</v>
       </c>
       <c r="V128">
-        <v>0.9998519020014388</v>
+        <v>-0.0001480979985611919</v>
       </c>
       <c r="W128">
-        <v>0.99968223705116</v>
+        <v>-0.0003177629488400058</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10715,7 +10715,7 @@
         <v>0.6989598574724888</v>
       </c>
       <c r="K129">
-        <v>41.1404574627395</v>
+        <v>-0.08859542537260501</v>
       </c>
       <c r="L129">
         <v>-0.01216928584843729</v>
@@ -10745,13 +10745,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U129">
-        <v>0.9998625444087296</v>
+        <v>-0.0001374555912704301</v>
       </c>
       <c r="V129">
-        <v>0.9998518800651726</v>
+        <v>-0.0001481199348274398</v>
       </c>
       <c r="W129">
-        <v>1.000953591862683</v>
+        <v>0.0009535918626826234</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10786,7 +10786,7 @@
         <v>0.6691216338407868</v>
       </c>
       <c r="K130">
-        <v>40.08824882948061</v>
+        <v>-0.09911751170519395</v>
       </c>
       <c r="L130">
         <v>-0.01189609733558439</v>
@@ -10816,13 +10816,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U130">
-        <v>0.9999048253545256</v>
+        <v>-9.517464547437182E-05</v>
       </c>
       <c r="V130">
-        <v>0.9998941843731481</v>
+        <v>-0.0001058156268518573</v>
       </c>
       <c r="W130">
-        <v>0.9996824388694825</v>
+        <v>-0.0003175611305175075</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10857,7 +10857,7 @@
         <v>0.6691216338407867</v>
       </c>
       <c r="K131">
-        <v>40.0882488294806</v>
+        <v>-0.09911751170519401</v>
       </c>
       <c r="L131">
         <v>-0.01158466683341601</v>
@@ -10887,13 +10887,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U131">
-        <v>0.9999365441969666</v>
+        <v>-6.345580303335208E-05</v>
       </c>
       <c r="V131">
-        <v>0.9999576692700066</v>
+        <v>-4.233072999337839E-05</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10928,7 +10928,7 @@
         <v>0.7164229820981668</v>
       </c>
       <c r="K132">
-        <v>41.73930258277052</v>
+        <v>-0.08260697417229479</v>
       </c>
       <c r="L132">
         <v>-0.01111227505255371</v>
@@ -10958,13 +10958,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U132">
-        <v>0.9999471168083937</v>
+        <v>-5.288319160634547E-05</v>
       </c>
       <c r="V132">
-        <v>0.9999153349560801</v>
+        <v>-8.466504391990703E-05</v>
       </c>
       <c r="W132">
-        <v>1.000317662007624</v>
+        <v>0.0003176620076237313</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10999,7 +10999,7 @@
         <v>0.6824435103617358</v>
       </c>
       <c r="K133">
-        <v>40.56264035961636</v>
+        <v>-0.09437359640383641</v>
       </c>
       <c r="L133">
         <v>-0.01064749064159311</v>
@@ -11029,13 +11029,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U133">
-        <v>0.9999365368139366</v>
+        <v>-6.346318606342827E-05</v>
       </c>
       <c r="V133">
-        <v>0.9999153277873033</v>
+        <v>-8.467221269670144E-05</v>
       </c>
       <c r="W133">
-        <v>0.9996824388694825</v>
+        <v>-0.0003175611305175075</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -11070,7 +11070,7 @@
         <v>0.7323691351385464</v>
       </c>
       <c r="K134">
-        <v>42.27558205024099</v>
+        <v>-0.0772441794975901</v>
       </c>
       <c r="L134">
         <v>-0.01006267046723259</v>
@@ -11100,13 +11100,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U134">
-        <v>0.9999365327861049</v>
+        <v>-6.346721389505205E-05</v>
       </c>
       <c r="V134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W134">
-        <v>1.000317662007624</v>
+        <v>0.0003176620076237313</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11141,7 +11141,7 @@
         <v>0.6326289401249587</v>
       </c>
       <c r="K135">
-        <v>38.74909506850579</v>
+        <v>-0.1125090493149421</v>
       </c>
       <c r="L135">
         <v>-0.009752311919525155</v>
@@ -11171,13 +11171,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U135">
-        <v>0.999904793136643</v>
+        <v>-9.520686335695583E-05</v>
       </c>
       <c r="V135">
-        <v>0.9999576603086564</v>
+        <v>-4.233969134359583E-05</v>
       </c>
       <c r="W135">
-        <v>0.9990473166084473</v>
+        <v>-0.0009526833915527444</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11212,7 +11212,7 @@
         <v>0.7281997608348545</v>
       </c>
       <c r="K136">
-        <v>42.13631880628646</v>
+        <v>-0.0786368119371354</v>
       </c>
       <c r="L136">
         <v>-0.009361514992821439</v>
@@ -11242,13 +11242,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U136">
-        <v>0.9999365227142886</v>
+        <v>-6.347728571143296E-05</v>
       </c>
       <c r="V136">
-        <v>0.999957658515931</v>
+        <v>-4.234148406900839E-05</v>
       </c>
       <c r="W136">
-        <v>1.000635727908455</v>
+        <v>0.0006357279084552303</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11283,7 +11283,7 @@
         <v>0.8791010566925987</v>
       </c>
       <c r="K137">
-        <v>46.78306435737429</v>
+        <v>-0.03216935642625712</v>
       </c>
       <c r="L137">
         <v>-0.008566153089718385</v>
@@ -11313,13 +11313,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U137">
-        <v>0.9999470989038893</v>
+        <v>-5.290109611066907E-05</v>
       </c>
       <c r="V137">
-        <v>0.9999576567230537</v>
+        <v>-4.234327694629947E-05</v>
       </c>
       <c r="W137">
-        <v>1.000952986022872</v>
+        <v>0.000952986022871638</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11354,7 +11354,7 @@
         <v>0.7586020717754558</v>
       </c>
       <c r="K138">
-        <v>43.13665291031891</v>
+        <v>-0.06863347089681093</v>
       </c>
       <c r="L138">
         <v>-0.007891756191198529</v>
@@ -11384,13 +11384,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U138">
-        <v>0.9998941922104304</v>
+        <v>-0.0001058077895695897</v>
       </c>
       <c r="V138">
-        <v>0.9999364823950374</v>
+        <v>-6.351760496259296E-05</v>
       </c>
       <c r="W138">
-        <v>0.999047921294827</v>
+        <v>-0.0009520787051729984</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11425,7 +11425,7 @@
         <v>0.8547920268735144</v>
       </c>
       <c r="K139">
-        <v>46.08559959762033</v>
+        <v>-0.0391440040237967</v>
       </c>
       <c r="L139">
         <v>-0.007073762232473546</v>
@@ -11455,13 +11455,13 @@
         <v>0</v>
       </c>
       <c r="U139">
-        <v>0.9999576724055831</v>
+        <v>-4.232759441691325E-05</v>
       </c>
       <c r="V139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W139">
-        <v>1.000635324015248</v>
+        <v>0.0006353240152476847</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11496,7 +11496,7 @@
         <v>1.006670903344148</v>
       </c>
       <c r="K140">
-        <v>50.16621817092754</v>
+        <v>0.001662181709275456</v>
       </c>
       <c r="L140">
         <v>-0.005848366504157849</v>
@@ -11526,13 +11526,13 @@
         <v>0.015625</v>
       </c>
       <c r="U140">
-        <v>1.00001058234653</v>
+        <v>1.058234652973056E-05</v>
       </c>
       <c r="V140">
-        <v>1.000042347759803</v>
+        <v>4.234775980349603E-05</v>
       </c>
       <c r="W140">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11567,7 +11567,7 @@
         <v>0.8679151389489662</v>
       </c>
       <c r="K141">
-        <v>46.46437736123936</v>
+        <v>-0.03535622638760644</v>
       </c>
       <c r="L141">
         <v>-0.004779595641080176</v>
@@ -11597,13 +11597,13 @@
         <v>0.03125</v>
       </c>
       <c r="U141">
-        <v>0.9999894177654551</v>
+        <v>-1.058223454486473E-05</v>
       </c>
       <c r="V141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W141">
-        <v>0.9990485252140818</v>
+        <v>-0.0009514747859181716</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11638,7 +11638,7 @@
         <v>0.9646423473333086</v>
       </c>
       <c r="K142">
-        <v>49.1001503985017</v>
+        <v>-0.008998496014983037</v>
       </c>
       <c r="L142">
         <v>-0.003625239992537796</v>
@@ -11668,13 +11668,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U142">
-        <v>1.000042329386118</v>
+        <v>4.232938611803405E-05</v>
       </c>
       <c r="V142">
-        <v>1.000105864916367</v>
+        <v>0.0001058649163665493</v>
       </c>
       <c r="W142">
-        <v>1.000634920634921</v>
+        <v>0.0006349206349205438</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11709,7 +11709,7 @@
         <v>1.1682785755109</v>
       </c>
       <c r="K143">
-        <v>53.88046483997679</v>
+        <v>0.03880464839976794</v>
       </c>
       <c r="L143">
         <v>-0.00201699817066114</v>
@@ -11739,13 +11739,13 @@
         <v>0.07812499999997158</v>
       </c>
       <c r="U143">
-        <v>1.000031745695813</v>
+        <v>3.17456958127682E-05</v>
       </c>
       <c r="V143">
-        <v>1.000211707420345</v>
+        <v>0.000211707420345153</v>
       </c>
       <c r="W143">
-        <v>1.001269035532995</v>
+        <v>0.001269035532994955</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11780,7 +11780,7 @@
         <v>1.275455537709618</v>
       </c>
       <c r="K144">
-        <v>56.05275587996942</v>
+        <v>0.06052755879969418</v>
       </c>
       <c r="L144">
         <v>2.306381856056478E-06</v>
@@ -11810,13 +11810,13 @@
         <v>0.1031250000000341</v>
       </c>
       <c r="U144">
-        <v>1.000021163125371</v>
+        <v>2.116312537059351E-05</v>
       </c>
       <c r="V144">
-        <v>1.00019049634882</v>
+        <v>0.0001904963488199574</v>
       </c>
       <c r="W144">
-        <v>1.00063371356147</v>
+        <v>0.0006337135614702394</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11851,7 +11851,7 @@
         <v>1.275455537709618</v>
       </c>
       <c r="K145">
-        <v>56.05275587996942</v>
+        <v>0.06052755879969418</v>
       </c>
       <c r="L145">
         <v>0.002141921823188167</v>
@@ -11881,13 +11881,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U145">
-        <v>1.000052906693755</v>
+        <v>5.290669375490609E-05</v>
       </c>
       <c r="V145">
-        <v>1.000211622296525</v>
+        <v>0.0002116222965251602</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11922,7 +11922,7 @@
         <v>1.030661752300275</v>
       </c>
       <c r="K146">
-        <v>50.75496946415478</v>
+        <v>0.007549694641547755</v>
       </c>
       <c r="L146">
         <v>0.003747796773416003</v>
@@ -11952,13 +11952,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U146">
-        <v>1.000042323115828</v>
+        <v>4.232311582774706E-05</v>
       </c>
       <c r="V146">
-        <v>1.000126946513203</v>
+        <v>0.0001269465132025527</v>
       </c>
       <c r="W146">
-        <v>0.9987333755541481</v>
+        <v>-0.001266624445851905</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11993,7 +11993,7 @@
         <v>1.081168740045747</v>
       </c>
       <c r="K147">
-        <v>51.9500758992748</v>
+        <v>0.01950075899274806</v>
       </c>
       <c r="L147">
         <v>0.005029841861185933</v>
@@ -12023,13 +12023,13 @@
         <v>0.1468749999999943</v>
       </c>
       <c r="U147">
-        <v>1.000021160662329</v>
+        <v>2.116066232860092E-05</v>
       </c>
       <c r="V147">
-        <v>1.000126930399831</v>
+        <v>0.0001269303998308047</v>
       </c>
       <c r="W147">
-        <v>1.000317057704502</v>
+        <v>0.0003170577045021883</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -12064,7 +12064,7 @@
         <v>1.026589834577702</v>
       </c>
       <c r="K148">
-        <v>50.65602407857837</v>
+        <v>0.006560240785783655</v>
       </c>
       <c r="L148">
         <v>0.005900031174215279</v>
@@ -12094,13 +12094,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U148">
-        <v>1.000021160214565</v>
+        <v>2.116021456499695E-05</v>
       </c>
       <c r="V148">
-        <v>1.000126914290549</v>
+        <v>0.0001269142905488962</v>
       </c>
       <c r="W148">
-        <v>0.9996830427892234</v>
+        <v>-0.000316957210776625</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12135,7 +12135,7 @@
         <v>1.026589834577702</v>
       </c>
       <c r="K149">
-        <v>50.65602407857835</v>
+        <v>0.006560240785783544</v>
       </c>
       <c r="L149">
         <v>0.006443736161702726</v>
@@ -12165,13 +12165,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U149">
-        <v>1.000052899417048</v>
+        <v>5.289941704833545E-05</v>
       </c>
       <c r="V149">
-        <v>1.000105748487797</v>
+        <v>0.000105748487796653</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12206,7 +12206,7 @@
         <v>0.9233001325382615</v>
       </c>
       <c r="K150">
-        <v>48.00603488337219</v>
+        <v>-0.01993965116627805</v>
       </c>
       <c r="L150">
         <v>0.006500382456913185</v>
@@ -12236,13 +12236,13 @@
         <v>0.1343749999999773</v>
       </c>
       <c r="U150">
-        <v>1.000042317295078</v>
+        <v>4.231729507830906E-05</v>
       </c>
       <c r="V150">
-        <v>1.000126884767484</v>
+        <v>0.0001268847674837925</v>
       </c>
       <c r="W150">
-        <v>0.9993658845909956</v>
+        <v>-0.0006341154090043766</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12277,7 +12277,7 @@
         <v>0.7967280750177159</v>
       </c>
       <c r="K151">
-        <v>44.34327520650893</v>
+        <v>-0.05656724793491075</v>
       </c>
       <c r="L151">
         <v>0.00588803942188571</v>
@@ -12307,13 +12307,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U151">
-        <v>0.9999894211239</v>
+        <v>-1.057887610000918E-05</v>
       </c>
       <c r="V151">
-        <v>1.000021144778297</v>
+        <v>2.114477829673334E-05</v>
       </c>
       <c r="W151">
-        <v>0.9990482233502538</v>
+        <v>-0.0009517766497462166</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12348,7 +12348,7 @@
         <v>0.8448286294178755</v>
       </c>
       <c r="K152">
-        <v>45.79442317547164</v>
+        <v>-0.04205576824528356</v>
       </c>
       <c r="L152">
         <v>0.005003653738259331</v>
@@ -12378,13 +12378,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U152">
-        <v>0.999968263035958</v>
+        <v>-3.173696404201731E-05</v>
       </c>
       <c r="V152">
-        <v>0.9999788556687954</v>
+        <v>-2.114433120459225E-05</v>
       </c>
       <c r="W152">
-        <v>1.000317561130518</v>
+        <v>0.0003175611305177295</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12419,7 +12419,7 @@
         <v>0.7025434523688825</v>
       </c>
       <c r="K153">
-        <v>41.26434784330342</v>
+        <v>-0.08735652156696583</v>
       </c>
       <c r="L153">
         <v>0.003530458092276369</v>
@@ -12449,13 +12449,13 @@
         <v>-0.03437500000003979</v>
       </c>
       <c r="U153">
-        <v>0.9999471033811518</v>
+        <v>-5.289661884821939E-05</v>
       </c>
       <c r="V153">
-        <v>0.9999577104434061</v>
+        <v>-4.228955659391076E-05</v>
       </c>
       <c r="W153">
-        <v>0.9987301587301588</v>
+        <v>-0.001269841269841199</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12490,7 +12490,7 @@
         <v>0.6453395427318803</v>
       </c>
       <c r="K154">
-        <v>39.22227151122708</v>
+        <v>-0.1077772848877291</v>
       </c>
       <c r="L154">
         <v>0.001550565551672931</v>
@@ -12520,13 +12520,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U154">
-        <v>0.9999365206995418</v>
+        <v>-6.347930045824679E-05</v>
       </c>
       <c r="V154">
-        <v>0.9998731259647713</v>
+        <v>-0.0001268740352287079</v>
       </c>
       <c r="W154">
-        <v>0.9993642720915447</v>
+        <v>-0.0006357279084553413</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12561,7 +12561,7 @@
         <v>0.5133441462498075</v>
       </c>
       <c r="K155">
-        <v>33.92117698554667</v>
+        <v>-0.1607882301445334</v>
       </c>
       <c r="L155">
         <v>-0.001309012957927306</v>
@@ -12591,13 +12591,13 @@
         <v>-0.1531249999999886</v>
       </c>
       <c r="U155">
-        <v>0.9998624527842732</v>
+        <v>-0.0001375472157267854</v>
       </c>
       <c r="V155">
-        <v>0.9996827746642698</v>
+        <v>-0.000317225335730198</v>
       </c>
       <c r="W155">
-        <v>0.9980916030534353</v>
+        <v>-0.00190839694656475</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12632,7 +12632,7 @@
         <v>0.4634530909905152</v>
       </c>
       <c r="K156">
-        <v>31.66846234045222</v>
+        <v>-0.1833153765954778</v>
       </c>
       <c r="L156">
         <v>-0.00486128737412015</v>
@@ -12662,13 +12662,13 @@
         <v>-0.2156249999999886</v>
       </c>
       <c r="U156">
-        <v>0.9998412698412698</v>
+        <v>-0.000158730158730247</v>
       </c>
       <c r="V156">
-        <v>0.9996826740004232</v>
+        <v>-0.0003173259995767896</v>
       </c>
       <c r="W156">
-        <v>0.9990439770554493</v>
+        <v>-0.0009560229445506607</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12703,7 +12703,7 @@
         <v>0.8044647408203289</v>
       </c>
       <c r="K157">
-        <v>44.58190413045204</v>
+        <v>-0.05418095869547962</v>
       </c>
       <c r="L157">
         <v>-0.007434040388523337</v>
@@ -12733,13 +12733,13 @@
         <v>-0.2562499999999943</v>
       </c>
       <c r="U157">
-        <v>0.9999788326189343</v>
+        <v>-2.116738106572313E-05</v>
       </c>
       <c r="V157">
-        <v>0.9998518675272458</v>
+        <v>-0.0001481324727542477</v>
       </c>
       <c r="W157">
-        <v>1.003189792663477</v>
+        <v>0.003189792663476965</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12774,7 +12774,7 @@
         <v>0.7505792132737145</v>
       </c>
       <c r="K158">
-        <v>42.87604968586797</v>
+        <v>-0.07123950314132033</v>
       </c>
       <c r="L158">
         <v>-0.009453702584596579</v>
@@ -12804,13 +12804,13 @@
         <v>-0.2843750000000114</v>
       </c>
       <c r="U158">
-        <v>0.9999682482563002</v>
+        <v>-3.175174369984823E-05</v>
       </c>
       <c r="V158">
-        <v>0.9997248560785641</v>
+        <v>-0.0002751439214359053</v>
       </c>
       <c r="W158">
-        <v>0.9993640699523053</v>
+        <v>-0.0006359300476946883</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12845,7 +12845,7 @@
         <v>0.6381004397075871</v>
       </c>
       <c r="K159">
-        <v>38.95368221874678</v>
+        <v>-0.1104631778125322</v>
       </c>
       <c r="L159">
         <v>-0.01155322140382198</v>
@@ -12875,13 +12875,13 @@
         <v>-0.2968749999999716</v>
       </c>
       <c r="U159">
-        <v>0.9998835732430144</v>
+        <v>-0.0001164267569856436</v>
       </c>
       <c r="V159">
-        <v>0.9995765851593098</v>
+        <v>-0.000423414840690195</v>
       </c>
       <c r="W159">
-        <v>0.9984091632198536</v>
+        <v>-0.001590836780146376</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12916,7 +12916,7 @@
         <v>0.7642949379544153</v>
       </c>
       <c r="K160">
-        <v>43.32013437847106</v>
+        <v>-0.06679865621528941</v>
       </c>
       <c r="L160">
         <v>-0.01306333673557367</v>
@@ -12946,13 +12946,13 @@
         <v>-0.2968750000000284</v>
       </c>
       <c r="U160">
-        <v>0.9999364871015889</v>
+        <v>-6.351289841111107E-05</v>
       </c>
       <c r="V160">
-        <v>0.9996611246425925</v>
+        <v>-0.0003388753574075087</v>
       </c>
       <c r="W160">
-        <v>1.001274697259401</v>
+        <v>0.001274697259400881</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12987,7 +12987,7 @@
         <v>0.6201359369412739</v>
       </c>
       <c r="K161">
-        <v>38.2767842377508</v>
+        <v>-0.117232157622492</v>
       </c>
       <c r="L161">
         <v>-0.01488193437940598</v>
@@ -13017,13 +13017,13 @@
         <v>-0.2937500000000171</v>
       </c>
       <c r="U161">
-        <v>0.9998623799794628</v>
+        <v>-0.000137620020537188</v>
       </c>
       <c r="V161">
-        <v>0.9995974490984979</v>
+        <v>-0.0004025509015020967</v>
       </c>
       <c r="W161">
-        <v>0.9977721196690007</v>
+        <v>-0.002227880330999299</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -13058,7 +13058,7 @@
         <v>0.6484993921842973</v>
       </c>
       <c r="K162">
-        <v>39.33877047567616</v>
+        <v>-0.1066122952432385</v>
       </c>
       <c r="L162">
         <v>-0.01660227243677881</v>
@@ -13088,13 +13088,13 @@
         <v>-0.2874999999999943</v>
       </c>
       <c r="U162">
-        <v>0.999862361037586</v>
+        <v>-0.0001376389624140328</v>
       </c>
       <c r="V162">
-        <v>0.9995972869860108</v>
+        <v>-0.0004027130139891977</v>
       </c>
       <c r="W162">
-        <v>1.000318979266348</v>
+        <v>0.0003189792663478297</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13129,7 +13129,7 @@
         <v>0.7679244668917299</v>
       </c>
       <c r="K163">
-        <v>43.43649750160727</v>
+        <v>-0.06563502498392731</v>
       </c>
       <c r="L163">
         <v>-0.01763092566707383</v>
@@ -13159,13 +13159,13 @@
         <v>-0.2281250000000057</v>
       </c>
       <c r="U163">
-        <v>0.9999152874403042</v>
+        <v>-8.471255969577651E-05</v>
       </c>
       <c r="V163">
-        <v>0.9997031445474015</v>
+        <v>-0.000296855452598499</v>
       </c>
       <c r="W163">
-        <v>1.001275510204082</v>
+        <v>0.001275510204081565</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13200,7 +13200,7 @@
         <v>0.7445257706339423</v>
       </c>
       <c r="K164">
-        <v>42.6778316013864</v>
+        <v>-0.07322168398613599</v>
       </c>
       <c r="L164">
         <v>-0.0182265540766594</v>
@@ -13230,13 +13230,13 @@
         <v>-0.1562500000000284</v>
       </c>
       <c r="U164">
-        <v>0.9998941003293479</v>
+        <v>-0.0001058996706521098</v>
       </c>
       <c r="V164">
-        <v>0.9996818461407938</v>
+        <v>-0.0003181538592061939</v>
       </c>
       <c r="W164">
-        <v>0.9996815286624203</v>
+        <v>-0.0003184713375796733</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13271,7 +13271,7 @@
         <v>0.7213881573514866</v>
       </c>
       <c r="K165">
-        <v>41.90734984847394</v>
+        <v>-0.0809265015152606</v>
       </c>
       <c r="L165">
         <v>-0.01857132560038564</v>
@@ -13301,13 +13301,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U165">
-        <v>0.9999152712907361</v>
+        <v>-8.472870926390375E-05</v>
       </c>
       <c r="V165">
-        <v>0.9997029618942541</v>
+        <v>-0.0002970381057458837</v>
       </c>
       <c r="W165">
-        <v>0.9996814272061167</v>
+        <v>-0.0003185727938832539</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13342,7 +13342,7 @@
         <v>0.7868133806633778</v>
       </c>
       <c r="K166">
-        <v>44.03444641606965</v>
+        <v>-0.0596555358393035</v>
       </c>
       <c r="L166">
         <v>-0.01844329612133758</v>
@@ -13372,13 +13372,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U166">
-        <v>0.9999152641111736</v>
+        <v>-8.473588882640382E-05</v>
       </c>
       <c r="V166">
-        <v>0.9998089901948302</v>
+        <v>-0.0001910098051698395</v>
       </c>
       <c r="W166">
-        <v>1.0006373486297</v>
+        <v>0.0006373486297004405</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13413,7 +13413,7 @@
         <v>0.8212477087222778</v>
       </c>
       <c r="K167">
-        <v>45.09258706485544</v>
+        <v>-0.04907412935144562</v>
       </c>
       <c r="L167">
         <v>-0.01785408289970015</v>
@@ -13443,13 +13443,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U167">
-        <v>0.9998940711629928</v>
+        <v>-0.0001059288370072187</v>
       </c>
       <c r="V167">
-        <v>0.9998089537031141</v>
+        <v>-0.0001910462968859328</v>
       </c>
       <c r="W167">
-        <v>1.00031847133758</v>
+        <v>0.0003184713375796733</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13484,7 +13484,7 @@
         <v>0.8574943698368886</v>
       </c>
       <c r="K168">
-        <v>46.16403601331978</v>
+        <v>-0.03835963986680219</v>
       </c>
       <c r="L168">
         <v>-0.01684215351247044</v>
@@ -13514,13 +13514,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U168">
-        <v>0.999936435964531</v>
+        <v>-6.356403546903255E-05</v>
       </c>
       <c r="V168">
-        <v>0.9999150743099786</v>
+        <v>-8.492569002138683E-05</v>
       </c>
       <c r="W168">
-        <v>1.000318369945877</v>
+        <v>0.0003183699458770839</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13555,7 +13555,7 @@
         <v>0.8956487499575535</v>
       </c>
       <c r="K169">
-        <v>47.24761113985956</v>
+        <v>-0.02752388860140442</v>
       </c>
       <c r="L169">
         <v>-0.01546136119042528</v>
@@ -13585,13 +13585,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U169">
-        <v>0.9999258372445361</v>
+        <v>-7.416275546390239E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999787667742484</v>
+        <v>-2.123322575164899E-05</v>
       </c>
       <c r="W169">
-        <v>1.000318268618714</v>
+        <v>0.0003182686187142014</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13626,7 +13626,7 @@
         <v>0.9358112553477042</v>
       </c>
       <c r="K170">
-        <v>48.34207119947842</v>
+        <v>-0.0165792880052158</v>
       </c>
       <c r="L170">
         <v>-0.01377282209416818</v>
@@ -13656,13 +13656,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U170">
-        <v>0.9999046408137316</v>
+        <v>-9.535918626835116E-05</v>
       </c>
       <c r="V170">
-        <v>1.000127402059666</v>
+        <v>0.0001274020596664371</v>
       </c>
       <c r="W170">
-        <v>1.000318167356029</v>
+        <v>0.0003181673560290754</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13697,7 +13697,7 @@
         <v>0.8628546170174138</v>
       </c>
       <c r="K171">
-        <v>46.31894561900468</v>
+        <v>-0.03681054380995319</v>
       </c>
       <c r="L171">
         <v>-0.01218668181902694</v>
@@ -13727,13 +13727,13 @@
         <v>0.04687499999997158</v>
       </c>
       <c r="U171">
-        <v>0.9999152281951023</v>
+        <v>-8.477180489774305E-05</v>
       </c>
       <c r="V171">
-        <v>1.000148616802191</v>
+        <v>0.0001486168021913592</v>
       </c>
       <c r="W171">
-        <v>0.9993638676844784</v>
+        <v>-0.0006361323155216203</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13768,7 +13768,7 @@
         <v>0.9038866418843265</v>
       </c>
       <c r="K172">
-        <v>47.47586447634961</v>
+        <v>-0.02524135523650384</v>
       </c>
       <c r="L172">
         <v>-0.01060343984545242</v>
@@ -13798,13 +13798,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U172">
-        <v>0.9999046236342635</v>
+        <v>-9.537636573653252E-05</v>
       </c>
       <c r="V172">
-        <v>0.9999575443661373</v>
+        <v>-4.245563386273687E-05</v>
       </c>
       <c r="W172">
-        <v>1.000318268618714</v>
+        <v>0.0003182686187142014</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13839,7 +13839,7 @@
         <v>0.8664627259703593</v>
       </c>
       <c r="K173">
-        <v>46.42271789916898</v>
+        <v>-0.0357728210083102</v>
       </c>
       <c r="L173">
         <v>-0.009199990219224194</v>
@@ -13869,13 +13869,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U173">
-        <v>0.9998516226127138</v>
+        <v>-0.000148377387286236</v>
       </c>
       <c r="V173">
-        <v>0.9999787712817902</v>
+        <v>-2.122871820975369E-05</v>
       </c>
       <c r="W173">
-        <v>0.9996818326439707</v>
+        <v>-0.0003181673560292975</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13910,7 +13910,7 @@
         <v>1.040792531826473</v>
       </c>
       <c r="K174">
-        <v>50.99942868249238</v>
+        <v>0.009994286824923759</v>
       </c>
       <c r="L174">
         <v>-0.007498079378398328</v>
@@ -13940,13 +13940,13 @@
         <v>0.1093750000000284</v>
       </c>
       <c r="U174">
-        <v>0.9998728005087979</v>
+        <v>-0.0001271994912021013</v>
       </c>
       <c r="V174">
-        <v>1.000169833351024</v>
+        <v>0.0001698333510242733</v>
       </c>
       <c r="W174">
-        <v>1.001273074474857</v>
+        <v>0.001273074474856806</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13981,7 +13981,7 @@
         <v>1.224297590622355</v>
       </c>
       <c r="K175">
-        <v>55.0419869977829</v>
+        <v>0.05041986997782899</v>
       </c>
       <c r="L175">
         <v>-0.005233031398167231</v>
@@ -14011,13 +14011,13 @@
         <v>0.1281249999999829</v>
       </c>
       <c r="U175">
-        <v>0.9999151895513528</v>
+        <v>-8.481044864716569E-05</v>
       </c>
       <c r="V175">
-        <v>1.000169804512555</v>
+        <v>0.000169804512554661</v>
       </c>
       <c r="W175">
-        <v>1.00127145581691</v>
+        <v>0.001271455816910239</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -14052,7 +14052,7 @@
         <v>1.320879200514924</v>
       </c>
       <c r="K176">
-        <v>56.91288026631744</v>
+        <v>0.06912880266317434</v>
       </c>
       <c r="L176">
         <v>-0.002520280706808783</v>
@@ -14082,13 +14082,13 @@
         <v>0.1593750000000398</v>
       </c>
       <c r="U176">
-        <v>0.9999787955894828</v>
+        <v>-2.120441051722821E-05</v>
       </c>
       <c r="V176">
-        <v>1.00036077332824</v>
+        <v>0.0003607733282398051</v>
       </c>
       <c r="W176">
-        <v>1.000634920634921</v>
+        <v>0.0006349206349205438</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14123,7 +14123,7 @@
         <v>1.47337647929268</v>
       </c>
       <c r="K177">
-        <v>59.56943844287007</v>
+        <v>0.09569438442870071</v>
       </c>
       <c r="L177">
         <v>0.0006475695703287218</v>
@@ -14153,13 +14153,13 @@
         <v>0.1718750000000284</v>
       </c>
       <c r="U177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V177">
-        <v>1.000403071831643</v>
+        <v>0.0004030718316434534</v>
       </c>
       <c r="W177">
-        <v>1.000951776649746</v>
+        <v>0.0009517766497462166</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14194,7 +14194,7 @@
         <v>1.526884296407693</v>
       </c>
       <c r="K178">
-        <v>60.42557225822983</v>
+        <v>0.1042557225822983</v>
       </c>
       <c r="L178">
         <v>0.004002618775299361</v>
@@ -14224,13 +14224,13 @@
         <v>0.1843749999999886</v>
       </c>
       <c r="U178">
-        <v>1.000021204860154</v>
+        <v>2.120486015377843E-05</v>
       </c>
       <c r="V178">
-        <v>1.000339292151748</v>
+        <v>0.0003392921517484382</v>
       </c>
       <c r="W178">
-        <v>1.000316957210777</v>
+        <v>0.000316957210776625</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14265,7 +14265,7 @@
         <v>1.526884296407693</v>
       </c>
       <c r="K179">
-        <v>60.42557225822983</v>
+        <v>0.1042557225822983</v>
       </c>
       <c r="L179">
         <v>0.007242398987327443</v>
@@ -14295,13 +14295,13 @@
         <v>0.2218749999999829</v>
       </c>
       <c r="U179">
-        <v>1.000021204410517</v>
+        <v>2.120441051745026E-05</v>
       </c>
       <c r="V179">
-        <v>1.000360375638607</v>
+        <v>0.0003603756386068024</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14336,7 +14336,7 @@
         <v>1.365024008329477</v>
       </c>
       <c r="K180">
-        <v>57.71713113786338</v>
+        <v>0.07717131137863387</v>
       </c>
       <c r="L180">
         <v>0.009947447585175772</v>
@@ -14366,13 +14366,13 @@
         <v>0.2437500000000057</v>
       </c>
       <c r="U180">
-        <v>1.0000212039609</v>
+        <v>2.120396089999588E-05</v>
       </c>
       <c r="V180">
-        <v>1.000339054884509</v>
+        <v>0.000339054884509471</v>
       </c>
       <c r="W180">
-        <v>0.9993662864385296</v>
+        <v>-0.0006337135614703504</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14407,7 +14407,7 @@
         <v>1.476610230684046</v>
       </c>
       <c r="K181">
-        <v>59.6222293031634</v>
+        <v>0.09622229303163399</v>
       </c>
       <c r="L181">
         <v>0.01235123661221139</v>
@@ -14437,13 +14437,13 @@
         <v>0.2749999999999773</v>
       </c>
       <c r="U181">
-        <v>1.000074212289555</v>
+        <v>7.421228955495351E-05</v>
       </c>
       <c r="V181">
-        <v>1.000338939965259</v>
+        <v>0.0003389399652586889</v>
       </c>
       <c r="W181">
-        <v>1.000634115409005</v>
+        <v>0.0006341154090045986</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14478,7 +14478,7 @@
         <v>1.652799002822772</v>
       </c>
       <c r="K182">
-        <v>62.30396652984538</v>
+        <v>0.1230396652984538</v>
       </c>
       <c r="L182">
         <v>0.01472137974596491</v>
@@ -14508,13 +14508,13 @@
         <v>0.2968749999999716</v>
       </c>
       <c r="U182">
-        <v>1.000095408720357</v>
+        <v>9.540872035707082E-05</v>
       </c>
       <c r="V182">
-        <v>1.000381178264368</v>
+        <v>0.0003811782643681205</v>
       </c>
       <c r="W182">
-        <v>1.000950570342205</v>
+        <v>0.0009505703422052481</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14549,7 +14549,7 @@
         <v>1.470931235594731</v>
       </c>
       <c r="K183">
-        <v>59.52942819311971</v>
+        <v>0.09529428193119704</v>
       </c>
       <c r="L183">
         <v>0.01663437027988076</v>
@@ -14579,13 +14579,13 @@
         <v>0.2906250000000057</v>
       </c>
       <c r="U183">
-        <v>1.000116599533602</v>
+        <v>0.0001165995336018799</v>
       </c>
       <c r="V183">
-        <v>1.000317527519052</v>
+        <v>0.0003175275190516746</v>
       </c>
       <c r="W183">
-        <v>0.9993668882557771</v>
+        <v>-0.0006331117442228695</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14620,7 +14620,7 @@
         <v>1.390407451007427</v>
       </c>
       <c r="K184">
-        <v>58.1661277210898</v>
+        <v>0.081661277210898</v>
       </c>
       <c r="L184">
         <v>0.01797178193744029</v>
@@ -14650,13 +14650,13 @@
         <v>0.2718749999999943</v>
       </c>
       <c r="U184">
-        <v>1.00012718466153</v>
+        <v>0.0001271846615298333</v>
       </c>
       <c r="V184">
-        <v>1.000275103163686</v>
+        <v>0.0002751031636862855</v>
       </c>
       <c r="W184">
-        <v>0.9996832435856827</v>
+        <v>-0.0003167564143172763</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14691,7 +14691,7 @@
         <v>1.390407451007427</v>
       </c>
       <c r="K185">
-        <v>58.1661277210898</v>
+        <v>0.081661277210898</v>
       </c>
       <c r="L185">
         <v>0.01880959359839501</v>
@@ -14721,13 +14721,13 @@
         <v>0.2375000000000114</v>
       </c>
       <c r="U185">
-        <v>1.000190752731473</v>
+        <v>0.000190752731473065</v>
       </c>
       <c r="V185">
-        <v>1.000253871541</v>
+        <v>0.0002538715410000947</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14762,7 +14762,7 @@
         <v>1.390407451007427</v>
       </c>
       <c r="K186">
-        <v>58.1661277210898</v>
+        <v>0.081661277210898</v>
       </c>
       <c r="L186">
         <v>0.01922268850794666</v>
@@ -14792,13 +14792,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U186">
-        <v>1.000222502410443</v>
+        <v>0.0002225024104427487</v>
       </c>
       <c r="V186">
-        <v>1.000296108291032</v>
+        <v>0.0002961082910319934</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14833,7 +14833,7 @@
         <v>1.645807504222755</v>
       </c>
       <c r="K187">
-        <v>62.20435544143016</v>
+        <v>0.1220435544143016</v>
       </c>
       <c r="L187">
         <v>0.01974487109679445</v>
@@ -14863,13 +14863,13 @@
         <v>0.1687500000000171</v>
       </c>
       <c r="U187">
-        <v>1.000158894938667</v>
+        <v>0.0001588949386666094</v>
       </c>
       <c r="V187">
-        <v>1.000359453630482</v>
+        <v>0.000359453630481843</v>
       </c>
       <c r="W187">
-        <v>1.00126742712294</v>
+        <v>0.001267427122940257</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14904,7 +14904,7 @@
         <v>1.297093960499699</v>
       </c>
       <c r="K188">
-        <v>56.46673504890219</v>
+        <v>0.06466735048902184</v>
       </c>
       <c r="L188">
         <v>0.01976484500263363</v>
@@ -14934,13 +14934,13 @@
         <v>0.140625</v>
       </c>
       <c r="U188">
-        <v>1.000137687069066</v>
+        <v>0.0001376870690659171</v>
       </c>
       <c r="V188">
-        <v>1.000295914269409</v>
+        <v>0.0002959142694087813</v>
       </c>
       <c r="W188">
-        <v>0.99873417721519</v>
+        <v>-0.001265822784810022</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14975,7 +14975,7 @@
         <v>1.464367572626736</v>
       </c>
       <c r="K189">
-        <v>59.42163778213841</v>
+        <v>0.09421637782138415</v>
       </c>
       <c r="L189">
         <v>0.01975430546219879</v>
@@ -15005,13 +15005,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U189">
-        <v>1.000222386953299</v>
+        <v>0.0002223869532989031</v>
       </c>
       <c r="V189">
-        <v>1.00027469624934</v>
+        <v>0.0002746962493398453</v>
       </c>
       <c r="W189">
-        <v>1.000950570342205</v>
+        <v>0.0009505703422052481</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -15046,7 +15046,7 @@
         <v>1.523060068109929</v>
       </c>
       <c r="K190">
-        <v>60.3655888878968</v>
+        <v>0.103655888878968</v>
       </c>
       <c r="L190">
         <v>0.01976943927187097</v>
@@ -15076,13 +15076,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U190">
-        <v>1.000190575007146</v>
+        <v>0.0001905750071464762</v>
       </c>
       <c r="V190">
-        <v>1.000211246778487</v>
+        <v>0.0002112467784867178</v>
       </c>
       <c r="W190">
-        <v>1.000316555872111</v>
+        <v>0.0003165558721114348</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15117,7 +15117,7 @@
         <v>1.584841642302763</v>
       </c>
       <c r="K191">
-        <v>61.31291048417466</v>
+        <v>0.1131291048417465</v>
       </c>
       <c r="L191">
         <v>0.0198425396250405</v>
@@ -15147,13 +15147,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U191">
-        <v>1.000275222559782</v>
+        <v>0.0002752225597815183</v>
       </c>
       <c r="V191">
-        <v>1.000190081946439</v>
+        <v>0.0001900819464391024</v>
       </c>
       <c r="W191">
-        <v>1.000316455696203</v>
+        <v>0.0003164556962025333</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15188,7 +15188,7 @@
         <v>1.584841642302763</v>
       </c>
       <c r="K192">
-        <v>61.31291048417466</v>
+        <v>0.1131291048417465</v>
       </c>
       <c r="L192">
         <v>0.01987356723081659</v>
@@ -15218,13 +15218,13 @@
         <v>0.0625</v>
       </c>
       <c r="U192">
-        <v>1.000264564262659</v>
+        <v>0.0002645642626593059</v>
       </c>
       <c r="V192">
-        <v>1.000126697214773</v>
+        <v>0.0001266972147728751</v>
       </c>
       <c r="W192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15259,7 +15259,7 @@
         <v>1.393987869487956</v>
       </c>
       <c r="K193">
-        <v>58.22869394012896</v>
+        <v>0.08228693940128962</v>
       </c>
       <c r="L193">
         <v>0.01957340175671639</v>
@@ -15289,13 +15289,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U193">
-        <v>1.000201015658062</v>
+        <v>0.0002010156580618538</v>
       </c>
       <c r="V193">
-        <v>1.000063340582311</v>
+        <v>6.334058231116657E-05</v>
       </c>
       <c r="W193">
-        <v>0.9993672888326478</v>
+        <v>-0.0006327111673521957</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15330,7 +15330,7 @@
         <v>1.457369188751567</v>
       </c>
       <c r="K194">
-        <v>59.30607396815142</v>
+        <v>0.09306073968151418</v>
       </c>
       <c r="L194">
         <v>0.01913597721557527</v>
@@ -15360,13 +15360,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U194">
-        <v>1.000222130549297</v>
+        <v>0.0002221305492970949</v>
       </c>
       <c r="V194">
-        <v>1.000084448760714</v>
+        <v>8.44487607143396E-05</v>
       </c>
       <c r="W194">
-        <v>1.000316555872111</v>
+        <v>0.0003165558721114348</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15401,7 +15401,7 @@
         <v>1.657520723268194</v>
       </c>
       <c r="K195">
-        <v>62.37094253887099</v>
+        <v>0.1237094253887099</v>
       </c>
       <c r="L195">
         <v>0.01892008863187787</v>
@@ -15431,13 +15431,13 @@
         <v>0.078125</v>
       </c>
       <c r="U195">
-        <v>1.000264382402707</v>
+        <v>0.0002643824027073194</v>
       </c>
       <c r="V195">
-        <v>1.000189993666878</v>
+        <v>0.0001899936668778857</v>
       </c>
       <c r="W195">
-        <v>1.000949367088608</v>
+        <v>0.0009493670886076</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15472,7 +15472,7 @@
         <v>2.008663766279807</v>
       </c>
       <c r="K196">
-        <v>66.76265353384791</v>
+        <v>0.1676265353384792</v>
       </c>
       <c r="L196">
         <v>0.01936050731394631</v>
@@ -15502,13 +15502,13 @@
         <v>0.1093750000000284</v>
       </c>
       <c r="U196">
-        <v>1.000296030025903</v>
+        <v>0.000296030025902505</v>
       </c>
       <c r="V196">
-        <v>1.000253276768188</v>
+        <v>0.0002532767681882042</v>
       </c>
       <c r="W196">
-        <v>1.001580777742649</v>
+        <v>0.001580777742649309</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15543,7 +15543,7 @@
         <v>2.008663766279807</v>
       </c>
       <c r="K197">
-        <v>66.76265353384791</v>
+        <v>0.1676265353384792</v>
       </c>
       <c r="L197">
         <v>0.02009935672747456</v>
@@ -15573,13 +15573,13 @@
         <v>0.1281250000000114</v>
       </c>
       <c r="U197">
-        <v>1.000285373045987</v>
+        <v>0.0002853730459873027</v>
       </c>
       <c r="V197">
-        <v>1.000189909476483</v>
+        <v>0.0001899094764830078</v>
       </c>
       <c r="W197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15614,7 +15614,7 @@
         <v>2.086479399080138</v>
       </c>
       <c r="K198">
-        <v>67.60062612768355</v>
+        <v>0.1760062612768355</v>
       </c>
       <c r="L198">
         <v>0.02101365215095977</v>
@@ -15644,13 +15644,13 @@
         <v>0.1531249999999886</v>
       </c>
       <c r="U198">
-        <v>1.000285291631446</v>
+        <v>0.0002852916314455278</v>
       </c>
       <c r="V198">
-        <v>1.000253164556962</v>
+        <v>0.0002531645569621155</v>
       </c>
       <c r="W198">
-        <v>1.000315656565656</v>
+        <v>0.0003156565656563526</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15685,7 +15685,7 @@
         <v>1.928512629960353</v>
       </c>
       <c r="K199">
-        <v>65.8529729471053</v>
+        <v>0.158529729471053</v>
       </c>
       <c r="L199">
         <v>0.02178347236495177</v>
@@ -15715,13 +15715,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U199">
-        <v>1.00026408357717</v>
+        <v>0.0002640835771703376</v>
       </c>
       <c r="V199">
-        <v>1.000253100480891</v>
+        <v>0.0002531004808907777</v>
       </c>
       <c r="W199">
-        <v>0.9996844430419691</v>
+        <v>-0.0003155569580308715</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15756,7 +15756,7 @@
         <v>1.663387202974974</v>
       </c>
       <c r="K200">
-        <v>62.4538257568028</v>
+        <v>0.1245382575680281</v>
       </c>
       <c r="L200">
         <v>0.02210618730542346</v>
@@ -15786,13 +15786,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U200">
-        <v>1.000232332192794</v>
+        <v>0.0002323321927935051</v>
       </c>
       <c r="V200">
-        <v>1.000210863697706</v>
+        <v>0.0002108636977058431</v>
       </c>
       <c r="W200">
-        <v>0.9993686868686869</v>
+        <v>-0.0006313131313131493</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15827,7 +15827,7 @@
         <v>1.735743326676475</v>
       </c>
       <c r="K201">
-        <v>63.44686322547471</v>
+        <v>0.134468632254747</v>
       </c>
       <c r="L201">
         <v>0.02217222315215852</v>
@@ -15857,13 +15857,13 @@
         <v>0.1781249999999943</v>
       </c>
       <c r="U201">
-        <v>1.000263952530777</v>
+        <v>0.0002639525307772672</v>
       </c>
       <c r="V201">
-        <v>1.000231901167939</v>
+        <v>0.0002319011679388083</v>
       </c>
       <c r="W201">
-        <v>1.000315855969678</v>
+        <v>0.0003158559696776475</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15898,7 +15898,7 @@
         <v>1.612898012849483</v>
       </c>
       <c r="K202">
-        <v>61.72831870657459</v>
+        <v>0.1172831870657459</v>
       </c>
       <c r="L202">
         <v>0.02188228226878012</v>
@@ -15928,13 +15928,13 @@
         <v>0.1843749999999886</v>
       </c>
       <c r="U202">
-        <v>1.000242772247965</v>
+        <v>0.0002427722479649841</v>
       </c>
       <c r="V202">
-        <v>1.000126462219412</v>
+        <v>0.0001264622194119269</v>
       </c>
       <c r="W202">
-        <v>0.9996842437638145</v>
+        <v>-0.000315756236185516</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15969,7 +15969,7 @@
         <v>1.501070042589786</v>
       </c>
       <c r="K203">
-        <v>60.01711335662839</v>
+        <v>0.1001711335662839</v>
       </c>
       <c r="L203">
         <v>0.0212001105925553</v>
@@ -15999,13 +15999,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U203">
-        <v>1.000242713323906</v>
+        <v>0.0002427133239062407</v>
       </c>
       <c r="V203">
-        <v>1.000189669343112</v>
+        <v>0.0001896693431115981</v>
       </c>
       <c r="W203">
-        <v>0.9996841440303221</v>
+        <v>-0.0003158559696778696</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -16040,7 +16040,7 @@
         <v>1.398969472325574</v>
       </c>
       <c r="K204">
-        <v>58.31543454237478</v>
+        <v>0.08315434542374778</v>
       </c>
       <c r="L204">
         <v>0.02013135721525346</v>
@@ -16070,13 +16070,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U204">
-        <v>1.000189903465738</v>
+        <v>0.0001899034657384391</v>
       </c>
       <c r="V204">
-        <v>1.000105351875263</v>
+        <v>0.0001053518752633931</v>
       </c>
       <c r="W204">
-        <v>0.9996840442338072</v>
+        <v>-0.0003159557661928103</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16111,7 +16111,7 @@
         <v>1.223734492884055</v>
       </c>
       <c r="K205">
-        <v>55.03060265512824</v>
+        <v>0.05030602655128247</v>
       </c>
       <c r="L205">
         <v>0.01859278840397298</v>
@@ -16141,13 +16141,13 @@
         <v>0.08437500000002274</v>
       </c>
       <c r="U205">
-        <v>1.000126578272839</v>
+        <v>0.0001265782728394615</v>
       </c>
       <c r="V205">
-        <v>1.000042136310966</v>
+        <v>4.213631096594561E-05</v>
       </c>
       <c r="W205">
-        <v>0.9993678887484198</v>
+        <v>-0.0006321112515802474</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16182,7 +16182,7 @@
         <v>1.148047897308071</v>
       </c>
       <c r="K206">
-        <v>53.44610326179423</v>
+        <v>0.03446103261794231</v>
       </c>
       <c r="L206">
         <v>0.01668494425018073</v>
@@ -16212,13 +16212,13 @@
         <v>0.03125</v>
       </c>
       <c r="U206">
-        <v>1.000094921689606</v>
+        <v>9.4921689606009E-05</v>
       </c>
       <c r="V206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W206">
-        <v>0.9996837444655282</v>
+        <v>-0.0003162555344717877</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16253,7 +16253,7 @@
         <v>1.077873914543057</v>
       </c>
       <c r="K207">
-        <v>51.87388450276066</v>
+        <v>0.01873884502760659</v>
       </c>
       <c r="L207">
         <v>0.0144992234955831</v>
@@ -16283,13 +16283,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U207">
-        <v>1.000052729266852</v>
+        <v>5.27292668521806E-05</v>
       </c>
       <c r="V207">
-        <v>0.9999789327322139</v>
+        <v>-2.106726778605683E-05</v>
       </c>
       <c r="W207">
-        <v>0.9996836444163238</v>
+        <v>-0.0003163555836761534</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16324,7 +16324,7 @@
         <v>1.206557309115957</v>
       </c>
       <c r="K208">
-        <v>54.68053352302717</v>
+        <v>0.04680533523027175</v>
       </c>
       <c r="L208">
         <v>0.01246232679312018</v>
@@ -16354,13 +16354,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U208">
-        <v>1.000063271783948</v>
+        <v>6.327178394816002E-05</v>
       </c>
       <c r="V208">
-        <v>1.000063203134876</v>
+        <v>6.320313487551132E-05</v>
       </c>
       <c r="W208">
-        <v>1.000632911392405</v>
+        <v>0.0006329113924050667</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16395,7 +16395,7 @@
         <v>1.002803395851598</v>
       </c>
       <c r="K209">
-        <v>50.06998679594324</v>
+        <v>0.000699867959432332</v>
       </c>
       <c r="L209">
         <v>0.01025441776901105</v>
@@ -16425,13 +16425,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U209">
-        <v>1.000031633890441</v>
+        <v>3.163389044136267E-05</v>
       </c>
       <c r="V209">
-        <v>0.9999789336198361</v>
+        <v>-2.106638016385887E-05</v>
       </c>
       <c r="W209">
-        <v>0.9990512333965844</v>
+        <v>-0.0009487666034155851</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16466,7 +16466,7 @@
         <v>0.9467077593422427</v>
       </c>
       <c r="K210">
-        <v>48.63122134275142</v>
+        <v>-0.01368778657248576</v>
       </c>
       <c r="L210">
         <v>0.007931203347804987</v>
@@ -16496,13 +16496,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U210">
-        <v>1.00004217718636</v>
+        <v>4.217718635968204E-05</v>
       </c>
       <c r="V210">
-        <v>0.9998946658801718</v>
+        <v>-0.0001053341198281599</v>
       </c>
       <c r="W210">
-        <v>0.9996834441278887</v>
+        <v>-0.0003165558721113237</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16537,7 +16537,7 @@
         <v>0.8045796503496372</v>
       </c>
       <c r="K211">
-        <v>44.58543296738107</v>
+        <v>-0.05414567032618928</v>
       </c>
       <c r="L211">
         <v>0.005311819744446241</v>
@@ -16567,13 +16567,13 @@
         <v>-0.1749999999999829</v>
       </c>
       <c r="U211">
-        <v>0.9999894561481201</v>
+        <v>-1.054385187992946E-05</v>
       </c>
       <c r="V211">
-        <v>0.9997261024376883</v>
+        <v>-0.0002738975623116646</v>
       </c>
       <c r="W211">
-        <v>0.9990500316656111</v>
+        <v>-0.0009499683343888732</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16608,7 +16608,7 @@
         <v>0.8572564256640044</v>
       </c>
       <c r="K212">
-        <v>46.1571387676055</v>
+        <v>-0.03842861232394496</v>
       </c>
       <c r="L212">
         <v>0.002775847223550989</v>
@@ -16638,13 +16638,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U212">
-        <v>0.9999683681108382</v>
+        <v>-3.163188916177617E-05</v>
       </c>
       <c r="V212">
-        <v>0.9997471022128557</v>
+        <v>-0.0002528977871443239</v>
       </c>
       <c r="W212">
-        <v>1.000316957210777</v>
+        <v>0.000316957210776625</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16679,7 +16679,7 @@
         <v>0.8122194753393673</v>
       </c>
       <c r="K213">
-        <v>44.81904572774035</v>
+        <v>-0.05180954272259652</v>
       </c>
       <c r="L213">
         <v>0.0003266762230453306</v>
@@ -16709,13 +16709,13 @@
         <v>-0.1906250000000114</v>
       </c>
       <c r="U213">
-        <v>0.99997891140682</v>
+        <v>-2.108859317995204E-05</v>
       </c>
       <c r="V213">
-        <v>0.9997048779459504</v>
+        <v>-0.0002951220540495791</v>
       </c>
       <c r="W213">
-        <v>0.9996831432192648</v>
+        <v>-0.0003168567807352307</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16750,7 +16750,7 @@
         <v>0.8675206836032501</v>
       </c>
       <c r="K214">
-        <v>46.45306963505378</v>
+        <v>-0.03546930364946221</v>
       </c>
       <c r="L214">
         <v>-0.001799936144877905</v>
@@ -16780,13 +16780,13 @@
         <v>-0.1812500000000057</v>
       </c>
       <c r="U214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V214">
-        <v>0.9997469635627533</v>
+        <v>-0.0002530364372467231</v>
       </c>
       <c r="W214">
-        <v>1.000316957210777</v>
+        <v>0.000316957210776625</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16821,7 +16821,7 @@
         <v>0.8675206836032501</v>
       </c>
       <c r="K215">
-        <v>46.45306963505378</v>
+        <v>-0.03546930364946221</v>
       </c>
       <c r="L215">
         <v>-0.003589179719135806</v>
@@ -16851,13 +16851,13 @@
         <v>-0.1687500000000171</v>
       </c>
       <c r="U215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V215">
-        <v>0.9997890829325907</v>
+        <v>-0.0002109170674092775</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16892,7 +16892,7 @@
         <v>0.7728117159519928</v>
       </c>
       <c r="K216">
-        <v>43.59243054398453</v>
+        <v>-0.06407569456015472</v>
       </c>
       <c r="L216">
         <v>-0.005277433451177092</v>
@@ -16922,13 +16922,13 @@
         <v>-0.1812500000000057</v>
       </c>
       <c r="U216">
-        <v>0.9999789109620819</v>
+        <v>-2.108903791808725E-05</v>
       </c>
       <c r="V216">
-        <v>0.9997257499683558</v>
+        <v>-0.0002742500316441632</v>
       </c>
       <c r="W216">
-        <v>0.9993662864385296</v>
+        <v>-0.0006337135614703504</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16963,7 +16963,7 @@
         <v>0.8302706630661645</v>
       </c>
       <c r="K217">
-        <v>45.36327220998297</v>
+        <v>-0.04636727790017026</v>
       </c>
       <c r="L217">
         <v>-0.006662653590766573</v>
@@ -16993,13 +16993,13 @@
         <v>-0.1687500000000171</v>
       </c>
       <c r="U217">
-        <v>0.9999472762933124</v>
+        <v>-5.27237066876296E-05</v>
       </c>
       <c r="V217">
-        <v>0.9997678786216211</v>
+        <v>-0.0002321213783789133</v>
       </c>
       <c r="W217">
-        <v>1.000317057704502</v>
+        <v>0.0003170577045021883</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -17034,7 +17034,7 @@
         <v>0.6374852387527411</v>
       </c>
       <c r="K218">
-        <v>38.93074720101344</v>
+        <v>-0.1106925279898656</v>
       </c>
       <c r="L218">
         <v>-0.008327871613767662</v>
@@ -17064,13 +17064,13 @@
         <v>-0.1687500000000171</v>
       </c>
       <c r="U218">
-        <v>0.9999367282160523</v>
+        <v>-6.327178394771593E-05</v>
       </c>
       <c r="V218">
-        <v>0.9996833973574232</v>
+        <v>-0.0003166026425768242</v>
       </c>
       <c r="W218">
-        <v>0.9984152139461173</v>
+        <v>-0.001584786053882681</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -17105,7 +17105,7 @@
         <v>0.7841352659934939</v>
       </c>
       <c r="K219">
-        <v>43.95043811640868</v>
+        <v>-0.06049561883591326</v>
       </c>
       <c r="L219">
         <v>-0.009680913972866575</v>
@@ -17135,13 +17135,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U219">
-        <v>0.9999367242124798</v>
+        <v>-6.327578752018947E-05</v>
       </c>
       <c r="V219">
-        <v>0.9997677511981927</v>
+        <v>-0.0002322488018072777</v>
       </c>
       <c r="W219">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17176,7 +17176,7 @@
         <v>0.7457612626654226</v>
       </c>
       <c r="K220">
-        <v>42.7183990511278</v>
+        <v>-0.07281600948872197</v>
       </c>
       <c r="L220">
         <v>-0.01083873557499826</v>
@@ -17206,13 +17206,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U220">
-        <v>0.9999156269445353</v>
+        <v>-8.437305546471485E-05</v>
       </c>
       <c r="V220">
-        <v>0.9997888156783242</v>
+        <v>-0.0002111843216757725</v>
       </c>
       <c r="W220">
-        <v>0.9996828417380272</v>
+        <v>-0.0003171582619727609</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17247,7 +17247,7 @@
         <v>0.9518159548368045</v>
       </c>
       <c r="K221">
-        <v>48.76566115150892</v>
+        <v>-0.01234338848491079</v>
       </c>
       <c r="L221">
         <v>-0.01130427415156701</v>
@@ -17277,13 +17277,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U221">
-        <v>0.9999472623907015</v>
+        <v>-5.273760929846993E-05</v>
       </c>
       <c r="V221">
-        <v>0.9998943855350426</v>
+        <v>-0.000105614464957382</v>
       </c>
       <c r="W221">
-        <v>1.001269035532995</v>
+        <v>0.001269035532994955</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17318,7 +17318,7 @@
         <v>0.9518159548368044</v>
       </c>
       <c r="K222">
-        <v>48.76566115150892</v>
+        <v>-0.01234338848491084</v>
       </c>
       <c r="L222">
         <v>-0.01127953646766809</v>
@@ -17348,13 +17348,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U222">
-        <v>0.9999472596092991</v>
+        <v>-5.274039070091163E-05</v>
       </c>
       <c r="V222">
-        <v>0.9999154995035596</v>
+        <v>-8.450049644037616E-05</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17389,7 +17389,7 @@
         <v>1.123052541128771</v>
       </c>
       <c r="K223">
-        <v>52.89800979356231</v>
+        <v>0.02898009793562306</v>
       </c>
       <c r="L223">
         <v>-0.01057244085642028</v>
@@ -17419,13 +17419,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U223">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V223">
-        <v>0.9999366192719668</v>
+        <v>-6.338072803324657E-05</v>
       </c>
       <c r="W223">
-        <v>1.000950570342205</v>
+        <v>0.0009505703422052481</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17460,7 +17460,7 @@
         <v>1.243218566596863</v>
       </c>
       <c r="K224">
-        <v>55.42119636085762</v>
+        <v>0.05421196360857616</v>
       </c>
       <c r="L224">
         <v>-0.009227784905662126</v>
@@ -17490,13 +17490,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U224">
-        <v>1.000010548634479</v>
+        <v>1.054863447902399E-05</v>
       </c>
       <c r="V224">
-        <v>1.000042256496936</v>
+        <v>4.225649693645472E-05</v>
       </c>
       <c r="W224">
-        <v>1.000633111744223</v>
+        <v>0.0006331117442230916</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17531,7 +17531,7 @@
         <v>1.306463843158981</v>
       </c>
       <c r="K225">
-        <v>56.64358654630461</v>
+        <v>0.06643586546304614</v>
       </c>
       <c r="L225">
         <v>-0.007433468709015798</v>
@@ -17561,13 +17561,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U225">
-        <v>0.9999894514767933</v>
+        <v>-1.05485232066993E-05</v>
       </c>
       <c r="V225">
-        <v>1.000084509422801</v>
+        <v>8.450942280080476E-05</v>
       </c>
       <c r="W225">
-        <v>1.000316355583676</v>
+        <v>0.0003163555836760423</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17602,7 +17602,7 @@
         <v>1.088972215028552</v>
       </c>
       <c r="K226">
-        <v>52.12956913424854</v>
+        <v>0.02129569134248543</v>
       </c>
       <c r="L226">
         <v>-0.005799727692785798</v>
@@ -17632,13 +17632,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U226">
-        <v>0.9999050622896865</v>
+        <v>-9.493771031354736E-05</v>
       </c>
       <c r="V226">
-        <v>1.000084502281561</v>
+        <v>8.450228156142714E-05</v>
       </c>
       <c r="W226">
-        <v>0.9990512333965844</v>
+        <v>-0.0009487666034155851</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17673,7 +17673,7 @@
         <v>1.088972215028552</v>
       </c>
       <c r="K227">
-        <v>52.12956913424854</v>
+        <v>0.02129569134248543</v>
       </c>
       <c r="L227">
         <v>-0.004346252567106204</v>
@@ -17703,13 +17703,13 @@
         <v>0.09062499999998863</v>
       </c>
       <c r="U227">
-        <v>0.9999050532756619</v>
+        <v>-9.494672433807416E-05</v>
       </c>
       <c r="V227">
-        <v>1.000063371356147</v>
+        <v>6.337135614686851E-05</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17744,7 +17744,7 @@
         <v>0.969723281868811</v>
       </c>
       <c r="K228">
-        <v>49.23144742183117</v>
+        <v>-0.007685525781688296</v>
       </c>
       <c r="L228">
         <v>-0.003309394932442517</v>
@@ -17774,13 +17774,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U228">
-        <v>0.9998733923465675</v>
+        <v>-0.0001266076534325311</v>
       </c>
       <c r="V228">
-        <v>1.000042244893648</v>
+        <v>4.22448936483466E-05</v>
       </c>
       <c r="W228">
-        <v>0.9993668882557771</v>
+        <v>-0.0006331117442228695</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17815,7 +17815,7 @@
         <v>1.142627407980672</v>
       </c>
       <c r="K229">
-        <v>53.32832968180621</v>
+        <v>0.03328329681806208</v>
       </c>
       <c r="L229">
         <v>-0.002233071482366212</v>
@@ -17845,13 +17845,13 @@
         <v>0.1281250000000114</v>
       </c>
       <c r="U229">
-        <v>0.9999155842100266</v>
+        <v>-8.441578997342436E-05</v>
       </c>
       <c r="V229">
-        <v>1.000084486218186</v>
+        <v>8.448621818568647E-05</v>
       </c>
       <c r="W229">
-        <v>1.000950269242952</v>
+        <v>0.000950269242952162</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17886,7 +17886,7 @@
         <v>1.142627407980672</v>
       </c>
       <c r="K230">
-        <v>53.32832968180622</v>
+        <v>0.03328329681806219</v>
       </c>
       <c r="L230">
         <v>-0.001193287086486833</v>
@@ -17916,13 +17916,13 @@
         <v>0.140625</v>
       </c>
       <c r="U230">
-        <v>0.9999366828125495</v>
+        <v>-6.331718745045123E-05</v>
       </c>
       <c r="V230">
-        <v>1.000084479080868</v>
+        <v>8.447908086761657E-05</v>
       </c>
       <c r="W230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17957,7 +17957,7 @@
         <v>1.142627407980672</v>
       </c>
       <c r="K231">
-        <v>53.32832968180622</v>
+        <v>0.03328329681806219</v>
       </c>
       <c r="L231">
         <v>-0.000237559153774291</v>
@@ -17987,13 +17987,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U231">
-        <v>0.9999261252704341</v>
+        <v>-7.387472956588148E-05</v>
       </c>
       <c r="V231">
-        <v>1.000126707917133</v>
+        <v>0.0001267079171329843</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -18028,7 +18028,7 @@
         <v>1.007213074360957</v>
       </c>
       <c r="K232">
-        <v>50.17967884060473</v>
+        <v>0.001796788406047245</v>
       </c>
       <c r="L232">
         <v>0.0003765713089450652</v>
@@ -18058,13 +18058,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U232">
-        <v>0.9999155655000634</v>
+        <v>-8.443449993655872E-05</v>
       </c>
       <c r="V232">
-        <v>1.000063345932136</v>
+        <v>6.334593213552786E-05</v>
       </c>
       <c r="W232">
-        <v>0.9993670886075949</v>
+        <v>-0.0006329113924050667</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -18099,7 +18099,7 @@
         <v>1.007213074360957</v>
       </c>
       <c r="K233">
-        <v>50.17967884060473</v>
+        <v>0.001796788406047245</v>
       </c>
       <c r="L233">
         <v>0.0007432355543236824</v>
@@ -18129,13 +18129,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U233">
-        <v>0.9999261135739921</v>
+        <v>-7.388642600791862E-05</v>
       </c>
       <c r="V233">
-        <v>1.00016891178582</v>
+        <v>0.000168911785819903</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18170,7 +18170,7 @@
         <v>1.007213074360957</v>
       </c>
       <c r="K234">
-        <v>50.17967884060473</v>
+        <v>0.001796788406047245</v>
       </c>
       <c r="L234">
         <v>0.000933903198685423</v>
@@ -18200,13 +18200,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U234">
-        <v>0.9999366640980437</v>
+        <v>-6.333590195628513E-05</v>
       </c>
       <c r="V234">
-        <v>1.000105552037154</v>
+        <v>0.0001055520371542329</v>
       </c>
       <c r="W234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18241,7 +18241,7 @@
         <v>0.8848974027571822</v>
       </c>
       <c r="K235">
-        <v>46.94671452476808</v>
+        <v>-0.03053285475231926</v>
       </c>
       <c r="L235">
         <v>0.0007717791026109993</v>
@@ -18271,13 +18271,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U235">
-        <v>0.9999366600863536</v>
+        <v>-6.333991364637637E-05</v>
       </c>
       <c r="V235">
-        <v>1.000084432717678</v>
+        <v>8.443271767810678E-05</v>
       </c>
       <c r="W235">
-        <v>0.9993666877770742</v>
+        <v>-0.0006333122229258414</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18312,7 +18312,7 @@
         <v>1.012728684744838</v>
       </c>
       <c r="K236">
-        <v>50.31620468375377</v>
+        <v>0.003162046837537735</v>
       </c>
       <c r="L236">
         <v>0.0006340693531536423</v>
@@ -18342,13 +18342,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U236">
-        <v>0.9999683280370771</v>
+        <v>-3.167196292286345E-05</v>
       </c>
       <c r="V236">
-        <v>1.000042212794698</v>
+        <v>4.221279469818207E-05</v>
       </c>
       <c r="W236">
-        <v>1.00063371356147</v>
+        <v>0.0006337135614702394</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18383,7 +18383,7 @@
         <v>0.9488878675986766</v>
       </c>
       <c r="K237">
-        <v>48.68868462749729</v>
+        <v>-0.01311315372502714</v>
       </c>
       <c r="L237">
         <v>0.0004023095252198839</v>
@@ -18413,13 +18413,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U237">
-        <v>0.9999683270339323</v>
+        <v>-3.167296606765291E-05</v>
       </c>
       <c r="V237">
-        <v>1.000021105506427</v>
+        <v>2.110550642653308E-05</v>
       </c>
       <c r="W237">
-        <v>0.999683343888537</v>
+        <v>-0.0003166561114630317</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18454,7 +18454,7 @@
         <v>0.8377129207725564</v>
       </c>
       <c r="K238">
-        <v>45.58453669795118</v>
+        <v>-0.04415463302048822</v>
       </c>
       <c r="L238">
         <v>-0.0001037367632194216</v>
@@ -18484,13 +18484,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U238">
-        <v>0.9999260940716889</v>
+        <v>-7.39059283111354E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999155797560255</v>
+        <v>-8.442024397448122E-05</v>
       </c>
       <c r="W238">
-        <v>0.9993664871713652</v>
+        <v>-0.0006335128286347746</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18525,7 +18525,7 @@
         <v>0.6402943131388907</v>
       </c>
       <c r="K239">
-        <v>39.03533091653621</v>
+        <v>-0.1096466908346379</v>
       </c>
       <c r="L239">
         <v>-0.001319864090723336</v>
@@ -18555,13 +18555,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U239">
-        <v>0.9999049710689698</v>
+        <v>-9.502893103019439E-05</v>
       </c>
       <c r="V239">
-        <v>0.9997678247287769</v>
+        <v>-0.0002321752712231007</v>
       </c>
       <c r="W239">
-        <v>0.9984152139461173</v>
+        <v>-0.001584786053882681</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18596,7 +18596,7 @@
         <v>0.6899077440682878</v>
       </c>
       <c r="K240">
-        <v>40.82517205391356</v>
+        <v>-0.09174827946086439</v>
       </c>
       <c r="L240">
         <v>-0.002768605542349529</v>
@@ -18626,13 +18626,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U240">
-        <v>0.9999260815848111</v>
+        <v>-7.391841518888942E-05</v>
       </c>
       <c r="V240">
-        <v>0.9997677708109023</v>
+        <v>-0.0002322291890977102</v>
       </c>
       <c r="W240">
-        <v>1.00031746031746</v>
+        <v>0.000317460317460494</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18667,7 +18667,7 @@
         <v>0.6556658169903736</v>
       </c>
       <c r="K241">
-        <v>39.6013380394738</v>
+        <v>-0.103986619605262</v>
       </c>
       <c r="L241">
         <v>-0.004371263702087326</v>
@@ -18697,13 +18697,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U241">
-        <v>0.9999471972289105</v>
+        <v>-5.280277108954401E-05</v>
       </c>
       <c r="V241">
-        <v>0.9998099501647099</v>
+        <v>-0.0001900498352901403</v>
       </c>
       <c r="W241">
-        <v>0.9996826404316089</v>
+        <v>-0.0003173595683910735</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18738,7 +18738,7 @@
         <v>0.5423299970749224</v>
       </c>
       <c r="K242">
-        <v>35.16303243167599</v>
+        <v>-0.1483696756832401</v>
       </c>
       <c r="L242">
         <v>-0.006410519552638366</v>
@@ -18768,13 +18768,13 @@
         <v>-0.1468749999999943</v>
       </c>
       <c r="U242">
-        <v>0.9998943888812615</v>
+        <v>-0.0001056111187385245</v>
       </c>
       <c r="V242">
-        <v>0.9997254313895283</v>
+        <v>-0.0002745686104717038</v>
       </c>
       <c r="W242">
-        <v>0.9987301587301588</v>
+        <v>-0.001269841269841199</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18809,7 +18809,7 @@
         <v>1.088191287891552</v>
       </c>
       <c r="K243">
-        <v>52.11166688614526</v>
+        <v>0.02111666886145258</v>
       </c>
       <c r="L243">
         <v>-0.00717735637133495</v>
@@ -18839,13 +18839,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U243">
-        <v>1.000031686682088</v>
+        <v>3.168668208752834E-05</v>
       </c>
       <c r="V243">
-        <v>1.000021126463007</v>
+        <v>2.112646300744814E-05</v>
       </c>
       <c r="W243">
-        <v>1.003814367450731</v>
+        <v>0.00381436745073116</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18880,7 +18880,7 @@
         <v>0.9515091755749164</v>
       </c>
       <c r="K244">
-        <v>48.75760706042291</v>
+        <v>-0.01242392939577086</v>
       </c>
       <c r="L244">
         <v>-0.007444237299809092</v>
@@ -18910,13 +18910,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U244">
-        <v>0.9999894381073087</v>
+        <v>-1.056189269132979E-05</v>
       </c>
       <c r="V244">
-        <v>0.9998943699165523</v>
+        <v>-0.0001056300834476609</v>
       </c>
       <c r="W244">
-        <v>0.9990500316656111</v>
+        <v>-0.0009499683343888732</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18951,7 +18951,7 @@
         <v>0.9113445096696006</v>
       </c>
       <c r="K245">
-        <v>47.68080819857732</v>
+        <v>-0.02319191801422676</v>
       </c>
       <c r="L245">
         <v>-0.007479428751133116</v>
@@ -18981,13 +18981,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U245">
-        <v>0.9999788759915081</v>
+        <v>-2.112400849185736E-05</v>
       </c>
       <c r="V245">
-        <v>0.9998732305091905</v>
+        <v>-0.0001267694908094752</v>
       </c>
       <c r="W245">
-        <v>0.9996830427892234</v>
+        <v>-0.000316957210776625</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -19022,7 +19022,7 @@
         <v>0.773812630130271</v>
       </c>
       <c r="K246">
-        <v>43.62425979983248</v>
+        <v>-0.06375740200167518</v>
       </c>
       <c r="L246">
         <v>-0.007806172059497082</v>
@@ -19052,13 +19052,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U246">
-        <v>0.99995775109055</v>
+        <v>-4.224890945003779E-05</v>
       </c>
       <c r="V246">
-        <v>0.9997886907277491</v>
+        <v>-0.0002113092722508814</v>
       </c>
       <c r="W246">
-        <v>0.9987317691819912</v>
+        <v>-0.001268230818008753</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -19093,7 +19093,7 @@
         <v>0.8532394538939698</v>
       </c>
       <c r="K247">
-        <v>46.04043217950974</v>
+        <v>-0.03959567820490262</v>
       </c>
       <c r="L247">
         <v>-0.008029698274470771</v>
@@ -19123,13 +19123,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U247">
-        <v>0.9999683119791282</v>
+        <v>-3.168802087183398E-05</v>
       </c>
       <c r="V247">
-        <v>0.9998731876400221</v>
+        <v>-0.0001268123599779125</v>
       </c>
       <c r="W247">
-        <v>1.000634920634921</v>
+        <v>0.0006349206349205438</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19164,7 +19164,7 @@
         <v>0.8190022197011978</v>
       </c>
       <c r="K248">
-        <v>45.02480595299839</v>
+        <v>-0.04975194047001608</v>
       </c>
       <c r="L248">
         <v>-0.008262616030793899</v>
@@ -19194,13 +19194,13 @@
         <v>-0.08437499999996589</v>
       </c>
       <c r="U248">
-        <v>1.000010563008345</v>
+        <v>1.056300834467727E-05</v>
       </c>
       <c r="V248">
-        <v>0.999852033482709</v>
+        <v>-0.0001479665172909872</v>
       </c>
       <c r="W248">
-        <v>0.9996827411167514</v>
+        <v>-0.0003172588832486278</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19235,7 +19235,7 @@
         <v>0.8612402968583832</v>
       </c>
       <c r="K249">
-        <v>46.27238612403161</v>
+        <v>-0.03727613875968394</v>
       </c>
       <c r="L249">
         <v>-0.008340979601957645</v>
@@ -19265,13 +19265,13 @@
         <v>-0.05312499999996589</v>
       </c>
       <c r="U249">
-        <v>0.9999894371032312</v>
+        <v>-1.056289676881761E-05</v>
       </c>
       <c r="V249">
-        <v>0.9998731527874676</v>
+        <v>-0.0001268472125324216</v>
       </c>
       <c r="W249">
-        <v>1.000317359568391</v>
+        <v>0.0003173595683909625</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19306,7 +19306,7 @@
         <v>0.7909107219177191</v>
       </c>
       <c r="K250">
-        <v>44.16248740031031</v>
+        <v>-0.05837512599689687</v>
       </c>
       <c r="L250">
         <v>-0.00852113593554258</v>
@@ -19336,13 +19336,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U250">
-        <v>0.9999788739833104</v>
+        <v>-2.112601668957659E-05</v>
       </c>
       <c r="V250">
-        <v>0.9998731366952108</v>
+        <v>-0.000126863304789171</v>
       </c>
       <c r="W250">
-        <v>0.9993654822335025</v>
+        <v>-0.0006345177664974777</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19377,7 +19377,7 @@
         <v>0.7283064191498781</v>
       </c>
       <c r="K251">
-        <v>42.13988972557995</v>
+        <v>-0.07860110274420051</v>
       </c>
       <c r="L251">
         <v>-0.008951326019700945</v>
@@ -19407,13 +19407,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U251">
-        <v>0.9999154941479699</v>
+        <v>-8.450585203012562E-05</v>
       </c>
       <c r="V251">
-        <v>0.9997885343314513</v>
+        <v>-0.0002114656685486827</v>
       </c>
       <c r="W251">
-        <v>0.9993650793650795</v>
+        <v>-0.0006349206349205438</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19448,7 +19448,7 @@
         <v>0.9366082674028312</v>
       </c>
       <c r="K252">
-        <v>48.36333104468817</v>
+        <v>-0.01636668955311832</v>
       </c>
       <c r="L252">
         <v>-0.008896089991466734</v>
@@ -19478,13 +19478,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U252">
-        <v>0.9999683076272977</v>
+        <v>-3.169237270228553E-05</v>
       </c>
       <c r="V252">
-        <v>0.9999153958417057</v>
+        <v>-8.460415829425472E-05</v>
       </c>
       <c r="W252">
-        <v>1.00158831003812</v>
+        <v>0.001588310038119545</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19519,7 +19519,7 @@
         <v>1.02431430877249</v>
       </c>
       <c r="K253">
-        <v>50.60055665928762</v>
+        <v>0.00600556659287621</v>
       </c>
       <c r="L253">
         <v>-0.00828700021808434</v>
@@ -19549,13 +19549,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U253">
-        <v>0.9999577421638124</v>
+        <v>-4.225783618760914E-05</v>
       </c>
       <c r="V253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W253">
-        <v>1.000634316523946</v>
+        <v>0.0006343165239455217</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19590,7 +19590,7 @@
         <v>1.02431430877249</v>
       </c>
       <c r="K254">
-        <v>50.60055665928762</v>
+        <v>0.00600556659287621</v>
       </c>
       <c r="L254">
         <v>-0.007350885988267308</v>
@@ -19620,13 +19620,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U254">
-        <v>0.9999366105670185</v>
+        <v>-6.338943298145328E-05</v>
       </c>
       <c r="V254">
-        <v>1.000105764145955</v>
+        <v>0.0001057641459545344</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19661,7 +19661,7 @@
         <v>0.9768486425902519</v>
       </c>
       <c r="K255">
-        <v>49.41443778469016</v>
+        <v>-0.005855622153098428</v>
       </c>
       <c r="L255">
         <v>-0.006364882895075421</v>
@@ -19691,13 +19691,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U255">
-        <v>0.9999154753980579</v>
+        <v>-8.4524601942082E-05</v>
       </c>
       <c r="V255">
-        <v>1.00006345177665</v>
+        <v>6.345177664979218E-05</v>
       </c>
       <c r="W255">
-        <v>0.9996830427892234</v>
+        <v>-0.000316957210776625</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19732,7 +19732,7 @@
         <v>1.025626501799379</v>
       </c>
       <c r="K256">
-        <v>50.63255742795167</v>
+        <v>0.006325574279516633</v>
       </c>
       <c r="L256">
         <v>-0.005272835139667311</v>
@@ -19762,13 +19762,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U256">
-        <v>0.9999577341265229</v>
+        <v>-4.226587347710975E-05</v>
       </c>
       <c r="V256">
-        <v>1.000105746251295</v>
+        <v>0.0001057462512952245</v>
       </c>
       <c r="W256">
-        <v>1.000317057704502</v>
+        <v>0.0003170577045021883</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19803,7 +19803,7 @@
         <v>0.9755374207843734</v>
       </c>
       <c r="K257">
-        <v>49.38086267163915</v>
+        <v>-0.006191373283608526</v>
       </c>
       <c r="L257">
         <v>-0.004282340728238483</v>
@@ -19833,13 +19833,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U257">
-        <v>0.9999471654250542</v>
+        <v>-5.283457494575927E-05</v>
       </c>
       <c r="V257">
-        <v>1.000169176112333</v>
+        <v>0.0001691761123332469</v>
       </c>
       <c r="W257">
-        <v>0.9996830427892234</v>
+        <v>-0.000316957210776625</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19874,7 +19874,7 @@
         <v>1.026945363485098</v>
       </c>
       <c r="K258">
-        <v>50.66467907745596</v>
+        <v>0.006646790774559652</v>
       </c>
       <c r="L258">
         <v>-0.003285437487991774</v>
@@ -19904,13 +19904,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U258">
-        <v>0.9999788650533655</v>
+        <v>-2.113494663447124E-05</v>
       </c>
       <c r="V258">
-        <v>0.9999365696887687</v>
+        <v>-6.343031123134946E-05</v>
       </c>
       <c r="W258">
-        <v>1.000317057704502</v>
+        <v>0.0003170577045021883</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19945,7 +19945,7 @@
         <v>0.9742264403053623</v>
       </c>
       <c r="K259">
-        <v>49.34724915114978</v>
+        <v>-0.006527508488502254</v>
       </c>
       <c r="L259">
         <v>-0.002451659895932907</v>
@@ -19975,13 +19975,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U259">
-        <v>0.9999365938200112</v>
+        <v>-6.340617998878972E-05</v>
       </c>
       <c r="V259">
-        <v>0.9999788552217028</v>
+        <v>-2.114477829717742E-05</v>
       </c>
       <c r="W259">
-        <v>0.9996830427892234</v>
+        <v>-0.000316957210776625</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -20016,7 +20016,7 @@
         <v>0.9242805890332636</v>
       </c>
       <c r="K260">
-        <v>48.03252676875005</v>
+        <v>-0.0196747323124995</v>
       </c>
       <c r="L260">
         <v>-0.001876379924183331</v>
@@ -20046,13 +20046,13 @@
         <v>0.078125</v>
       </c>
       <c r="U260">
-        <v>0.9999260214326476</v>
+        <v>-7.397856735236186E-05</v>
       </c>
       <c r="V260">
-        <v>0.9999788547745919</v>
+        <v>-2.114522540808128E-05</v>
       </c>
       <c r="W260">
-        <v>0.9996829422954979</v>
+        <v>-0.0003170577045020773</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -20087,7 +20087,7 @@
         <v>0.8769552912775906</v>
       </c>
       <c r="K261">
-        <v>46.72222590239067</v>
+        <v>-0.03277774097609332</v>
       </c>
       <c r="L261">
         <v>-0.001603006384924114</v>
@@ -20117,13 +20117,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U261">
-        <v>0.9999154468107595</v>
+        <v>-8.455318924049937E-05</v>
       </c>
       <c r="V261">
-        <v>1.000042291345076</v>
+        <v>4.229134507638399E-05</v>
       </c>
       <c r="W261">
-        <v>0.9996828417380272</v>
+        <v>-0.0003171582619727609</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20158,7 +20158,7 @@
         <v>0.930852455722873</v>
       </c>
       <c r="K262">
-        <v>48.20940372548457</v>
+        <v>-0.01790596274515432</v>
       </c>
       <c r="L262">
         <v>-0.001408667448581057</v>
@@ -20188,13 +20188,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U262">
-        <v>0.9999471497880706</v>
+        <v>-5.285021192935613E-05</v>
       </c>
       <c r="V262">
-        <v>1.000021144778297</v>
+        <v>2.114477829673334E-05</v>
       </c>
       <c r="W262">
-        <v>1.000317258883249</v>
+        <v>0.0003172588832487389</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20229,7 +20229,7 @@
         <v>0.930852455722873</v>
       </c>
       <c r="K263">
-        <v>48.20940372548457</v>
+        <v>-0.01790596274515432</v>
       </c>
       <c r="L263">
         <v>-0.001269466469322934</v>
@@ -20259,13 +20259,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U263">
-        <v>0.9999471469947779</v>
+        <v>-5.285300522206438E-05</v>
       </c>
       <c r="V263">
-        <v>1.00004228866241</v>
+        <v>4.228866240985063E-05</v>
       </c>
       <c r="W263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20300,7 +20300,7 @@
         <v>0.8315342541934803</v>
       </c>
       <c r="K264">
-        <v>45.40096655520363</v>
+        <v>-0.04599033444796369</v>
       </c>
       <c r="L264">
         <v>-0.00139885388147758</v>
@@ -20330,13 +20330,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U264">
-        <v>0.9999260018816665</v>
+        <v>-7.399811833352921E-05</v>
       </c>
       <c r="V264">
-        <v>0.9999788565629228</v>
+        <v>-2.114343707715349E-05</v>
       </c>
       <c r="W264">
-        <v>0.9993656834760546</v>
+        <v>-0.0006343165239454107</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20371,7 +20371,7 @@
         <v>0.8315342541934803</v>
       </c>
       <c r="K265">
-        <v>45.40096655520363</v>
+        <v>-0.04599033444796369</v>
       </c>
       <c r="L265">
         <v>-0.001677632191709295</v>
@@ -20401,13 +20401,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U265">
-        <v>0.9999471402896712</v>
+        <v>-5.285971032875647E-05</v>
       </c>
       <c r="V265">
-        <v>1.000021143884131</v>
+        <v>2.114388413132495E-05</v>
       </c>
       <c r="W265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20442,7 +20442,7 @@
         <v>0.8315342541934804</v>
       </c>
       <c r="K266">
-        <v>45.40096655520364</v>
+        <v>-0.04599033444796363</v>
       </c>
       <c r="L266">
         <v>-0.002023054367873234</v>
@@ -20472,13 +20472,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U266">
-        <v>0.9999259924935244</v>
+        <v>-7.400750647557075E-05</v>
       </c>
       <c r="V266">
-        <v>1.000063430311232</v>
+        <v>6.343031123168252E-05</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20513,7 +20513,7 @@
         <v>0.7395064333226956</v>
       </c>
       <c r="K267">
-        <v>42.51242876464314</v>
+        <v>-0.0748757123535686</v>
       </c>
       <c r="L267">
         <v>-0.002610433770043808</v>
@@ -20543,13 +20543,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U267">
-        <v>0.9999154137325804</v>
+        <v>-8.458626741958408E-05</v>
       </c>
       <c r="V267">
-        <v>0.9999154316158902</v>
+        <v>-8.456838410975109E-05</v>
       </c>
       <c r="W267">
-        <v>0.9993652808632179</v>
+        <v>-0.000634719136782147</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20584,7 +20584,7 @@
         <v>0.6295033855175166</v>
       </c>
       <c r="K268">
-        <v>38.63160955124936</v>
+        <v>-0.1136839044875064</v>
       </c>
       <c r="L268">
         <v>-0.003643927187607162</v>
@@ -20614,13 +20614,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U268">
-        <v>0.9999048323992809</v>
+        <v>-9.51676007191482E-05</v>
       </c>
       <c r="V268">
-        <v>0.9998097050428164</v>
+        <v>-0.0001902949571835899</v>
       </c>
       <c r="W268">
-        <v>0.9990473166084473</v>
+        <v>-0.0009526833915527444</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20655,7 +20655,7 @@
         <v>0.5982771030666127</v>
       </c>
       <c r="K269">
-        <v>37.43262679035438</v>
+        <v>-0.1256737320964562</v>
       </c>
       <c r="L269">
         <v>-0.004984130329567613</v>
@@ -20685,13 +20685,13 @@
         <v>-0.1031249999999773</v>
       </c>
       <c r="U269">
-        <v>0.9999471240786372</v>
+        <v>-5.287592136282715E-05</v>
       </c>
       <c r="V269">
-        <v>0.9997885209152815</v>
+        <v>-0.0002114790847185244</v>
       </c>
       <c r="W269">
-        <v>0.9996821360457724</v>
+        <v>-0.0003178639542276152</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20726,7 +20726,7 @@
         <v>0.9115695023497979</v>
       </c>
       <c r="K270">
-        <v>47.68696619344735</v>
+        <v>-0.02313033806552656</v>
       </c>
       <c r="L270">
         <v>-0.005713809692357092</v>
@@ -20756,13 +20756,13 @@
         <v>-0.1031249999999773</v>
       </c>
       <c r="U270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V270">
-        <v>0.9999365428547256</v>
+        <v>-6.345714527444812E-05</v>
       </c>
       <c r="W270">
-        <v>1.001907790143084</v>
+        <v>0.001907790143084398</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20797,7 +20797,7 @@
         <v>0.9665330811713886</v>
       </c>
       <c r="K271">
-        <v>49.1490883334473</v>
+        <v>-0.008509116665527061</v>
       </c>
       <c r="L271">
         <v>-0.00589082142756593</v>
@@ -20827,13 +20827,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U271">
-        <v>1.000021151486949</v>
+        <v>2.115148694947777E-05</v>
       </c>
       <c r="V271">
-        <v>0.9999365388276605</v>
+        <v>-6.346117233946291E-05</v>
       </c>
       <c r="W271">
-        <v>1.000317359568391</v>
+        <v>0.0003173595683909625</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20868,7 +20868,7 @@
         <v>1.024389479930991</v>
       </c>
       <c r="K272">
-        <v>50.60239099671231</v>
+        <v>0.006023909967123098</v>
       </c>
       <c r="L272">
         <v>-0.00558474021097191</v>
@@ -20898,13 +20898,13 @@
         <v>-0.08437499999996589</v>
       </c>
       <c r="U272">
-        <v>1.000074028638507</v>
+        <v>7.402863850747288E-05</v>
       </c>
       <c r="V272">
-        <v>0.9999788449333615</v>
+        <v>-2.115506663846745E-05</v>
       </c>
       <c r="W272">
-        <v>1.000317258883249</v>
+        <v>0.0003172588832487389</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20939,7 +20939,7 @@
         <v>0.9655839930491583</v>
       </c>
       <c r="K273">
-        <v>49.12453481834035</v>
+        <v>-0.008754651816596515</v>
       </c>
       <c r="L273">
         <v>-0.005100598292865476</v>
@@ -20969,13 +20969,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U273">
-        <v>0.9999365515782795</v>
+        <v>-6.344842172045784E-05</v>
       </c>
       <c r="V273">
-        <v>0.9999365334574457</v>
+        <v>-6.346654255429129E-05</v>
       </c>
       <c r="W273">
-        <v>0.9996828417380272</v>
+        <v>-0.0003171582619727609</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -21010,7 +21010,7 @@
         <v>0.9105617204934685</v>
       </c>
       <c r="K274">
-        <v>47.65937214832738</v>
+        <v>-0.02340627851672622</v>
       </c>
       <c r="L274">
         <v>-0.004636343075081804</v>
@@ -21040,13 +21040,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U274">
-        <v>0.9999576983682146</v>
+        <v>-4.230163178542412E-05</v>
       </c>
       <c r="V274">
-        <v>0.9999365294291881</v>
+        <v>-6.347057081190766E-05</v>
       </c>
       <c r="W274">
-        <v>0.9996827411167514</v>
+        <v>-0.0003172588832486278</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -21081,7 +21081,7 @@
         <v>0.8590346398246583</v>
       </c>
       <c r="K275">
-        <v>46.20864084090877</v>
+        <v>-0.03791359159091229</v>
       </c>
       <c r="L275">
         <v>-0.004312351976141441</v>
@@ -21111,13 +21111,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U275">
-        <v>0.9999576965787108</v>
+        <v>-4.230342128919151E-05</v>
       </c>
       <c r="V275">
-        <v>0.9999365254004188</v>
+        <v>-6.347459958122581E-05</v>
       </c>
       <c r="W275">
-        <v>0.9996826404316089</v>
+        <v>-0.0003173595683910735</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21152,7 +21152,7 @@
         <v>0.8590346398246583</v>
       </c>
       <c r="K276">
-        <v>46.20864084090877</v>
+        <v>-0.03791359159091229</v>
       </c>
       <c r="L276">
         <v>-0.00407829465902091</v>
@@ -21182,13 +21182,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V276">
-        <v>0.9999576809140923</v>
+        <v>-4.231908590768274E-05</v>
       </c>
       <c r="W276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21223,7 +21223,7 @@
         <v>0.9217362853118485</v>
       </c>
       <c r="K277">
-        <v>47.96372386559139</v>
+        <v>-0.0203627613440861</v>
       </c>
       <c r="L277">
         <v>-0.00378326975183099</v>
@@ -21253,13 +21253,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U277">
-        <v>0.999989423697264</v>
+        <v>-1.057630273604282E-05</v>
       </c>
       <c r="V277">
-        <v>0.9999576791231115</v>
+        <v>-4.232087688849084E-05</v>
       </c>
       <c r="W277">
-        <v>1.00031746031746</v>
+        <v>0.000317460317460494</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21294,7 +21294,7 @@
         <v>0.864666780140363</v>
       </c>
       <c r="K278">
-        <v>46.37111516918187</v>
+        <v>-0.0362888483081813</v>
       </c>
       <c r="L278">
         <v>-0.003571857217352931</v>
@@ -21324,13 +21324,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U278">
-        <v>0.9999894235854043</v>
+        <v>-1.057641459567549E-05</v>
       </c>
       <c r="V278">
-        <v>0.9999365159979686</v>
+        <v>-6.348400203137761E-05</v>
       </c>
       <c r="W278">
-        <v>0.9996826404316089</v>
+        <v>-0.0003173595683910735</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21365,7 +21365,7 @@
         <v>0.9298406962546467</v>
       </c>
       <c r="K279">
-        <v>48.18225141895092</v>
+        <v>-0.01817748581049083</v>
       </c>
       <c r="L279">
         <v>-0.00329603776591237</v>
@@ -21395,13 +21395,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U279">
-        <v>0.999989423473543</v>
+        <v>-1.057652645697349E-05</v>
       </c>
       <c r="V279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W279">
-        <v>1.00031746031746</v>
+        <v>0.000317460317460494</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21436,7 +21436,7 @@
         <v>0.7711321611482487</v>
       </c>
       <c r="K280">
-        <v>43.53893955876863</v>
+        <v>-0.0646106044123137</v>
       </c>
       <c r="L280">
         <v>-0.003333384662397496</v>
@@ -21466,13 +21466,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U280">
-        <v>0.9999788467233575</v>
+        <v>-2.115327664253819E-05</v>
       </c>
       <c r="V280">
-        <v>0.999936511967494</v>
+        <v>-6.348803250599833E-05</v>
       </c>
       <c r="W280">
-        <v>0.999047921294827</v>
+        <v>-0.0009520787051729984</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21507,7 +21507,7 @@
         <v>0.8909101091877152</v>
       </c>
       <c r="K281">
-        <v>47.1154130944081</v>
+        <v>-0.02884586905591902</v>
       </c>
       <c r="L281">
         <v>-0.003314884799121921</v>
@@ -21537,13 +21537,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U281">
-        <v>1.000021153724113</v>
+        <v>2.115372411282124E-05</v>
       </c>
       <c r="V281">
-        <v>0.9999788359788359</v>
+        <v>-2.116402116414395E-05</v>
       </c>
       <c r="W281">
-        <v>1.000635324015248</v>
+        <v>0.0006353240152476847</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21578,7 +21578,7 @@
         <v>0.9539511344716629</v>
       </c>
       <c r="K282">
-        <v>48.82164746303166</v>
+        <v>-0.01178352536968341</v>
       </c>
       <c r="L282">
         <v>-0.003136114080134748</v>
@@ -21608,13 +21608,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U282">
-        <v>0.9999788467233577</v>
+        <v>-2.115327664231614E-05</v>
       </c>
       <c r="V282">
-        <v>1.000042328938179</v>
+        <v>4.232893817901484E-05</v>
       </c>
       <c r="W282">
-        <v>1.00031746031746</v>
+        <v>0.000317460317460494</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21649,7 +21649,7 @@
         <v>1.285746004387102</v>
       </c>
       <c r="K283">
-        <v>56.2506071067971</v>
+        <v>0.06250607106797101</v>
       </c>
       <c r="L283">
         <v>-0.002282453062078471</v>
@@ -21679,13 +21679,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U283">
-        <v>1.000010576862057</v>
+        <v>1.057686205663266E-05</v>
       </c>
       <c r="V283">
-        <v>1.000211635732577</v>
+        <v>0.0002116357325769869</v>
       </c>
       <c r="W283">
-        <v>1.001586797841955</v>
+        <v>0.001586797841955034</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21720,7 +21720,7 @@
         <v>1.128141180685287</v>
       </c>
       <c r="K284">
-        <v>53.01063627376508</v>
+        <v>0.03010636273765077</v>
       </c>
       <c r="L284">
         <v>-0.001297062346324427</v>
@@ -21750,13 +21750,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U284">
-        <v>0.9999894232498123</v>
+        <v>-1.057675018767412E-05</v>
       </c>
       <c r="V284">
-        <v>1.000190431857134</v>
+        <v>0.0001904318571335217</v>
       </c>
       <c r="W284">
-        <v>0.9993662864385296</v>
+        <v>-0.0006337135614703504</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21791,7 +21791,7 @@
         <v>1.128141180685287</v>
       </c>
       <c r="K285">
-        <v>53.01063627376507</v>
+        <v>0.03010636273765077</v>
       </c>
       <c r="L285">
         <v>-0.000289930428422247</v>
@@ -21821,13 +21821,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V285">
-        <v>1.000063465199915</v>
+        <v>6.346519991540234E-05</v>
       </c>
       <c r="W285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21862,7 +21862,7 @@
         <v>1.263962239438149</v>
       </c>
       <c r="K286">
-        <v>55.8296519888878</v>
+        <v>0.05829651988887796</v>
       </c>
       <c r="L286">
         <v>0.0008983500734554619</v>
@@ -21892,13 +21892,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U286">
-        <v>1.000010576862057</v>
+        <v>1.057686205663266E-05</v>
       </c>
       <c r="V286">
-        <v>1.000084614896452</v>
+        <v>8.461489645239517E-05</v>
       </c>
       <c r="W286">
-        <v>1.000634115409005</v>
+        <v>0.0006341154090045986</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21933,7 +21933,7 @@
         <v>1.406931774967437</v>
       </c>
       <c r="K287">
-        <v>58.45333006941883</v>
+        <v>0.0845333006941883</v>
       </c>
       <c r="L287">
         <v>0.002348461681618427</v>
@@ -21963,13 +21963,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U287">
-        <v>1.000042307000751</v>
+        <v>4.230700075091853E-05</v>
       </c>
       <c r="V287">
-        <v>1.000105759671722</v>
+        <v>0.0001057596717219944</v>
       </c>
       <c r="W287">
-        <v>1.00063371356147</v>
+        <v>0.0006337135614702394</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -22004,7 +22004,7 @@
         <v>1.30847294878801</v>
       </c>
       <c r="K288">
-        <v>56.68132041464821</v>
+        <v>0.06681320414648217</v>
       </c>
       <c r="L288">
         <v>0.003740616340350829</v>
@@ -22034,13 +22034,13 @@
         <v>0.1031249999999773</v>
       </c>
       <c r="U288">
-        <v>1.000021152605472</v>
+        <v>2.115260547208564E-05</v>
       </c>
       <c r="V288">
-        <v>1.000105748487796</v>
+        <v>0.000105748487796431</v>
       </c>
       <c r="W288">
-        <v>0.999683343888537</v>
+        <v>-0.0003166561114630317</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -22075,7 +22075,7 @@
         <v>1.308472948788009</v>
       </c>
       <c r="K289">
-        <v>56.6813204146482</v>
+        <v>0.06681320414648195</v>
       </c>
       <c r="L289">
         <v>0.004995239656364405</v>
@@ -22105,13 +22105,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U289">
-        <v>1.000031728237073</v>
+        <v>3.172823707342509E-05</v>
       </c>
       <c r="V289">
-        <v>1.000126884767484</v>
+        <v>0.0001268847674837925</v>
       </c>
       <c r="W289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22146,7 +22146,7 @@
         <v>1.386014485781798</v>
       </c>
       <c r="K290">
-        <v>58.08910608217278</v>
+        <v>0.08089106082172781</v>
       </c>
       <c r="L290">
         <v>0.006183857133189934</v>
@@ -22176,13 +22176,13 @@
         <v>0.1531249999999886</v>
       </c>
       <c r="U290">
-        <v>1.000052878717374</v>
+        <v>5.287871737369443E-05</v>
       </c>
       <c r="V290">
-        <v>1.000169158226376</v>
+        <v>0.0001691582263760871</v>
       </c>
       <c r="W290">
-        <v>1.000316756414317</v>
+        <v>0.0003167564143173873</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22217,7 +22217,7 @@
         <v>1.191506586687221</v>
       </c>
       <c r="K291">
-        <v>54.36929069368463</v>
+        <v>0.04369290693684635</v>
       </c>
       <c r="L291">
         <v>0.007003048501942304</v>
@@ -22247,13 +22247,13 @@
         <v>0.1343749999999773</v>
       </c>
       <c r="U291">
-        <v>1.00004230073709</v>
+        <v>4.230073709021731E-05</v>
       </c>
       <c r="V291">
-        <v>1.000126847212533</v>
+        <v>0.0001268472125326436</v>
       </c>
       <c r="W291">
-        <v>0.9993666877770742</v>
+        <v>-0.0006333122229258414</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22288,7 +22288,7 @@
         <v>1.038148909929283</v>
       </c>
       <c r="K292">
-        <v>50.93587150927572</v>
+        <v>0.009358715092757208</v>
       </c>
       <c r="L292">
         <v>0.007289633840339271</v>
@@ -22318,13 +22318,13 @@
         <v>0.1218749999999886</v>
       </c>
       <c r="U292">
-        <v>1.000010574736954</v>
+        <v>1.057473695365019E-05</v>
       </c>
       <c r="V292">
-        <v>1.000063415562179</v>
+        <v>6.341556217881461E-05</v>
       </c>
       <c r="W292">
-        <v>0.9993662864385296</v>
+        <v>-0.0006337135614703504</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22359,7 +22359,7 @@
         <v>1.105890513388746</v>
       </c>
       <c r="K293">
-        <v>52.51415049157399</v>
+        <v>0.02514150491573985</v>
       </c>
       <c r="L293">
         <v>0.007324298087861999</v>
@@ -22389,13 +22389,13 @@
         <v>0.1156250000000227</v>
       </c>
       <c r="U293">
-        <v>1.000021149250259</v>
+        <v>2.114925025908931E-05</v>
       </c>
       <c r="V293">
-        <v>1.000105685901501</v>
+        <v>0.0001056859015007294</v>
       </c>
       <c r="W293">
-        <v>1.000317057704502</v>
+        <v>0.0003170577045021883</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22430,7 +22430,7 @@
         <v>1.177197464398707</v>
       </c>
       <c r="K294">
-        <v>54.0693935046366</v>
+        <v>0.04069393504636598</v>
       </c>
       <c r="L294">
         <v>0.007292981485629433</v>
@@ -22460,13 +22460,13 @@
         <v>0.09687499999998295</v>
       </c>
       <c r="U294">
-        <v>1.000052872007444</v>
+        <v>5.287200744441556E-05</v>
       </c>
       <c r="V294">
-        <v>1.000105674733171</v>
+        <v>0.000105674733171135</v>
       </c>
       <c r="W294">
-        <v>1.000316957210777</v>
+        <v>0.000316957210776625</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22501,7 +22501,7 @@
         <v>0.9053695095926895</v>
       </c>
       <c r="K295">
-        <v>47.51674176764958</v>
+        <v>-0.02483258232350416</v>
       </c>
       <c r="L295">
         <v>0.006735109692203519</v>
@@ -22531,13 +22531,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U295">
-        <v>1.000010573842428</v>
+        <v>1.05738424283075E-05</v>
       </c>
       <c r="V295">
-        <v>1.000084530853762</v>
+        <v>8.453085376181058E-05</v>
       </c>
       <c r="W295">
-        <v>0.9987325728770594</v>
+        <v>-0.00126742712294059</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22572,7 +22572,7 @@
         <v>0.9053695095926895</v>
       </c>
       <c r="K296">
-        <v>47.51674176764958</v>
+        <v>-0.02483258232350416</v>
       </c>
       <c r="L296">
         <v>0.005869360170842433</v>
@@ -22602,13 +22602,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U296">
-        <v>1.000010573730624</v>
+        <v>1.057373062351985E-05</v>
       </c>
       <c r="V296">
-        <v>1.00004226185445</v>
+        <v>4.226185445022068E-05</v>
       </c>
       <c r="W296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22643,7 +22643,7 @@
         <v>0.7596064442190547</v>
       </c>
       <c r="K297">
-        <v>43.16911015611686</v>
+        <v>-0.06830889843883142</v>
       </c>
       <c r="L297">
         <v>0.004504497101584446</v>
@@ -22673,13 +22673,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V297">
-        <v>0.9999577399315384</v>
+        <v>-4.226006846164143E-05</v>
       </c>
       <c r="W297">
-        <v>0.9990482233502538</v>
+        <v>-0.0009517766497462166</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22714,7 +22714,7 @@
         <v>0.7596064442190547</v>
       </c>
       <c r="K298">
-        <v>43.16911015611686</v>
+        <v>-0.06830889843883142</v>
       </c>
       <c r="L298">
         <v>0.002907923836914272</v>
@@ -22744,13 +22744,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U298">
-        <v>1.000031720856463</v>
+        <v>3.172085646307998E-05</v>
       </c>
       <c r="V298">
-        <v>0.9998520835094246</v>
+        <v>-0.0001479164905754393</v>
       </c>
       <c r="W298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22785,7 +22785,7 @@
         <v>0.7596064442190547</v>
       </c>
       <c r="K299">
-        <v>43.16911015611686</v>
+        <v>-0.06830889843883142</v>
       </c>
       <c r="L299">
         <v>0.001262154883392866</v>
@@ -22815,13 +22815,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U299">
-        <v>1.00004229313371</v>
+        <v>4.229313370984755E-05</v>
       </c>
       <c r="V299">
-        <v>0.9998943297334995</v>
+        <v>-0.000105670266500546</v>
       </c>
       <c r="W299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22856,7 +22856,7 @@
         <v>0.7596064442190547</v>
       </c>
       <c r="K300">
-        <v>43.16911015611686</v>
+        <v>-0.06830889843883142</v>
       </c>
       <c r="L300">
         <v>-0.0003131569564902281</v>
@@ -22886,13 +22886,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U300">
-        <v>0.9999788543274617</v>
+        <v>-2.114567253830302E-05</v>
       </c>
       <c r="V300">
-        <v>0.9998943185661144</v>
+        <v>-0.0001056814338855627</v>
       </c>
       <c r="W300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22927,7 +22927,7 @@
         <v>1.023158218177998</v>
       </c>
       <c r="K301">
-        <v>50.57232840145477</v>
+        <v>0.005723284014547692</v>
       </c>
       <c r="L301">
         <v>-0.00128239758489546</v>
@@ -22957,13 +22957,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U301">
-        <v>1.000010573059844</v>
+        <v>1.057305984364376E-05</v>
       </c>
       <c r="V301">
-        <v>0.999936584437821</v>
+        <v>-6.341556217903666E-05</v>
       </c>
       <c r="W301">
-        <v>1.001270244522071</v>
+        <v>0.001270244522070696</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22998,7 +22998,7 @@
         <v>1.300581138134741</v>
       </c>
       <c r="K302">
-        <v>56.53272195342881</v>
+        <v>0.06532721953428811</v>
       </c>
       <c r="L302">
         <v>-0.001356147330225179</v>
@@ -23028,13 +23028,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U302">
-        <v>1.00004229179222</v>
+        <v>4.229179222048352E-05</v>
       </c>
       <c r="V302">
-        <v>0.9999788601386775</v>
+        <v>-2.113986132246115E-05</v>
       </c>
       <c r="W302">
-        <v>1.001268633047891</v>
+        <v>0.001268633047890821</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -23069,7 +23069,7 @@
         <v>1.006622950524296</v>
       </c>
       <c r="K303">
-        <v>50.16502727935425</v>
+        <v>0.001650272793542462</v>
       </c>
       <c r="L303">
         <v>-0.001339646190379719</v>
@@ -23099,13 +23099,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U303">
-        <v>1.000010572500925</v>
+        <v>1.05725009251767E-05</v>
       </c>
       <c r="V303">
-        <v>0.9999154387670973</v>
+        <v>-8.456123290268014E-05</v>
       </c>
       <c r="W303">
-        <v>0.9987329743427306</v>
+        <v>-0.001267025657269438</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23140,7 +23140,7 @@
         <v>0.9501111766080901</v>
       </c>
       <c r="K304">
-        <v>48.72087232793866</v>
+        <v>-0.01279127672061336</v>
       </c>
       <c r="L304">
         <v>-0.00138012136318338</v>
@@ -23170,13 +23170,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U304">
-        <v>1.000010572389149</v>
+        <v>1.057238914858871E-05</v>
       </c>
       <c r="V304">
-        <v>0.9998942895198629</v>
+        <v>-0.0001057104801370778</v>
       </c>
       <c r="W304">
-        <v>0.9996828417380272</v>
+        <v>-0.0003171582619727609</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23211,7 +23211,7 @@
         <v>0.8070364536043905</v>
       </c>
       <c r="K305">
-        <v>44.66077327851588</v>
+        <v>-0.05339226721484125</v>
       </c>
       <c r="L305">
         <v>-0.00179396186504179</v>
@@ -23241,13 +23241,13 @@
         <v>-0.06562500000003979</v>
       </c>
       <c r="U305">
-        <v>0.9999894277226258</v>
+        <v>-1.057227737422117E-05</v>
       </c>
       <c r="V305">
-        <v>0.9998097010191569</v>
+        <v>-0.0001902989808431066</v>
       </c>
       <c r="W305">
-        <v>0.9990482233502538</v>
+        <v>-0.0009517766497462166</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23282,7 +23282,7 @@
         <v>0.9127117859870926</v>
       </c>
       <c r="K306">
-        <v>47.71820786977948</v>
+        <v>-0.02281792130220517</v>
       </c>
       <c r="L306">
         <v>-0.002170147460668311</v>
@@ -23312,13 +23312,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U306">
-        <v>1.000010572389149</v>
+        <v>1.057238914858871E-05</v>
       </c>
       <c r="V306">
-        <v>0.999894258221423</v>
+        <v>-0.0001057417785770287</v>
       </c>
       <c r="W306">
-        <v>1.000635122261035</v>
+        <v>0.000635122261035459</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23353,7 +23353,7 @@
         <v>0.8646226861230516</v>
       </c>
       <c r="K307">
-        <v>46.36984696999405</v>
+        <v>-0.0363015303000595</v>
       </c>
       <c r="L307">
         <v>-0.00260714569875541</v>
@@ -23383,13 +23383,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U307">
-        <v>0.9999894277226258</v>
+        <v>-1.057227737422117E-05</v>
       </c>
       <c r="V307">
-        <v>0.9999153976311338</v>
+        <v>-8.460236886620454E-05</v>
       </c>
       <c r="W307">
-        <v>0.9996826404316089</v>
+        <v>-0.0003173595683910735</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23424,7 +23424,7 @@
         <v>0.7782925809039368</v>
       </c>
       <c r="K308">
-        <v>43.7662839772023</v>
+        <v>-0.06233716022797703</v>
       </c>
       <c r="L308">
         <v>-0.003274647651491536</v>
@@ -23454,13 +23454,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U308">
-        <v>0.9999788552217028</v>
+        <v>-2.114477829717742E-05</v>
       </c>
       <c r="V308">
-        <v>0.9998519333276928</v>
+        <v>-0.0001480666723071566</v>
       </c>
       <c r="W308">
-        <v>0.9993650793650795</v>
+        <v>-0.0006349206349205438</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23495,7 +23495,7 @@
         <v>0.8308437089427693</v>
       </c>
       <c r="K309">
-        <v>45.3803732609456</v>
+        <v>-0.04619626739054394</v>
       </c>
       <c r="L309">
         <v>-0.003911889727226748</v>
@@ -23525,13 +23525,13 @@
         <v>0</v>
       </c>
       <c r="U309">
-        <v>0.9999788547745919</v>
+        <v>-2.114522540808128E-05</v>
       </c>
       <c r="V309">
-        <v>0.9998519114007065</v>
+        <v>-0.0001480885992934944</v>
       </c>
       <c r="W309">
-        <v>1.000317662007624</v>
+        <v>0.0003176620076237313</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23566,7 +23566,7 @@
         <v>0.8308437089427693</v>
       </c>
       <c r="K310">
-        <v>45.3803732609456</v>
+        <v>-0.04619626739054394</v>
       </c>
       <c r="L310">
         <v>-0.004475985623766764</v>
@@ -23596,13 +23596,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U310">
-        <v>1.000010572836269</v>
+        <v>1.057283626915151E-05</v>
       </c>
       <c r="V310">
-        <v>0.9999365240573823</v>
+        <v>-6.347594261768563E-05</v>
       </c>
       <c r="W310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23637,7 +23637,7 @@
         <v>0.9473005023806911</v>
       </c>
       <c r="K311">
-        <v>48.6468575970971</v>
+        <v>-0.01353142402902902</v>
       </c>
       <c r="L311">
         <v>-0.004712550315221375</v>
@@ -23667,13 +23667,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U311">
-        <v>1.000010572724485</v>
+        <v>1.05727244854581E-05</v>
       </c>
       <c r="V311">
-        <v>0.9999788400093104</v>
+        <v>-2.115999068963426E-05</v>
       </c>
       <c r="W311">
-        <v>1.000635122261035</v>
+        <v>0.000635122261035459</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23708,7 +23708,7 @@
         <v>0.9473005023806909</v>
       </c>
       <c r="K312">
-        <v>48.64685759709709</v>
+        <v>-0.01353142402902913</v>
       </c>
       <c r="L312">
         <v>-0.00471844423867738</v>
@@ -23738,13 +23738,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V312">
-        <v>1.000042320876888</v>
+        <v>4.232087688849084E-05</v>
       </c>
       <c r="W312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23779,7 +23779,7 @@
         <v>1.269895498053532</v>
       </c>
       <c r="K313">
-        <v>55.94510844849402</v>
+        <v>0.05945108448494019</v>
       </c>
       <c r="L313">
         <v>-0.003989448168152436</v>
@@ -23809,13 +23809,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V313">
-        <v>1.000148116800677</v>
+        <v>0.0001481168006771671</v>
       </c>
       <c r="W313">
-        <v>1.001586797841955</v>
+        <v>0.001586797841955034</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23850,7 +23850,7 @@
         <v>1.337810233984633</v>
       </c>
       <c r="K314">
-        <v>57.22492846241115</v>
+        <v>0.07224928462411151</v>
       </c>
       <c r="L314">
         <v>-0.002731548813243004</v>
@@ -23880,13 +23880,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U314">
-        <v>1.000031717838112</v>
+        <v>3.171783811239948E-05</v>
       </c>
       <c r="V314">
-        <v>1.000169251274674</v>
+        <v>0.0001692512746735986</v>
       </c>
       <c r="W314">
-        <v>1.000316856780735</v>
+        <v>0.0003168567807350087</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23921,7 +23921,7 @@
         <v>1.337810233984633</v>
       </c>
       <c r="K315">
-        <v>57.22492846241115</v>
+        <v>0.07224928462411151</v>
       </c>
       <c r="L315">
         <v>-0.001223377490536297</v>
@@ -23951,13 +23951,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U315">
-        <v>1.000031716832123</v>
+        <v>3.171683212288556E-05</v>
       </c>
       <c r="V315">
-        <v>1.000169222633527</v>
+        <v>0.0001692226335272551</v>
       </c>
       <c r="W315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23992,7 +23992,7 @@
         <v>1.244183225446047</v>
       </c>
       <c r="K316">
-        <v>55.4403584938461</v>
+        <v>0.05440358493846098</v>
       </c>
       <c r="L316">
         <v>0.0002292422652792298</v>
@@ -24022,13 +24022,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V316">
-        <v>1.000063447750777</v>
+        <v>6.344775077726794E-05</v>
       </c>
       <c r="W316">
-        <v>0.9996832435856827</v>
+        <v>-0.0003167564143172763</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -24063,7 +24063,7 @@
         <v>1.08440918710219</v>
       </c>
       <c r="K317">
-        <v>52.02477487684503</v>
+        <v>0.02024774876845026</v>
       </c>
       <c r="L317">
         <v>0.001323722622057566</v>
@@ -24093,13 +24093,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U317">
-        <v>0.999957712231737</v>
+        <v>-4.228776826298297E-05</v>
       </c>
       <c r="V317">
-        <v>0.9999365562745846</v>
+        <v>-6.344372541544629E-05</v>
       </c>
       <c r="W317">
-        <v>0.9993662864385296</v>
+        <v>-0.0006337135614703504</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24134,7 +24134,7 @@
         <v>1.01575644975767</v>
       </c>
       <c r="K318">
-        <v>50.39083218013675</v>
+        <v>0.003908321801367465</v>
       </c>
       <c r="L318">
         <v>0.002011112182919168</v>
@@ -24164,13 +24164,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U318">
-        <v>0.9999577104434061</v>
+        <v>-4.228955659391076E-05</v>
       </c>
       <c r="V318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W318">
-        <v>0.9996829422954979</v>
+        <v>-0.0003170577045020773</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24205,7 +24205,7 @@
         <v>1.14903831451788</v>
       </c>
       <c r="K319">
-        <v>53.46755833786322</v>
+        <v>0.03467558337863219</v>
       </c>
       <c r="L319">
         <v>0.002631776703083616</v>
@@ -24235,13 +24235,13 @@
         <v>0.125</v>
       </c>
       <c r="U319">
-        <v>0.9999788543274617</v>
+        <v>-2.114567253830302E-05</v>
       </c>
       <c r="V319">
-        <v>1.000063447750777</v>
+        <v>6.344775077726794E-05</v>
       </c>
       <c r="W319">
-        <v>1.000634316523946</v>
+        <v>0.0006343165239455217</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24276,7 +24276,7 @@
         <v>1.007666087933277</v>
       </c>
       <c r="K320">
-        <v>50.19092039207497</v>
+        <v>0.001909203920749669</v>
       </c>
       <c r="L320">
         <v>0.002931826664556237</v>
@@ -24306,13 +24306,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U320">
-        <v>0.9999471347007824</v>
+        <v>-5.286529921755267E-05</v>
       </c>
       <c r="V320">
-        <v>1.000084591633887</v>
+        <v>8.459163388740976E-05</v>
       </c>
       <c r="W320">
-        <v>0.999366085578447</v>
+        <v>-0.0006339144215530279</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24347,7 +24347,7 @@
         <v>0.9463826982704271</v>
       </c>
       <c r="K321">
-        <v>48.62264235658235</v>
+        <v>-0.01377357643417654</v>
       </c>
       <c r="L321">
         <v>0.002892334572622563</v>
@@ -24377,13 +24377,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U321">
-        <v>0.9999577055247157</v>
+        <v>-4.229447528425467E-05</v>
       </c>
       <c r="V321">
-        <v>1.000021146119687</v>
+        <v>2.114611968728752E-05</v>
       </c>
       <c r="W321">
-        <v>0.9996828417380272</v>
+        <v>-0.0003171582619727609</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24418,7 +24418,7 @@
         <v>0.9463826982704271</v>
       </c>
       <c r="K322">
-        <v>48.62264235658235</v>
+        <v>-0.01377357643417654</v>
       </c>
       <c r="L322">
         <v>0.002639143243404325</v>
@@ -24448,13 +24448,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U322">
-        <v>0.9999788518679088</v>
+        <v>-2.11481320911977E-05</v>
       </c>
       <c r="V322">
-        <v>1.000042291345076</v>
+        <v>4.229134507616195E-05</v>
       </c>
       <c r="W322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24489,7 +24489,7 @@
         <v>0.8866346626884775</v>
       </c>
       <c r="K323">
-        <v>46.99556730421841</v>
+        <v>-0.03004432695781589</v>
       </c>
       <c r="L323">
         <v>0.002147520938481098</v>
@@ -24519,13 +24519,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U323">
-        <v>0.9999577028413117</v>
+        <v>-4.229715868830919E-05</v>
       </c>
       <c r="V323">
-        <v>1.000063434334891</v>
+        <v>6.343433489086614E-05</v>
       </c>
       <c r="W323">
-        <v>0.9996827411167514</v>
+        <v>-0.0003172588832486278</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24560,7 +24560,7 @@
         <v>0.9530905152189297</v>
       </c>
       <c r="K324">
-        <v>48.79909598619366</v>
+        <v>-0.01200904013806342</v>
       </c>
       <c r="L324">
         <v>0.001650483195851179</v>
@@ -24590,13 +24590,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U324">
-        <v>0.9999577010521862</v>
+        <v>-4.22989478138236E-05</v>
       </c>
       <c r="V324">
-        <v>1.000063430311231</v>
+        <v>6.343031123123843E-05</v>
       </c>
       <c r="W324">
-        <v>1.000317359568391</v>
+        <v>0.0003173595683909625</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24631,7 +24631,7 @@
         <v>1.023044044198393</v>
       </c>
       <c r="K325">
-        <v>50.56953886556444</v>
+        <v>0.00569538865564434</v>
       </c>
       <c r="L325">
         <v>0.001291333382428508</v>
@@ -24661,13 +24661,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U325">
-        <v>1.000010575184273</v>
+        <v>1.057518427294291E-05</v>
       </c>
       <c r="V325">
-        <v>1.00008456838411</v>
+        <v>8.456838410975109E-05</v>
       </c>
       <c r="W325">
-        <v>1.000317258883249</v>
+        <v>0.0003172588832487389</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24702,7 +24702,7 @@
         <v>1.61212639349901</v>
       </c>
       <c r="K326">
-        <v>61.71701329274215</v>
+        <v>0.1171701329274215</v>
       </c>
       <c r="L326">
         <v>0.00195790919995095</v>
@@ -24732,13 +24732,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U326">
-        <v>1.000095175651953</v>
+        <v>9.517565195316102E-05</v>
       </c>
       <c r="V326">
-        <v>1.000211403082257</v>
+        <v>0.0002114030822566448</v>
       </c>
       <c r="W326">
-        <v>1.002537266095782</v>
+        <v>0.002537266095781865</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24773,7 +24773,7 @@
         <v>1.844658899801847</v>
       </c>
       <c r="K327">
-        <v>64.84640038671569</v>
+        <v>0.1484640038671569</v>
       </c>
       <c r="L327">
         <v>0.003542731321987165</v>
@@ -24803,13 +24803,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U327">
-        <v>1.000158610990684</v>
+        <v>0.0001586109906843713</v>
       </c>
       <c r="V327">
-        <v>1.000274765920572</v>
+        <v>0.0002747659205717401</v>
       </c>
       <c r="W327">
-        <v>1.000949066751028</v>
+        <v>0.0009490667510279049</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24844,7 +24844,7 @@
         <v>1.926249252890593</v>
       </c>
       <c r="K328">
-        <v>65.82656111702771</v>
+        <v>0.158265611170277</v>
       </c>
       <c r="L328">
         <v>0.005685315224475875</v>
@@ -24874,13 +24874,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U328">
-        <v>1.000169158226376</v>
+        <v>0.0001691582263760871</v>
       </c>
       <c r="V328">
-        <v>1.000190170308076</v>
+        <v>0.0001901703080757766</v>
       </c>
       <c r="W328">
-        <v>1.00031605562579</v>
+        <v>0.0003160556257901792</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24915,7 +24915,7 @@
         <v>1.531621289328837</v>
       </c>
       <c r="K329">
-        <v>60.49962116311988</v>
+        <v>0.1049962116311988</v>
       </c>
       <c r="L329">
         <v>0.007661855389681878</v>
@@ -24945,13 +24945,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U329">
-        <v>1.000137417813577</v>
+        <v>0.000137417813576679</v>
       </c>
       <c r="V329">
-        <v>1.000105630083448</v>
+        <v>0.0001056300834478829</v>
       </c>
       <c r="W329">
-        <v>0.9990521327014218</v>
+        <v>-0.0009478672985782088</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24986,7 +24986,7 @@
         <v>1.428906203195241</v>
       </c>
       <c r="K330">
-        <v>58.82920473896876</v>
+        <v>0.08829204738968766</v>
       </c>
       <c r="L330">
         <v>0.009268248769631776</v>
@@ -25016,13 +25016,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U330">
-        <v>1.000126829783861</v>
+        <v>0.0001268297838608046</v>
       </c>
       <c r="V330">
-        <v>1.00008449514153</v>
+        <v>8.449514152952808E-05</v>
       </c>
       <c r="W330">
-        <v>0.9996837444655282</v>
+        <v>-0.0003162555344717877</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -25057,7 +25057,7 @@
         <v>1.428906203195242</v>
       </c>
       <c r="K331">
-        <v>58.82920473896878</v>
+        <v>0.08829204738968777</v>
       </c>
       <c r="L331">
         <v>0.01051411086953909</v>
@@ -25087,13 +25087,13 @@
         <v>0.1656249999999773</v>
       </c>
       <c r="U331">
-        <v>1.000084542466738</v>
+        <v>8.454246673794685E-05</v>
       </c>
       <c r="V331">
-        <v>1.000105610003379</v>
+        <v>0.000105610003379164</v>
       </c>
       <c r="W331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25128,7 +25128,7 @@
         <v>1.330071255311603</v>
       </c>
       <c r="K332">
-        <v>57.0828575426433</v>
+        <v>0.07082857542643295</v>
       </c>
       <c r="L332">
         <v>0.0113082794110033</v>
@@ -25158,13 +25158,13 @@
         <v>0.203125</v>
       </c>
       <c r="U332">
-        <v>1.000031700744967</v>
+        <v>3.170074496749997E-05</v>
       </c>
       <c r="V332">
-        <v>1.000126718621301</v>
+        <v>0.0001267186213014249</v>
       </c>
       <c r="W332">
-        <v>0.9996836444163238</v>
+        <v>-0.0003163555836761534</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25199,7 +25199,7 @@
         <v>1.330071255311603</v>
       </c>
       <c r="K333">
-        <v>57.0828575426433</v>
+        <v>0.07082857542643295</v>
       </c>
       <c r="L333">
         <v>0.01173695237902869</v>
@@ -25229,13 +25229,13 @@
         <v>0.2281249999999773</v>
       </c>
       <c r="U333">
-        <v>1.000073966060145</v>
+        <v>7.396606014498097E-05</v>
       </c>
       <c r="V333">
-        <v>1.000147819660015</v>
+        <v>0.0001478196600148696</v>
       </c>
       <c r="W333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25270,7 +25270,7 @@
         <v>1.483352705671863</v>
       </c>
       <c r="K334">
-        <v>59.7318577535907</v>
+        <v>0.097318577535907</v>
       </c>
       <c r="L334">
         <v>0.01210496699426873</v>
@@ -25300,13 +25300,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U334">
-        <v>1.000105657985102</v>
+        <v>0.0001056579851022033</v>
       </c>
       <c r="V334">
-        <v>1.000147797812592</v>
+        <v>0.0001477978125923318</v>
       </c>
       <c r="W334">
-        <v>1.000632911392405</v>
+        <v>0.0006329113924050667</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25341,7 +25341,7 @@
         <v>1.372617543631001</v>
       </c>
       <c r="K335">
-        <v>57.85245697586715</v>
+        <v>0.0785245697586715</v>
       </c>
       <c r="L335">
         <v>0.01225317071888072</v>
@@ -25371,13 +25371,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U335">
-        <v>1.000126776187206</v>
+        <v>0.0001267761872061346</v>
       </c>
       <c r="V335">
-        <v>1.000168886824717</v>
+        <v>0.0001688868247167186</v>
       </c>
       <c r="W335">
-        <v>0.9996837444655282</v>
+        <v>-0.0003162555344717877</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25412,7 +25412,7 @@
         <v>1.529779529473475</v>
       </c>
       <c r="K336">
-        <v>60.47086363260553</v>
+        <v>0.1047086363260553</v>
       </c>
       <c r="L336">
         <v>0.01244490458479269</v>
@@ -25442,13 +25442,13 @@
         <v>0.125</v>
       </c>
       <c r="U336">
-        <v>1.000126760117042</v>
+        <v>0.0001267601170418242</v>
       </c>
       <c r="V336">
-        <v>1.000232180171813</v>
+        <v>0.0002321801718134786</v>
       </c>
       <c r="W336">
-        <v>1.000632711167352</v>
+        <v>0.0006327111673520847</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25483,7 +25483,7 @@
         <v>1.312626852785184</v>
       </c>
       <c r="K337">
-        <v>56.75912874592534</v>
+        <v>0.06759128745925336</v>
       </c>
       <c r="L337">
         <v>0.01237457098245262</v>
@@ -25513,13 +25513,13 @@
         <v>0.09062500000001705</v>
       </c>
       <c r="U337">
-        <v>1.000116182046705</v>
+        <v>0.000116182046705271</v>
       </c>
       <c r="V337">
-        <v>1.000189921499114</v>
+        <v>0.0001899214991138987</v>
       </c>
       <c r="W337">
-        <v>0.9993676889029403</v>
+        <v>-0.0006323110970597456</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25554,7 +25554,7 @@
         <v>1.072291861790228</v>
       </c>
       <c r="K338">
-        <v>51.7442490395097</v>
+        <v>0.01744249039509704</v>
       </c>
       <c r="L338">
         <v>0.0117587674905794</v>
@@ -25584,13 +25584,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U338">
-        <v>1.000105607772732</v>
+        <v>0.0001056077727321636</v>
       </c>
       <c r="V338">
-        <v>1.000147688672278</v>
+        <v>0.0001476886722784343</v>
       </c>
       <c r="W338">
-        <v>0.9990509332489718</v>
+        <v>-0.000949066751028238</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25625,7 +25625,7 @@
         <v>1.072291861790228</v>
       </c>
       <c r="K339">
-        <v>51.7442490395097</v>
+        <v>0.01744249039509704</v>
       </c>
       <c r="L339">
         <v>0.01080907435139823</v>
@@ -25655,13 +25655,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U339">
-        <v>1.000095036958818</v>
+        <v>9.503695881751817E-05</v>
       </c>
       <c r="V339">
-        <v>1.000126571597334</v>
+        <v>0.0001265715973335357</v>
       </c>
       <c r="W339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25696,7 +25696,7 @@
         <v>1.342791847811502</v>
       </c>
       <c r="K340">
-        <v>57.31588357138339</v>
+        <v>0.07315883571383386</v>
       </c>
       <c r="L340">
         <v>0.01013976370155211</v>
@@ -25726,13 +25726,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U340">
-        <v>1.000137262562164</v>
+        <v>0.0001372625621640644</v>
       </c>
       <c r="V340">
-        <v>1.000189833368488</v>
+        <v>0.0001898333684877684</v>
       </c>
       <c r="W340">
-        <v>1.001266624445852</v>
+        <v>0.001266624445851683</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25767,7 +25767,7 @@
         <v>1.413976054659226</v>
       </c>
       <c r="K341">
-        <v>58.57456837362179</v>
+        <v>0.08574568373621783</v>
       </c>
       <c r="L341">
         <v>0.009761303858385988</v>
@@ -25797,13 +25797,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U341">
-        <v>1.000126686514221</v>
+        <v>0.000126686514220653</v>
       </c>
       <c r="V341">
-        <v>1.00004217718636</v>
+        <v>4.217718636012613E-05</v>
       </c>
       <c r="W341">
-        <v>1.000316255534472</v>
+        <v>0.0003162555344720097</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25838,7 +25838,7 @@
         <v>1.413976054659226</v>
       </c>
       <c r="K342">
-        <v>58.57456837362178</v>
+        <v>0.08574568373621783</v>
       </c>
       <c r="L342">
         <v>0.00954752620765751</v>
@@ -25868,13 +25868,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U342">
-        <v>1.000126670466781</v>
+        <v>0.0001266704667806096</v>
       </c>
       <c r="V342">
-        <v>0.9999789122962399</v>
+        <v>-2.108770376008096E-05</v>
       </c>
       <c r="W342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25909,7 +25909,7 @@
         <v>1.571724989501782</v>
       </c>
       <c r="K343">
-        <v>61.11559346033617</v>
+        <v>0.1111559346033617</v>
       </c>
       <c r="L343">
         <v>0.00964292622943954</v>
@@ -25939,13 +25939,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U343">
-        <v>1.000094990817554</v>
+        <v>9.499081755448557E-05</v>
       </c>
       <c r="V343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W343">
-        <v>1.00063231109706</v>
+        <v>0.0006323110970596346</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25980,7 +25980,7 @@
         <v>1.571724989501782</v>
       </c>
       <c r="K344">
-        <v>61.11559346033617</v>
+        <v>0.1111559346033617</v>
       </c>
       <c r="L344">
         <v>0.009884304830125647</v>
@@ -26010,13 +26010,13 @@
         <v>0.015625</v>
       </c>
       <c r="U344">
-        <v>1.000084428262361</v>
+        <v>8.442826236065848E-05</v>
       </c>
       <c r="V344">
-        <v>1.000063264445382</v>
+        <v>6.326444538173881E-05</v>
       </c>
       <c r="W344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -26051,7 +26051,7 @@
         <v>1.337876187761507</v>
       </c>
       <c r="K345">
-        <v>57.22613518907134</v>
+        <v>0.07226135189071337</v>
       </c>
       <c r="L345">
         <v>0.009932048861124778</v>
@@ -26081,13 +26081,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U345">
-        <v>1.000063315851123</v>
+        <v>6.331585112318017E-05</v>
       </c>
       <c r="V345">
-        <v>1.00004217362883</v>
+        <v>4.217362882985576E-05</v>
       </c>
       <c r="W345">
-        <v>0.9993680884676146</v>
+        <v>-0.0006319115323853985</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26122,7 +26122,7 @@
         <v>1.416183981763298</v>
       </c>
       <c r="K346">
-        <v>58.6124232447641</v>
+        <v>0.086124232447641</v>
       </c>
       <c r="L346">
         <v>0.009938537104352595</v>
@@ -26152,13 +26152,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U346">
-        <v>1.000084415789974</v>
+        <v>8.441578997353538E-05</v>
       </c>
       <c r="V346">
-        <v>1.000063257775435</v>
+        <v>6.325777543492173E-05</v>
       </c>
       <c r="W346">
-        <v>1.00031615554853</v>
+        <v>0.0003161555485298173</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26193,7 +26193,7 @@
         <v>1.498613238607336</v>
       </c>
       <c r="K347">
-        <v>59.97779950300053</v>
+        <v>0.09977799503000528</v>
       </c>
       <c r="L347">
         <v>0.009998646325673797</v>
@@ -26223,13 +26223,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U347">
-        <v>1.000116061913755</v>
+        <v>0.0001160619137554608</v>
       </c>
       <c r="V347">
-        <v>1.000105422956903</v>
+        <v>0.0001054229569030785</v>
       </c>
       <c r="W347">
-        <v>1.00031605562579</v>
+        <v>0.0003160556257901792</v>
       </c>
     </row>
     <row r="348" spans="1:23">
@@ -26264,7 +26264,7 @@
         <v>1.585380877390533</v>
       </c>
       <c r="K348">
-        <v>61.32097948332796</v>
+        <v>0.1132097948332796</v>
       </c>
       <c r="L348">
         <v>0.01016617912626792</v>
@@ -26294,13 +26294,13 @@
         <v>0.09062499999996021</v>
       </c>
       <c r="U348">
-        <v>1.000137148162214</v>
+        <v>0.0001371481622143289</v>
       </c>
       <c r="V348">
-        <v>1.00012649421289</v>
+        <v>0.0001264942128897939</v>
       </c>
       <c r="W348">
-        <v>1.000315955766193</v>
+        <v>0.0003159557661926993</v>
       </c>
     </row>
     <row r="349" spans="1:23">
@@ -26335,7 +26335,7 @@
         <v>1.452699502936507</v>
       </c>
       <c r="K349">
-        <v>59.22859694786317</v>
+        <v>0.09228596947863166</v>
       </c>
       <c r="L349">
         <v>0.01023574778166476</v>
@@ -26365,13 +26365,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U349">
-        <v>1.000105484119366</v>
+        <v>0.0001054841193659506</v>
       </c>
       <c r="V349">
-        <v>1.000063239107064</v>
+        <v>6.32391070638505E-05</v>
       </c>
       <c r="W349">
-        <v>0.9996841440303221</v>
+        <v>-0.0003158559696778696</v>
       </c>
     </row>
     <row r="350" spans="1:23">
@@ -26406,7 +26406,7 @@
         <v>1.235088515310644</v>
       </c>
       <c r="K350">
-        <v>55.25904262180799</v>
+        <v>0.05259042621807986</v>
       </c>
       <c r="L350">
         <v>0.009973750629289794</v>
@@ -26436,13 +26436,13 @@
         <v>0.08437499999996589</v>
       </c>
       <c r="U350">
-        <v>1.00010547299364</v>
+        <v>0.0001054729936400545</v>
       </c>
       <c r="V350">
-        <v>1.000042156738755</v>
+        <v>4.215673875473946E-05</v>
       </c>
       <c r="W350">
-        <v>0.9993680884676146</v>
+        <v>-0.0006319115323853985</v>
       </c>
     </row>
     <row r="351" spans="1:23">
@@ -26477,7 +26477,7 @@
         <v>1.235088515310644</v>
       </c>
       <c r="K351">
-        <v>55.25904262180799</v>
+        <v>0.05259042621807986</v>
       </c>
       <c r="L351">
         <v>0.009491307029514784</v>
@@ -26507,13 +26507,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U351">
-        <v>1.000116008057287</v>
+        <v>0.0001160080572870648</v>
       </c>
       <c r="V351">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:23">
@@ -26548,7 +26548,7 @@
         <v>1.140442724406774</v>
       </c>
       <c r="K352">
-        <v>53.28069335388775</v>
+        <v>0.03280693353887754</v>
       </c>
       <c r="L352">
         <v>0.008756324146801376</v>
@@ -26578,13 +26578,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U352">
-        <v>1.000105449637253</v>
+        <v>0.0001054496372532299</v>
       </c>
       <c r="V352">
-        <v>1.00002107748082</v>
+        <v>2.107748081958682E-05</v>
       </c>
       <c r="W352">
-        <v>0.9996838444514701</v>
+        <v>-0.0003161555485299283</v>
       </c>
     </row>
     <row r="353" spans="1:23">
@@ -26619,7 +26619,7 @@
         <v>0.918236828468467</v>
       </c>
       <c r="K353">
-        <v>47.86879361510296</v>
+        <v>-0.02131206384897039</v>
       </c>
       <c r="L353">
         <v>0.007537764833040321</v>
@@ -26649,13 +26649,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U353">
-        <v>1.00008435081504</v>
+        <v>8.435081503965769E-05</v>
       </c>
       <c r="V353">
-        <v>1.000021077036569</v>
+        <v>2.10770365687285E-05</v>
       </c>
       <c r="W353">
-        <v>0.9990512333965844</v>
+        <v>-0.0009487666034155851</v>
       </c>
     </row>
     <row r="354" spans="1:23">
@@ -26690,7 +26690,7 @@
         <v>1.260064521181129</v>
       </c>
       <c r="K354">
-        <v>55.75347559204233</v>
+        <v>0.05753475592042323</v>
       </c>
       <c r="L354">
         <v>0.006652543031452688</v>
@@ -26720,13 +26720,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U354">
-        <v>1.00012651555087</v>
+        <v>0.0001265155508696214</v>
       </c>
       <c r="V354">
-        <v>1.000126459554019</v>
+        <v>0.0001264595540191316</v>
       </c>
       <c r="W354">
-        <v>1.001582779360557</v>
+        <v>0.001582779360557174</v>
       </c>
     </row>
     <row r="355" spans="1:23">
@@ -26761,7 +26761,7 @@
         <v>1.403991970744388</v>
       </c>
       <c r="K355">
-        <v>58.40252329585139</v>
+        <v>0.08402523295851383</v>
       </c>
       <c r="L355">
         <v>0.006231775630000705</v>
@@ -26791,13 +26791,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U355">
-        <v>1.000137041175603</v>
+        <v>0.0001370411756025369</v>
       </c>
       <c r="V355">
-        <v>1.000084295709349</v>
+        <v>8.429570934853636E-05</v>
       </c>
       <c r="W355">
-        <v>1.00063211125158</v>
+        <v>0.0006321112515803584</v>
       </c>
     </row>
     <row r="356" spans="1:23">
@@ -26832,7 +26832,7 @@
         <v>1.403991970744388</v>
       </c>
       <c r="K356">
-        <v>58.40252329585139</v>
+        <v>0.08402523295851383</v>
       </c>
       <c r="L356">
         <v>0.006096430236403663</v>
@@ -26862,13 +26862,13 @@
         <v>-0.01875000000003979</v>
       </c>
       <c r="U356">
-        <v>1.000052700922266</v>
+        <v>5.270092226616896E-05</v>
       </c>
       <c r="V356">
-        <v>1.000063216453136</v>
+        <v>6.321645313556168E-05</v>
       </c>
       <c r="W356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:23">
@@ -26903,7 +26903,7 @@
         <v>1.643206568356362</v>
       </c>
       <c r="K357">
-        <v>62.16716423257699</v>
+        <v>0.12167164232577</v>
       </c>
       <c r="L357">
         <v>0.006465877497107692</v>
@@ -26933,13 +26933,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U357">
-        <v>1.000052698145026</v>
+        <v>5.269814502550929E-05</v>
       </c>
       <c r="V357">
-        <v>1.000126424914136</v>
+        <v>0.0001264249141363916</v>
       </c>
       <c r="W357">
-        <v>1.000947567909033</v>
+        <v>0.0009475679090333866</v>
       </c>
     </row>
     <row r="358" spans="1:23">
@@ -26974,7 +26974,7 @@
         <v>1.51596419472958</v>
       </c>
       <c r="K358">
-        <v>60.253806389821</v>
+        <v>0.10253806389821</v>
       </c>
       <c r="L358">
         <v>0.006978766442498441</v>
@@ -27004,13 +27004,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U358">
-        <v>1.000031617220846</v>
+        <v>3.161722084610297E-05</v>
       </c>
       <c r="V358">
-        <v>1.000063204466449</v>
+        <v>6.320446644880739E-05</v>
       </c>
       <c r="W358">
-        <v>0.9996844430419691</v>
+        <v>-0.0003155569580308715</v>
       </c>
     </row>
     <row r="359" spans="1:23">
@@ -27045,7 +27045,7 @@
         <v>1.5974751521704</v>
       </c>
       <c r="K359">
-        <v>61.50107541300561</v>
+        <v>0.1150107541300561</v>
       </c>
       <c r="L359">
         <v>0.007635524617231861</v>
@@ -27075,13 +27075,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U359">
-        <v>1.000073771182868</v>
+        <v>7.377118286844286E-05</v>
       </c>
       <c r="V359">
-        <v>1.000084267295862</v>
+        <v>8.426729586230586E-05</v>
       </c>
       <c r="W359">
-        <v>1.000315656565656</v>
+        <v>0.0003156565656563526</v>
       </c>
     </row>
     <row r="360" spans="1:23">
@@ -27116,7 +27116,7 @@
         <v>1.597475152170399</v>
       </c>
       <c r="K360">
-        <v>61.5010754130056</v>
+        <v>0.115010754130056</v>
       </c>
       <c r="L360">
         <v>0.008309673250221727</v>
@@ -27146,13 +27146,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U360">
-        <v>1.000084303704094</v>
+        <v>8.430370409406862E-05</v>
       </c>
       <c r="V360">
-        <v>1.000126390293225</v>
+        <v>0.0001263902932253647</v>
       </c>
       <c r="W360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:23">
@@ -27187,7 +27187,7 @@
         <v>1.597475152170399</v>
       </c>
       <c r="K361">
-        <v>61.5010754130056</v>
+        <v>0.115010754130056</v>
       </c>
       <c r="L361">
         <v>0.008921033326592165</v>
@@ -27217,13 +27217,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U361">
-        <v>1.000084296597578</v>
+        <v>8.429659757847041E-05</v>
       </c>
       <c r="V361">
-        <v>1.000105311933949</v>
+        <v>0.000105311933948693</v>
       </c>
       <c r="W361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:23">
@@ -27258,7 +27258,7 @@
         <v>1.242967123653722</v>
       </c>
       <c r="K362">
-        <v>55.41619895118963</v>
+        <v>0.05416198951189632</v>
       </c>
       <c r="L362">
         <v>0.009077440180500631</v>
@@ -27288,13 +27288,13 @@
         <v>0.109375</v>
       </c>
       <c r="U362">
-        <v>1.000063217119196</v>
+        <v>6.321711919610173E-05</v>
       </c>
       <c r="V362">
-        <v>1.000021060168903</v>
+        <v>2.106016890257578E-05</v>
       </c>
       <c r="W362">
-        <v>0.9990533291259074</v>
+        <v>-0.0009466708740926144</v>
       </c>
     </row>
     <row r="363" spans="1:23">
@@ -27329,7 +27329,7 @@
         <v>1.075480662938956</v>
       </c>
       <c r="K363">
-        <v>51.81838993460129</v>
+        <v>0.01818389934601294</v>
       </c>
       <c r="L363">
         <v>0.008685006083516375</v>
@@ -27359,13 +27359,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U363">
-        <v>1.00004214208203</v>
+        <v>4.214208202957259E-05</v>
       </c>
       <c r="V363">
-        <v>0.9999578805492376</v>
+        <v>-4.2119450762379E-05</v>
       </c>
       <c r="W363">
-        <v>0.9993682880606441</v>
+        <v>-0.0006317119393558501</v>
       </c>
     </row>
     <row r="364" spans="1:23">
@@ -27400,7 +27400,7 @@
         <v>1.075480662938956</v>
       </c>
       <c r="K364">
-        <v>51.81838993460129</v>
+        <v>0.01818389934601283</v>
       </c>
       <c r="L364">
         <v>0.007953558364282944</v>
@@ -27430,13 +27430,13 @@
         <v>0.09375000000002842</v>
       </c>
       <c r="U364">
-        <v>1.000021070153075</v>
+        <v>2.107015307450943E-05</v>
       </c>
       <c r="V364">
-        <v>0.9999789393875572</v>
+        <v>-2.106061244278035E-05</v>
       </c>
       <c r="W364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:23">
@@ -27471,7 +27471,7 @@
         <v>1.15013290528605</v>
       </c>
       <c r="K365">
-        <v>53.49124709725972</v>
+        <v>0.0349124709725972</v>
       </c>
       <c r="L365">
         <v>0.007149555932201565</v>
@@ -27501,13 +27501,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U365">
-        <v>1.000042139418265</v>
+        <v>4.213941826525236E-05</v>
       </c>
       <c r="V365">
-        <v>1.000042122112003</v>
+        <v>4.212211200260718E-05</v>
       </c>
       <c r="W365">
-        <v>1.00031605562579</v>
+        <v>0.0003160556257901792</v>
       </c>
     </row>
     <row r="366" spans="1:23">
@@ -27542,7 +27542,7 @@
         <v>1.464458136221096</v>
       </c>
       <c r="K366">
-        <v>59.42312895063574</v>
+        <v>0.0942312895063574</v>
       </c>
       <c r="L366">
         <v>0.006787179937215543</v>
@@ -27572,13 +27572,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U366">
-        <v>1.000063206463915</v>
+        <v>6.320646391455575E-05</v>
       </c>
       <c r="V366">
-        <v>1.000126361013416</v>
+        <v>0.0001263610134156767</v>
       </c>
       <c r="W366">
-        <v>1.001263823064771</v>
+        <v>0.001263823064770797</v>
       </c>
     </row>
     <row r="367" spans="1:23">
@@ -27613,7 +27613,7 @@
         <v>1.352576815220697</v>
       </c>
       <c r="K367">
-        <v>57.49341770563232</v>
+        <v>0.07493417705632321</v>
       </c>
       <c r="L367">
         <v>0.006575566296618584</v>
@@ -27643,13 +27643,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U367">
-        <v>1.000073736213961</v>
+        <v>7.373621396133956E-05</v>
       </c>
       <c r="V367">
-        <v>1.000126345048327</v>
+        <v>0.0001263450483266482</v>
       </c>
       <c r="W367">
-        <v>0.9996844430419691</v>
+        <v>-0.0003155569580308715</v>
       </c>
     </row>
     <row r="368" spans="1:23">
@@ -27684,7 +27684,7 @@
         <v>0.9646837685019142</v>
       </c>
       <c r="K368">
-        <v>49.10122351331342</v>
+        <v>-0.008987764866865811</v>
       </c>
       <c r="L368">
         <v>0.005869429194277609</v>
@@ -27714,13 +27714,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U368">
-        <v>1.000052664840952</v>
+        <v>5.266484095223234E-05</v>
       </c>
       <c r="V368">
-        <v>1.000084219391515</v>
+        <v>8.421939151492808E-05</v>
       </c>
       <c r="W368">
-        <v>0.9984217171717171</v>
+        <v>-0.001578282828282873</v>
       </c>
     </row>
     <row r="369" spans="1:23">
@@ -27755,7 +27755,7 @@
         <v>0.9646837685019142</v>
       </c>
       <c r="K369">
-        <v>49.10122351331342</v>
+        <v>-0.008987764866865811</v>
       </c>
       <c r="L369">
         <v>0.004887414090490825</v>
@@ -27785,13 +27785,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U369">
-        <v>1.000052662067513</v>
+        <v>5.266206751275426E-05</v>
       </c>
       <c r="V369">
-        <v>0.9999789469251986</v>
+        <v>-2.105307480138041E-05</v>
       </c>
       <c r="W369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:23">
@@ -27826,7 +27826,7 @@
         <v>0.8558951632839019</v>
       </c>
       <c r="K370">
-        <v>46.11764609426772</v>
+        <v>-0.03882353905732283</v>
       </c>
       <c r="L370">
         <v>0.003552984600854083</v>
@@ -27856,13 +27856,13 @@
         <v>-0.07812500000002842</v>
       </c>
       <c r="U370">
-        <v>0.9999894681411269</v>
+        <v>-1.053185887311958E-05</v>
       </c>
       <c r="V370">
-        <v>0.9998947324097855</v>
+        <v>-0.0001052675902144529</v>
       </c>
       <c r="W370">
-        <v>0.9993676889029403</v>
+        <v>-0.0006323110970597456</v>
       </c>
     </row>
     <row r="371" spans="1:23">
@@ -27897,7 +27897,7 @@
         <v>0.726529417898701</v>
       </c>
       <c r="K371">
-        <v>42.08033818403944</v>
+        <v>-0.0791966181596056</v>
       </c>
       <c r="L371">
         <v>0.001732038751577256</v>
@@ -27927,13 +27927,13 @@
         <v>-0.09062500000001705</v>
       </c>
       <c r="U371">
-        <v>0.9999473401510283</v>
+        <v>-5.26598489717367E-05</v>
       </c>
       <c r="V371">
-        <v>0.9998315541237656</v>
+        <v>-0.0001684458762344354</v>
       </c>
       <c r="W371">
-        <v>0.9990509332489718</v>
+        <v>-0.000949066751028238</v>
       </c>
     </row>
     <row r="372" spans="1:23">
@@ -27968,7 +27968,7 @@
         <v>0.689939224959277</v>
       </c>
       <c r="K372">
-        <v>40.82627438722849</v>
+        <v>-0.09173725612771511</v>
       </c>
       <c r="L372">
         <v>-0.0003889497292050985</v>
@@ -27998,13 +27998,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U372">
-        <v>0.9999368048533873</v>
+        <v>-6.319514661268233E-05</v>
       </c>
       <c r="V372">
-        <v>0.9997472886174582</v>
+        <v>-0.0002527113825417926</v>
       </c>
       <c r="W372">
-        <v>0.999683343888537</v>
+        <v>-0.0003166561114630317</v>
       </c>
     </row>
     <row r="373" spans="1:23">
@@ -28039,7 +28039,7 @@
         <v>0.689939224959277</v>
       </c>
       <c r="K373">
-        <v>40.82627438722849</v>
+        <v>-0.09173725612771511</v>
       </c>
       <c r="L373">
         <v>-0.002555198540497645</v>
@@ -28069,13 +28069,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U373">
-        <v>0.9999157344793445</v>
+        <v>-8.426552065554649E-05</v>
       </c>
       <c r="V373">
-        <v>0.9997682893434161</v>
+        <v>-0.0002317106565838944</v>
       </c>
       <c r="W373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:23">
@@ -28110,7 +28110,7 @@
         <v>0.6899392249592768</v>
       </c>
       <c r="K374">
-        <v>40.82627438722849</v>
+        <v>-0.09173725612771511</v>
       </c>
       <c r="L374">
         <v>-0.004601650914561953</v>
@@ -28140,13 +28140,13 @@
         <v>-0.1593749999999829</v>
       </c>
       <c r="U374">
-        <v>0.9999157273780681</v>
+        <v>-8.427262193189122E-05</v>
       </c>
       <c r="V374">
-        <v>0.9997471661539759</v>
+        <v>-0.0002528338460241475</v>
       </c>
       <c r="W374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:23">
@@ -28181,7 +28181,7 @@
         <v>0.6899392249592768</v>
       </c>
       <c r="K375">
-        <v>40.82627438722849</v>
+        <v>-0.09173725612771511</v>
       </c>
       <c r="L375">
         <v>-0.00642852725046337</v>
@@ -28211,13 +28211,13 @@
         <v>-0.1906249999999829</v>
       </c>
       <c r="U375">
-        <v>0.9999367902066959</v>
+        <v>-6.320979330409759E-05</v>
       </c>
       <c r="V375">
-        <v>0.9997471022128557</v>
+        <v>-0.0002528977871443239</v>
       </c>
       <c r="W375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:23">
@@ -28252,7 +28252,7 @@
         <v>0.6140078920933389</v>
       </c>
       <c r="K376">
-        <v>38.04243430910253</v>
+        <v>-0.1195756569089747</v>
       </c>
       <c r="L376">
         <v>-0.008212865015581749</v>
@@ -28282,13 +28282,13 @@
         <v>-0.1968749999999773</v>
       </c>
       <c r="U376">
-        <v>0.9999051793164482</v>
+        <v>-9.482068355182172E-05</v>
       </c>
       <c r="V376">
-        <v>0.9997048779459504</v>
+        <v>-0.0002951220540495791</v>
       </c>
       <c r="W376">
-        <v>0.9993664871713652</v>
+        <v>-0.0006335128286347746</v>
       </c>
     </row>
     <row r="377" spans="1:23">
@@ -28323,7 +28323,7 @@
         <v>0.5502614868976357</v>
       </c>
       <c r="K377">
-        <v>35.49475308186958</v>
+        <v>-0.1450524691813043</v>
       </c>
       <c r="L377">
         <v>-0.01005820823383925</v>
@@ -28353,13 +28353,13 @@
         <v>-0.2093749999999943</v>
       </c>
       <c r="U377">
-        <v>0.9998735604328449</v>
+        <v>-0.0001264395671550789</v>
       </c>
       <c r="V377">
-        <v>0.9997258771929826</v>
+        <v>-0.0002741228070174406</v>
       </c>
       <c r="W377">
-        <v>0.999366085578447</v>
+        <v>-0.0006339144215530279</v>
       </c>
     </row>
     <row r="378" spans="1:23">
@@ -28394,7 +28394,7 @@
         <v>0.5502614868976355</v>
       </c>
       <c r="K378">
-        <v>35.49475308186956</v>
+        <v>-0.1450524691813044</v>
       </c>
       <c r="L378">
         <v>-0.01178660050061773</v>
@@ -28424,13 +28424,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U378">
-        <v>0.9998630064808474</v>
+        <v>-0.0001369935191526395</v>
       </c>
       <c r="V378">
-        <v>0.9997679863322858</v>
+        <v>-0.0002320136677141926</v>
       </c>
       <c r="W378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:23">
@@ -28465,7 +28465,7 @@
         <v>0.5203329251363189</v>
       </c>
       <c r="K379">
-        <v>34.22493300864768</v>
+        <v>-0.1577506699135232</v>
       </c>
       <c r="L379">
         <v>-0.0134064903869783</v>
@@ -28495,13 +28495,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U379">
-        <v>0.9998629877110518</v>
+        <v>-0.0001370122889482461</v>
       </c>
       <c r="V379">
-        <v>0.999746835443038</v>
+        <v>-0.0002531645569620045</v>
       </c>
       <c r="W379">
-        <v>0.9996828417380272</v>
+        <v>-0.0003171582619727609</v>
       </c>
     </row>
     <row r="380" spans="1:23">
@@ -28536,7 +28536,7 @@
         <v>0.806594547770033</v>
       </c>
       <c r="K380">
-        <v>44.64723691132864</v>
+        <v>-0.05352763088671358</v>
       </c>
       <c r="L380">
         <v>-0.01423333653279898</v>
@@ -28566,13 +28566,13 @@
         <v>-0.1968749999999773</v>
       </c>
       <c r="U380">
-        <v>0.9999367548935898</v>
+        <v>-6.324510641020353E-05</v>
       </c>
       <c r="V380">
-        <v>0.9998311808896767</v>
+        <v>-0.0001688191103232928</v>
       </c>
       <c r="W380">
-        <v>1.001586294416244</v>
+        <v>0.001586294416243694</v>
       </c>
     </row>
     <row r="381" spans="1:23">
@@ -28607,7 +28607,7 @@
         <v>0.8668601525350392</v>
       </c>
       <c r="K381">
-        <v>46.43412370004877</v>
+        <v>-0.03565876299951237</v>
       </c>
       <c r="L381">
         <v>-0.01436008051349264</v>
@@ -28637,13 +28637,13 @@
         <v>-0.1687500000000171</v>
       </c>
       <c r="U381">
-        <v>0.9999472924111615</v>
+        <v>-5.270758883846316E-05</v>
       </c>
       <c r="V381">
-        <v>0.9997678345293372</v>
+        <v>-0.0002321654706628484</v>
       </c>
       <c r="W381">
-        <v>1.000316756414317</v>
+        <v>0.0003167564143173873</v>
       </c>
     </row>
     <row r="382" spans="1:23">
@@ -28678,7 +28678,7 @@
         <v>0.6914139273726921</v>
       </c>
       <c r="K382">
-        <v>40.87786651057554</v>
+        <v>-0.09122133489424461</v>
       </c>
       <c r="L382">
         <v>-0.01446283405983816</v>
@@ -28708,13 +28708,13 @@
         <v>-0.1406249999999716</v>
       </c>
       <c r="U382">
-        <v>0.9999156634126799</v>
+        <v>-8.433658732009963E-05</v>
       </c>
       <c r="V382">
-        <v>0.9997044480567461</v>
+        <v>-0.0002955519432539244</v>
       </c>
       <c r="W382">
-        <v>0.9987333755541481</v>
+        <v>-0.001266624445851905</v>
       </c>
     </row>
     <row r="383" spans="1:23">
@@ -28749,7 +28749,7 @@
         <v>0.8511976910566992</v>
       </c>
       <c r="K383">
-        <v>45.98091793053281</v>
+        <v>-0.04019082069467189</v>
       </c>
       <c r="L383">
         <v>-0.01414646500165953</v>
@@ -28779,13 +28779,13 @@
         <v>-0.1062500000000455</v>
       </c>
       <c r="U383">
-        <v>0.9999789140748548</v>
+        <v>-2.108592514515895E-05</v>
       </c>
       <c r="V383">
-        <v>0.9998732974342731</v>
+        <v>-0.0001267025657268883</v>
       </c>
       <c r="W383">
-        <v>1.000951173113507</v>
+        <v>0.0009511731135067869</v>
       </c>
     </row>
     <row r="384" spans="1:23">
@@ -28820,7 +28820,7 @@
         <v>0.8511976910566992</v>
       </c>
       <c r="K384">
-        <v>45.98091793053281</v>
+        <v>-0.04019082069467189</v>
       </c>
       <c r="L384">
         <v>-0.01354475926013708</v>
@@ -28850,13 +28850,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U384">
-        <v>0.999926197705803</v>
+        <v>-7.380229419695628E-05</v>
       </c>
       <c r="V384">
-        <v>0.9998732813786986</v>
+        <v>-0.0001267186213014249</v>
       </c>
       <c r="W384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
